--- a/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
+++ b/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="84">
   <si>
     <t>Index of wholesale prices (incl. rates of change): Germany,
 months</t>
@@ -199,6 +199,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
@@ -265,7 +268,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:31:46</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:07:38</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3927">
+  <cellXfs count="3999">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -3599,16 +3602,112 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -8827,6 +8926,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -11427,6 +11574,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -14027,6 +14222,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -14037,6 +14280,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -16666,4137 +16957,4213 @@
       </c>
     </row>
     <row r="4" ht="48.75" customHeight="true">
-      <c r="A4" t="s" s="1327">
+      <c r="A4" t="s" s="1351">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="1328">
+      <c r="B4" t="s" s="1352">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="1329">
+      <c r="C4" t="s" s="1353">
         <v>5</v>
       </c>
-      <c r="D4" s="1330"/>
-      <c r="E4" s="1331"/>
-      <c r="F4" s="1332"/>
-      <c r="G4" s="1333"/>
-      <c r="H4" s="1334"/>
-      <c r="I4" s="1335"/>
-      <c r="J4" s="1336"/>
-      <c r="K4" s="1337"/>
-      <c r="L4" s="1338"/>
-      <c r="M4" s="1339"/>
-      <c r="N4" s="1340"/>
-      <c r="O4" s="1341"/>
-      <c r="P4" s="1342"/>
-      <c r="Q4" s="1343"/>
-      <c r="R4" s="1344"/>
-      <c r="S4" s="1345"/>
-      <c r="T4" s="1346"/>
-      <c r="U4" s="1347"/>
-      <c r="V4" s="1348"/>
-      <c r="W4" s="1349"/>
-      <c r="X4" s="1350"/>
-      <c r="Y4" s="1351"/>
-      <c r="Z4" s="1352"/>
-      <c r="AA4" s="1353"/>
-      <c r="AB4" s="1354"/>
-      <c r="AC4" s="1355"/>
-      <c r="AD4" s="1356"/>
-      <c r="AE4" s="1357"/>
-      <c r="AF4" s="1358"/>
-      <c r="AG4" s="1359"/>
-      <c r="AH4" s="1360"/>
-      <c r="AI4" s="1361"/>
-      <c r="AJ4" s="1362"/>
-      <c r="AK4" s="1363"/>
-      <c r="AL4" s="1364"/>
-      <c r="AM4" s="1365"/>
-      <c r="AN4" s="1366"/>
-      <c r="AO4" s="1367"/>
-      <c r="AP4" s="1368"/>
-      <c r="AQ4" s="1369"/>
-      <c r="AR4" s="1370"/>
-      <c r="AS4" s="1371"/>
-      <c r="AT4" s="1372"/>
-      <c r="AU4" s="1373"/>
-      <c r="AV4" s="1374"/>
-      <c r="AW4" s="1375"/>
-      <c r="AX4" s="1376"/>
-      <c r="AY4" s="1377"/>
-      <c r="AZ4" s="1378"/>
-      <c r="BA4" s="1379"/>
-      <c r="BB4" s="1380"/>
-      <c r="BC4" s="1381"/>
-      <c r="BD4" s="1382"/>
-      <c r="BE4" s="1383"/>
-      <c r="BF4" s="1384"/>
-      <c r="BG4" s="1385"/>
-      <c r="BH4" s="1386"/>
-      <c r="BI4" s="1387"/>
-      <c r="BJ4" s="1388"/>
-      <c r="BK4" s="1389"/>
-      <c r="BL4" s="1390"/>
-      <c r="BM4" s="1391"/>
-      <c r="BN4" s="1392"/>
-      <c r="BO4" s="1393"/>
-      <c r="BP4" s="1394"/>
-      <c r="BQ4" s="1395"/>
-      <c r="BR4" s="1396"/>
-      <c r="BS4" s="1397"/>
-      <c r="BT4" s="1398"/>
-      <c r="BU4" s="1399"/>
-      <c r="BV4" s="1400"/>
-      <c r="BW4" s="1401"/>
-      <c r="BX4" s="1402"/>
-      <c r="BY4" s="1403"/>
-      <c r="BZ4" s="1404"/>
-      <c r="CA4" s="1405"/>
-      <c r="CB4" s="1406"/>
-      <c r="CC4" s="1407"/>
-      <c r="CD4" s="1408"/>
-      <c r="CE4" s="1409"/>
-      <c r="CF4" s="1410"/>
-      <c r="CG4" s="1411"/>
-      <c r="CH4" s="1412"/>
-      <c r="CI4" s="1413"/>
-      <c r="CJ4" s="1414"/>
-      <c r="CK4" s="1415"/>
-      <c r="CL4" s="1416"/>
-      <c r="CM4" s="1417"/>
-      <c r="CN4" s="1418"/>
-      <c r="CO4" s="1419"/>
-      <c r="CP4" s="1420"/>
-      <c r="CQ4" s="1421"/>
-      <c r="CR4" s="1422"/>
-      <c r="CS4" s="1423"/>
-      <c r="CT4" s="1424"/>
-      <c r="CU4" s="1425"/>
-      <c r="CV4" s="1426"/>
-      <c r="CW4" s="1427"/>
-      <c r="CX4" s="1428"/>
-      <c r="CY4" s="1429"/>
-      <c r="CZ4" s="1430"/>
-      <c r="DA4" s="1431"/>
-      <c r="DB4" s="1432"/>
-      <c r="DC4" s="1433"/>
-      <c r="DD4" s="1434"/>
-      <c r="DE4" s="1435"/>
-      <c r="DF4" s="1436"/>
-      <c r="DG4" s="1437"/>
-      <c r="DH4" s="1438"/>
-      <c r="DI4" s="1439"/>
-      <c r="DJ4" s="1440"/>
-      <c r="DK4" s="1441"/>
-      <c r="DL4" s="1442"/>
-      <c r="DM4" s="1443"/>
-      <c r="DN4" s="1444"/>
-      <c r="DO4" s="1445"/>
-      <c r="DP4" s="1446"/>
-      <c r="DQ4" s="1447"/>
-      <c r="DR4" s="1448"/>
-      <c r="DS4" s="1449"/>
-      <c r="DT4" s="1450"/>
-      <c r="DU4" s="1451"/>
-      <c r="DV4" s="1452"/>
-      <c r="DW4" s="1453"/>
-      <c r="DX4" s="1454"/>
-      <c r="DY4" s="1455"/>
-      <c r="DZ4" s="1456"/>
-      <c r="EA4" s="1457"/>
-      <c r="EB4" s="1458"/>
-      <c r="EC4" s="1459"/>
-      <c r="ED4" s="1460"/>
-      <c r="EE4" s="1461"/>
-      <c r="EF4" s="1462"/>
-      <c r="EG4" s="1463"/>
-      <c r="EH4" s="1464"/>
-      <c r="EI4" s="1465"/>
-      <c r="EJ4" s="1466"/>
-      <c r="EK4" s="1467"/>
-      <c r="EL4" s="1468"/>
-      <c r="EM4" s="1469"/>
-      <c r="EN4" s="1470"/>
-      <c r="EO4" s="1471"/>
-      <c r="EP4" s="1472"/>
-      <c r="EQ4" s="1473"/>
-      <c r="ER4" s="1474"/>
-      <c r="ES4" s="1475"/>
-      <c r="ET4" s="1476"/>
-      <c r="EU4" s="1477"/>
-      <c r="EV4" s="1478"/>
-      <c r="EW4" s="1479"/>
-      <c r="EX4" s="1480"/>
-      <c r="EY4" s="1481"/>
-      <c r="EZ4" s="1482"/>
-      <c r="FA4" s="1483"/>
-      <c r="FB4" s="1484"/>
-      <c r="FC4" s="1485"/>
-      <c r="FD4" s="1486"/>
-      <c r="FE4" s="1487"/>
-      <c r="FF4" s="1488"/>
-      <c r="FG4" s="1489"/>
-      <c r="FH4" s="1490"/>
-      <c r="FI4" s="1491"/>
-      <c r="FJ4" s="1492"/>
-      <c r="FK4" s="1493"/>
-      <c r="FL4" s="1494"/>
-      <c r="FM4" s="1495"/>
-      <c r="FN4" s="1496"/>
-      <c r="FO4" s="1497"/>
-      <c r="FP4" s="1498"/>
-      <c r="FQ4" s="1499"/>
-      <c r="FR4" s="1500"/>
-      <c r="FS4" s="1501"/>
-      <c r="FT4" s="1502"/>
-      <c r="FU4" s="1503"/>
-      <c r="FV4" s="1504"/>
-      <c r="FW4" s="1505"/>
-      <c r="FX4" s="1506"/>
-      <c r="FY4" s="1507"/>
-      <c r="FZ4" s="1508"/>
-      <c r="GA4" s="1509"/>
-      <c r="GB4" s="1510"/>
-      <c r="GC4" s="1511"/>
-      <c r="GD4" s="1512"/>
-      <c r="GE4" s="1513"/>
-      <c r="GF4" s="1514"/>
-      <c r="GG4" s="1515"/>
-      <c r="GH4" s="1516"/>
-      <c r="GI4" s="1517"/>
-      <c r="GJ4" s="1518"/>
-      <c r="GK4" s="1519"/>
-      <c r="GL4" s="1520"/>
-      <c r="GM4" s="1521"/>
-      <c r="GN4" s="1522"/>
-      <c r="GO4" s="1523"/>
-      <c r="GP4" s="1524"/>
-      <c r="GQ4" s="1525"/>
-      <c r="GR4" s="1526"/>
-      <c r="GS4" s="1527"/>
-      <c r="GT4" s="1528"/>
-      <c r="GU4" s="1529"/>
-      <c r="GV4" s="1530"/>
-      <c r="GW4" s="1531"/>
-      <c r="GX4" s="1532"/>
-      <c r="GY4" s="1533"/>
-      <c r="GZ4" s="1534"/>
-      <c r="HA4" s="1535"/>
-      <c r="HB4" s="1536"/>
-      <c r="HC4" s="1537"/>
-      <c r="HD4" s="1538"/>
-      <c r="HE4" s="1539"/>
-      <c r="HF4" s="1540"/>
-      <c r="HG4" s="1541"/>
-      <c r="HH4" s="1542"/>
-      <c r="HI4" s="1543"/>
-      <c r="HJ4" s="1544"/>
-      <c r="HK4" s="1545"/>
-      <c r="HL4" s="1546"/>
-      <c r="HM4" s="1547"/>
-      <c r="HN4" s="1548"/>
-      <c r="HO4" s="1549"/>
-      <c r="HP4" s="1550"/>
-      <c r="HQ4" s="1551"/>
-      <c r="HR4" s="1552"/>
-      <c r="HS4" s="1553"/>
-      <c r="HT4" s="1554"/>
-      <c r="HU4" s="1555"/>
-      <c r="HV4" s="1556"/>
-      <c r="HW4" s="1557"/>
-      <c r="HX4" s="1558"/>
-      <c r="HY4" s="1559"/>
-      <c r="HZ4" s="1560"/>
-      <c r="IA4" s="1561"/>
-      <c r="IB4" s="1562"/>
-      <c r="IC4" s="1563"/>
-      <c r="ID4" s="1564"/>
-      <c r="IE4" s="1565"/>
-      <c r="IF4" s="1566"/>
-      <c r="IG4" s="1567"/>
-      <c r="IH4" s="1568"/>
-      <c r="II4" s="1569"/>
-      <c r="IJ4" s="1570"/>
-      <c r="IK4" s="1571"/>
-      <c r="IL4" s="1572"/>
-      <c r="IM4" s="1573"/>
-      <c r="IN4" s="1574"/>
-      <c r="IO4" s="1575"/>
-      <c r="IP4" s="1576"/>
-      <c r="IQ4" s="1577"/>
-      <c r="IR4" s="1578"/>
-      <c r="IS4" s="1579"/>
-      <c r="IT4" s="1580"/>
-      <c r="IU4" s="1581"/>
-      <c r="IV4" s="1582"/>
-      <c r="IW4" s="1583"/>
-      <c r="IX4" s="1584"/>
-      <c r="IY4" s="1585"/>
-      <c r="IZ4" s="1586"/>
-      <c r="JA4" s="1587"/>
-      <c r="JB4" s="1588"/>
-      <c r="JC4" s="1589"/>
-      <c r="JD4" s="1590"/>
-      <c r="JE4" s="1591"/>
-      <c r="JF4" s="1592"/>
-      <c r="JG4" s="1593"/>
-      <c r="JH4" s="1594"/>
-      <c r="JI4" s="1595"/>
-      <c r="JJ4" s="1596"/>
-      <c r="JK4" s="1597"/>
-      <c r="JL4" s="1598"/>
-      <c r="JM4" s="1599"/>
-      <c r="JN4" s="1600"/>
-      <c r="JO4" s="1601"/>
-      <c r="JP4" s="1602"/>
-      <c r="JQ4" s="1603"/>
-      <c r="JR4" s="1604"/>
-      <c r="JS4" s="1605"/>
-      <c r="JT4" s="1606"/>
-      <c r="JU4" s="1607"/>
-      <c r="JV4" s="1608"/>
-      <c r="JW4" s="1609"/>
-      <c r="JX4" s="1610"/>
-      <c r="JY4" s="1611"/>
-      <c r="JZ4" s="1612"/>
-      <c r="KA4" s="1613"/>
-      <c r="KB4" s="1614"/>
-      <c r="KC4" s="1615"/>
-      <c r="KD4" s="1616"/>
-      <c r="KE4" s="1617"/>
-      <c r="KF4" s="1618"/>
-      <c r="KG4" s="1619"/>
-      <c r="KH4" s="1620"/>
-      <c r="KI4" s="1621"/>
-      <c r="KJ4" s="1622"/>
-      <c r="KK4" s="1623"/>
-      <c r="KL4" s="1624"/>
-      <c r="KM4" s="1625"/>
-      <c r="KN4" s="1626"/>
-      <c r="KO4" s="1627"/>
-      <c r="KP4" s="1628"/>
-      <c r="KQ4" s="1629"/>
-      <c r="KR4" s="1630"/>
-      <c r="KS4" s="1631"/>
-      <c r="KT4" s="1632"/>
-      <c r="KU4" s="1633"/>
-      <c r="KV4" s="1634"/>
-      <c r="KW4" s="1635"/>
-      <c r="KX4" s="1636"/>
-      <c r="KY4" s="1637"/>
-      <c r="KZ4" s="1638"/>
-      <c r="LA4" s="1639"/>
-      <c r="LB4" s="1640"/>
-      <c r="LC4" s="1641"/>
-      <c r="LD4" s="1642"/>
-      <c r="LE4" s="1643"/>
-      <c r="LF4" s="1644"/>
-      <c r="LG4" s="1645"/>
-      <c r="LH4" s="1646"/>
-      <c r="LI4" s="1647"/>
-      <c r="LJ4" s="1648"/>
-      <c r="LK4" s="1649"/>
-      <c r="LL4" s="1650"/>
-      <c r="LM4" s="1651"/>
-      <c r="LN4" s="1652"/>
-      <c r="LO4" s="1653"/>
-      <c r="LP4" s="1654"/>
-      <c r="LQ4" s="1655"/>
-      <c r="LR4" s="1656"/>
-      <c r="LS4" s="1657"/>
-      <c r="LT4" s="1658"/>
-      <c r="LU4" s="1659"/>
-      <c r="LV4" s="1660"/>
-      <c r="LW4" s="1661"/>
-      <c r="LX4" s="1662"/>
-      <c r="LY4" s="1663"/>
-      <c r="LZ4" s="1664"/>
-      <c r="MA4" s="1665"/>
-      <c r="MB4" s="1666"/>
-      <c r="MC4" s="1667"/>
-      <c r="MD4" s="1668"/>
-      <c r="ME4" s="1669"/>
-      <c r="MF4" s="1670"/>
-      <c r="MG4" s="1671"/>
-      <c r="MH4" s="1672"/>
-      <c r="MI4" s="1673"/>
-      <c r="MJ4" s="1674"/>
-      <c r="MK4" s="1675"/>
-      <c r="ML4" s="1676"/>
-      <c r="MM4" s="1677"/>
-      <c r="MN4" s="1678"/>
-      <c r="MO4" s="1679"/>
-      <c r="MP4" s="1680"/>
-      <c r="MQ4" s="1681"/>
-      <c r="MR4" s="1682"/>
-      <c r="MS4" s="1683"/>
-      <c r="MT4" s="1684"/>
-      <c r="MU4" s="1685"/>
-      <c r="MV4" s="1686"/>
-      <c r="MW4" s="1687"/>
-      <c r="MX4" s="1688"/>
-      <c r="MY4" s="1689"/>
-      <c r="MZ4" s="1690"/>
-      <c r="NA4" s="1691"/>
-      <c r="NB4" s="1692"/>
-      <c r="NC4" s="1693"/>
-      <c r="ND4" s="1694"/>
-      <c r="NE4" s="1695"/>
-      <c r="NF4" s="1696"/>
-      <c r="NG4" s="1697"/>
-      <c r="NH4" s="1698"/>
-      <c r="NI4" s="1699"/>
-      <c r="NJ4" s="1700"/>
-      <c r="NK4" s="1701"/>
-      <c r="NL4" s="1702"/>
-      <c r="NM4" s="1703"/>
-      <c r="NN4" s="1704"/>
-      <c r="NO4" s="1705"/>
-      <c r="NP4" s="1706"/>
-      <c r="NQ4" s="1707"/>
-      <c r="NR4" s="1708"/>
-      <c r="NS4" s="1709"/>
-      <c r="NT4" s="1710"/>
-      <c r="NU4" s="1711"/>
-      <c r="NV4" s="1712"/>
-      <c r="NW4" s="1713"/>
-      <c r="NX4" s="1714"/>
-      <c r="NY4" s="1715"/>
-      <c r="NZ4" s="1716"/>
-      <c r="OA4" s="1717"/>
-      <c r="OB4" s="1718"/>
-      <c r="OC4" s="1719"/>
-      <c r="OD4" s="1720"/>
-      <c r="OE4" s="1721"/>
-      <c r="OF4" s="1722"/>
-      <c r="OG4" s="1723"/>
-      <c r="OH4" s="1724"/>
-      <c r="OI4" s="1725"/>
-      <c r="OJ4" s="1726"/>
-      <c r="OK4" s="1727"/>
-      <c r="OL4" s="1728"/>
-      <c r="OM4" s="1729"/>
-      <c r="ON4" s="1730"/>
-      <c r="OO4" s="1731"/>
-      <c r="OP4" s="1732"/>
-      <c r="OQ4" s="1733"/>
-      <c r="OR4" s="1734"/>
-      <c r="OS4" s="1735"/>
-      <c r="OT4" s="1736"/>
-      <c r="OU4" s="1737"/>
-      <c r="OV4" s="1738"/>
-      <c r="OW4" s="1739"/>
-      <c r="OX4" s="1740"/>
-      <c r="OY4" s="1741"/>
-      <c r="OZ4" s="1742"/>
-      <c r="PA4" s="1743"/>
-      <c r="PB4" s="1744"/>
-      <c r="PC4" s="1745"/>
-      <c r="PD4" s="1746"/>
-      <c r="PE4" s="1747"/>
-      <c r="PF4" s="1748"/>
-      <c r="PG4" s="1749"/>
-      <c r="PH4" s="1750"/>
-      <c r="PI4" s="1751"/>
-      <c r="PJ4" s="1752"/>
-      <c r="PK4" s="1753"/>
-      <c r="PL4" s="1754"/>
-      <c r="PM4" s="1755"/>
-      <c r="PN4" s="1756"/>
-      <c r="PO4" s="1757"/>
-      <c r="PP4" s="1758"/>
-      <c r="PQ4" s="1759"/>
-      <c r="PR4" s="1760"/>
-      <c r="PS4" s="1761"/>
-      <c r="PT4" s="1762"/>
-      <c r="PU4" s="1763"/>
-      <c r="PV4" s="1764"/>
-      <c r="PW4" s="1765"/>
-      <c r="PX4" s="1766"/>
-      <c r="PY4" s="1767"/>
-      <c r="PZ4" s="1768"/>
-      <c r="QA4" s="1769"/>
-      <c r="QB4" s="1770"/>
-      <c r="QC4" s="1771"/>
-      <c r="QD4" s="1772"/>
-      <c r="QE4" s="1773"/>
-      <c r="QF4" s="1774"/>
-      <c r="QG4" s="1775"/>
-      <c r="QH4" s="1776"/>
-      <c r="QI4" s="1777"/>
-      <c r="QJ4" s="1778"/>
-      <c r="QK4" s="1779"/>
-      <c r="QL4" s="1780"/>
-      <c r="QM4" s="1781"/>
-      <c r="QN4" s="1782"/>
-      <c r="QO4" s="1783"/>
-      <c r="QP4" s="1784"/>
-      <c r="QQ4" s="1785"/>
-      <c r="QR4" s="1786"/>
-      <c r="QS4" s="1787"/>
-      <c r="QT4" s="1788"/>
-      <c r="QU4" s="1789"/>
-      <c r="QV4" s="1790"/>
-      <c r="QW4" s="1791"/>
-      <c r="QX4" s="1792"/>
-      <c r="QY4" s="1793"/>
-      <c r="QZ4" s="1794"/>
-      <c r="RA4" s="1795"/>
-      <c r="RB4" s="1796"/>
-      <c r="RC4" s="1797"/>
-      <c r="RD4" s="1798"/>
-      <c r="RE4" s="1799"/>
-      <c r="RF4" s="1800"/>
-      <c r="RG4" s="1801"/>
-      <c r="RH4" s="1802"/>
-      <c r="RI4" s="1803"/>
-      <c r="RJ4" s="1804"/>
-      <c r="RK4" s="1805"/>
-      <c r="RL4" s="1806"/>
-      <c r="RM4" s="1807"/>
-      <c r="RN4" s="1808"/>
-      <c r="RO4" s="1809"/>
-      <c r="RP4" s="1810"/>
-      <c r="RQ4" s="1811"/>
-      <c r="RR4" s="1812"/>
-      <c r="RS4" s="1813"/>
-      <c r="RT4" s="1814"/>
-      <c r="RU4" s="1815"/>
-      <c r="RV4" s="1816"/>
-      <c r="RW4" s="1817"/>
-      <c r="RX4" s="1818"/>
-      <c r="RY4" s="1819"/>
-      <c r="RZ4" s="1820"/>
-      <c r="SA4" s="1821"/>
-      <c r="SB4" s="1822"/>
-      <c r="SC4" s="1823"/>
-      <c r="SD4" s="1824"/>
-      <c r="SE4" s="1825"/>
-      <c r="SF4" s="1826"/>
-      <c r="SG4" s="1827"/>
-      <c r="SH4" s="1828"/>
-      <c r="SI4" s="1829"/>
-      <c r="SJ4" s="1830"/>
-      <c r="SK4" s="1831"/>
-      <c r="SL4" s="1832"/>
-      <c r="SM4" s="1833"/>
-      <c r="SN4" s="1834"/>
-      <c r="SO4" s="1835"/>
-      <c r="SP4" s="1836"/>
-      <c r="SQ4" s="1837"/>
-      <c r="SR4" s="1838"/>
-      <c r="SS4" s="1839"/>
-      <c r="ST4" s="1840"/>
-      <c r="SU4" s="1841"/>
-      <c r="SV4" s="1842"/>
-      <c r="SW4" s="1843"/>
-      <c r="SX4" s="1844"/>
-      <c r="SY4" s="1845"/>
-      <c r="SZ4" s="1846"/>
-      <c r="TA4" s="1847"/>
-      <c r="TB4" s="1848"/>
-      <c r="TC4" s="1849"/>
-      <c r="TD4" s="1850"/>
-      <c r="TE4" s="1851"/>
-      <c r="TF4" s="1852"/>
-      <c r="TG4" s="1853"/>
-      <c r="TH4" s="1854"/>
-      <c r="TI4" s="1855"/>
-      <c r="TJ4" s="1856"/>
-      <c r="TK4" s="1857"/>
-      <c r="TL4" s="1858"/>
-      <c r="TM4" s="1859"/>
-      <c r="TN4" s="1860"/>
-      <c r="TO4" s="1861"/>
-      <c r="TP4" s="1862"/>
-      <c r="TQ4" s="1863"/>
-      <c r="TR4" s="1864"/>
-      <c r="TS4" s="1865"/>
-      <c r="TT4" s="1866"/>
-      <c r="TU4" s="1867"/>
-      <c r="TV4" s="1868"/>
-      <c r="TW4" s="1869"/>
-      <c r="TX4" s="1870"/>
-      <c r="TY4" s="1871"/>
-      <c r="TZ4" s="1872"/>
-      <c r="UA4" s="1873"/>
-      <c r="UB4" s="1874"/>
-      <c r="UC4" s="1875"/>
-      <c r="UD4" s="1876"/>
-      <c r="UE4" s="1877"/>
-      <c r="UF4" s="1878"/>
-      <c r="UG4" s="1879"/>
-      <c r="UH4" s="1880"/>
-      <c r="UI4" s="1881"/>
-      <c r="UJ4" s="1882"/>
-      <c r="UK4" s="1883"/>
-      <c r="UL4" s="1884"/>
-      <c r="UM4" s="1885"/>
-      <c r="UN4" s="1886"/>
-      <c r="UO4" s="1887"/>
-      <c r="UP4" s="1888"/>
-      <c r="UQ4" s="1889"/>
-      <c r="UR4" s="1890"/>
-      <c r="US4" s="1891"/>
-      <c r="UT4" s="1892"/>
-      <c r="UU4" s="1893"/>
-      <c r="UV4" s="1894"/>
-      <c r="UW4" s="1895"/>
-      <c r="UX4" s="1896"/>
-      <c r="UY4" s="1897"/>
-      <c r="UZ4" s="1898"/>
-      <c r="VA4" s="1899"/>
-      <c r="VB4" s="1900"/>
-      <c r="VC4" s="1901"/>
-      <c r="VD4" s="1902"/>
-      <c r="VE4" s="1903"/>
-      <c r="VF4" s="1904"/>
-      <c r="VG4" s="1905"/>
-      <c r="VH4" s="1906"/>
-      <c r="VI4" s="1907"/>
-      <c r="VJ4" s="1908"/>
-      <c r="VK4" s="1909"/>
-      <c r="VL4" s="1910"/>
-      <c r="VM4" s="1911"/>
-      <c r="VN4" s="1912"/>
-      <c r="VO4" s="1913"/>
-      <c r="VP4" s="1914"/>
-      <c r="VQ4" s="1915"/>
-      <c r="VR4" s="1916"/>
-      <c r="VS4" s="1917"/>
-      <c r="VT4" s="1918"/>
-      <c r="VU4" s="1919"/>
-      <c r="VV4" s="1920"/>
-      <c r="VW4" s="1921"/>
-      <c r="VX4" s="1922"/>
-      <c r="VY4" s="1923"/>
-      <c r="VZ4" s="1924"/>
-      <c r="WA4" s="1925"/>
-      <c r="WB4" s="1926"/>
-      <c r="WC4" s="1927"/>
-      <c r="WD4" s="1928"/>
-      <c r="WE4" s="1929"/>
-      <c r="WF4" s="1930"/>
-      <c r="WG4" s="1931"/>
-      <c r="WH4" s="1932"/>
-      <c r="WI4" s="1933"/>
-      <c r="WJ4" s="1934"/>
-      <c r="WK4" s="1935"/>
-      <c r="WL4" s="1936"/>
-      <c r="WM4" s="1937"/>
-      <c r="WN4" s="1938"/>
-      <c r="WO4" s="1939"/>
-      <c r="WP4" s="1940"/>
-      <c r="WQ4" s="1941"/>
-      <c r="WR4" s="1942"/>
-      <c r="WS4" s="1943"/>
-      <c r="WT4" s="1944"/>
-      <c r="WU4" s="1945"/>
-      <c r="WV4" s="1946"/>
-      <c r="WW4" s="1947"/>
-      <c r="WX4" s="1948"/>
-      <c r="WY4" s="1949"/>
-      <c r="WZ4" s="1950"/>
-      <c r="XA4" s="1951"/>
-      <c r="XB4" s="1952"/>
-      <c r="XC4" s="1953"/>
-      <c r="XD4" s="1954"/>
-      <c r="XE4" s="1955"/>
-      <c r="XF4" s="1956"/>
-      <c r="XG4" s="1957"/>
-      <c r="XH4" s="1958"/>
-      <c r="XI4" s="1959"/>
-      <c r="XJ4" s="1960"/>
-      <c r="XK4" s="1961"/>
-      <c r="XL4" s="1962"/>
-      <c r="XM4" s="1963"/>
-      <c r="XN4" s="1964"/>
-      <c r="XO4" s="1965"/>
-      <c r="XP4" s="1966"/>
-      <c r="XQ4" s="1967"/>
-      <c r="XR4" s="1968"/>
-      <c r="XS4" s="1969"/>
-      <c r="XT4" s="1970"/>
-      <c r="XU4" s="1971"/>
-      <c r="XV4" s="1972"/>
-      <c r="XW4" s="1973"/>
-      <c r="XX4" s="1974"/>
-      <c r="XY4" s="1975"/>
-      <c r="XZ4" s="1976"/>
+      <c r="D4" s="1354"/>
+      <c r="E4" s="1355"/>
+      <c r="F4" s="1356"/>
+      <c r="G4" s="1357"/>
+      <c r="H4" s="1358"/>
+      <c r="I4" s="1359"/>
+      <c r="J4" s="1360"/>
+      <c r="K4" s="1361"/>
+      <c r="L4" s="1362"/>
+      <c r="M4" s="1363"/>
+      <c r="N4" s="1364"/>
+      <c r="O4" s="1365"/>
+      <c r="P4" s="1366"/>
+      <c r="Q4" s="1367"/>
+      <c r="R4" s="1368"/>
+      <c r="S4" s="1369"/>
+      <c r="T4" s="1370"/>
+      <c r="U4" s="1371"/>
+      <c r="V4" s="1372"/>
+      <c r="W4" s="1373"/>
+      <c r="X4" s="1374"/>
+      <c r="Y4" s="1375"/>
+      <c r="Z4" s="1376"/>
+      <c r="AA4" s="1377"/>
+      <c r="AB4" s="1378"/>
+      <c r="AC4" s="1379"/>
+      <c r="AD4" s="1380"/>
+      <c r="AE4" s="1381"/>
+      <c r="AF4" s="1382"/>
+      <c r="AG4" s="1383"/>
+      <c r="AH4" s="1384"/>
+      <c r="AI4" s="1385"/>
+      <c r="AJ4" s="1386"/>
+      <c r="AK4" s="1387"/>
+      <c r="AL4" s="1388"/>
+      <c r="AM4" s="1389"/>
+      <c r="AN4" s="1390"/>
+      <c r="AO4" s="1391"/>
+      <c r="AP4" s="1392"/>
+      <c r="AQ4" s="1393"/>
+      <c r="AR4" s="1394"/>
+      <c r="AS4" s="1395"/>
+      <c r="AT4" s="1396"/>
+      <c r="AU4" s="1397"/>
+      <c r="AV4" s="1398"/>
+      <c r="AW4" s="1399"/>
+      <c r="AX4" s="1400"/>
+      <c r="AY4" s="1401"/>
+      <c r="AZ4" s="1402"/>
+      <c r="BA4" s="1403"/>
+      <c r="BB4" s="1404"/>
+      <c r="BC4" s="1405"/>
+      <c r="BD4" s="1406"/>
+      <c r="BE4" s="1407"/>
+      <c r="BF4" s="1408"/>
+      <c r="BG4" s="1409"/>
+      <c r="BH4" s="1410"/>
+      <c r="BI4" s="1411"/>
+      <c r="BJ4" s="1412"/>
+      <c r="BK4" s="1413"/>
+      <c r="BL4" s="1414"/>
+      <c r="BM4" s="1415"/>
+      <c r="BN4" s="1416"/>
+      <c r="BO4" s="1417"/>
+      <c r="BP4" s="1418"/>
+      <c r="BQ4" s="1419"/>
+      <c r="BR4" s="1420"/>
+      <c r="BS4" s="1421"/>
+      <c r="BT4" s="1422"/>
+      <c r="BU4" s="1423"/>
+      <c r="BV4" s="1424"/>
+      <c r="BW4" s="1425"/>
+      <c r="BX4" s="1426"/>
+      <c r="BY4" s="1427"/>
+      <c r="BZ4" s="1428"/>
+      <c r="CA4" s="1429"/>
+      <c r="CB4" s="1430"/>
+      <c r="CC4" s="1431"/>
+      <c r="CD4" s="1432"/>
+      <c r="CE4" s="1433"/>
+      <c r="CF4" s="1434"/>
+      <c r="CG4" s="1435"/>
+      <c r="CH4" s="1436"/>
+      <c r="CI4" s="1437"/>
+      <c r="CJ4" s="1438"/>
+      <c r="CK4" s="1439"/>
+      <c r="CL4" s="1440"/>
+      <c r="CM4" s="1441"/>
+      <c r="CN4" s="1442"/>
+      <c r="CO4" s="1443"/>
+      <c r="CP4" s="1444"/>
+      <c r="CQ4" s="1445"/>
+      <c r="CR4" s="1446"/>
+      <c r="CS4" s="1447"/>
+      <c r="CT4" s="1448"/>
+      <c r="CU4" s="1449"/>
+      <c r="CV4" s="1450"/>
+      <c r="CW4" s="1451"/>
+      <c r="CX4" s="1452"/>
+      <c r="CY4" s="1453"/>
+      <c r="CZ4" s="1454"/>
+      <c r="DA4" s="1455"/>
+      <c r="DB4" s="1456"/>
+      <c r="DC4" s="1457"/>
+      <c r="DD4" s="1458"/>
+      <c r="DE4" s="1459"/>
+      <c r="DF4" s="1460"/>
+      <c r="DG4" s="1461"/>
+      <c r="DH4" s="1462"/>
+      <c r="DI4" s="1463"/>
+      <c r="DJ4" s="1464"/>
+      <c r="DK4" s="1465"/>
+      <c r="DL4" s="1466"/>
+      <c r="DM4" s="1467"/>
+      <c r="DN4" s="1468"/>
+      <c r="DO4" s="1469"/>
+      <c r="DP4" s="1470"/>
+      <c r="DQ4" s="1471"/>
+      <c r="DR4" s="1472"/>
+      <c r="DS4" s="1473"/>
+      <c r="DT4" s="1474"/>
+      <c r="DU4" s="1475"/>
+      <c r="DV4" s="1476"/>
+      <c r="DW4" s="1477"/>
+      <c r="DX4" s="1478"/>
+      <c r="DY4" s="1479"/>
+      <c r="DZ4" s="1480"/>
+      <c r="EA4" s="1481"/>
+      <c r="EB4" s="1482"/>
+      <c r="EC4" s="1483"/>
+      <c r="ED4" s="1484"/>
+      <c r="EE4" s="1485"/>
+      <c r="EF4" s="1486"/>
+      <c r="EG4" s="1487"/>
+      <c r="EH4" s="1488"/>
+      <c r="EI4" s="1489"/>
+      <c r="EJ4" s="1490"/>
+      <c r="EK4" s="1491"/>
+      <c r="EL4" s="1492"/>
+      <c r="EM4" s="1493"/>
+      <c r="EN4" s="1494"/>
+      <c r="EO4" s="1495"/>
+      <c r="EP4" s="1496"/>
+      <c r="EQ4" s="1497"/>
+      <c r="ER4" s="1498"/>
+      <c r="ES4" s="1499"/>
+      <c r="ET4" s="1500"/>
+      <c r="EU4" s="1501"/>
+      <c r="EV4" s="1502"/>
+      <c r="EW4" s="1503"/>
+      <c r="EX4" s="1504"/>
+      <c r="EY4" s="1505"/>
+      <c r="EZ4" s="1506"/>
+      <c r="FA4" s="1507"/>
+      <c r="FB4" s="1508"/>
+      <c r="FC4" s="1509"/>
+      <c r="FD4" s="1510"/>
+      <c r="FE4" s="1511"/>
+      <c r="FF4" s="1512"/>
+      <c r="FG4" s="1513"/>
+      <c r="FH4" s="1514"/>
+      <c r="FI4" s="1515"/>
+      <c r="FJ4" s="1516"/>
+      <c r="FK4" s="1517"/>
+      <c r="FL4" s="1518"/>
+      <c r="FM4" s="1519"/>
+      <c r="FN4" s="1520"/>
+      <c r="FO4" s="1521"/>
+      <c r="FP4" s="1522"/>
+      <c r="FQ4" s="1523"/>
+      <c r="FR4" s="1524"/>
+      <c r="FS4" s="1525"/>
+      <c r="FT4" s="1526"/>
+      <c r="FU4" s="1527"/>
+      <c r="FV4" s="1528"/>
+      <c r="FW4" s="1529"/>
+      <c r="FX4" s="1530"/>
+      <c r="FY4" s="1531"/>
+      <c r="FZ4" s="1532"/>
+      <c r="GA4" s="1533"/>
+      <c r="GB4" s="1534"/>
+      <c r="GC4" s="1535"/>
+      <c r="GD4" s="1536"/>
+      <c r="GE4" s="1537"/>
+      <c r="GF4" s="1538"/>
+      <c r="GG4" s="1539"/>
+      <c r="GH4" s="1540"/>
+      <c r="GI4" s="1541"/>
+      <c r="GJ4" s="1542"/>
+      <c r="GK4" s="1543"/>
+      <c r="GL4" s="1544"/>
+      <c r="GM4" s="1545"/>
+      <c r="GN4" s="1546"/>
+      <c r="GO4" s="1547"/>
+      <c r="GP4" s="1548"/>
+      <c r="GQ4" s="1549"/>
+      <c r="GR4" s="1550"/>
+      <c r="GS4" s="1551"/>
+      <c r="GT4" s="1552"/>
+      <c r="GU4" s="1553"/>
+      <c r="GV4" s="1554"/>
+      <c r="GW4" s="1555"/>
+      <c r="GX4" s="1556"/>
+      <c r="GY4" s="1557"/>
+      <c r="GZ4" s="1558"/>
+      <c r="HA4" s="1559"/>
+      <c r="HB4" s="1560"/>
+      <c r="HC4" s="1561"/>
+      <c r="HD4" s="1562"/>
+      <c r="HE4" s="1563"/>
+      <c r="HF4" s="1564"/>
+      <c r="HG4" s="1565"/>
+      <c r="HH4" s="1566"/>
+      <c r="HI4" s="1567"/>
+      <c r="HJ4" s="1568"/>
+      <c r="HK4" s="1569"/>
+      <c r="HL4" s="1570"/>
+      <c r="HM4" s="1571"/>
+      <c r="HN4" s="1572"/>
+      <c r="HO4" s="1573"/>
+      <c r="HP4" s="1574"/>
+      <c r="HQ4" s="1575"/>
+      <c r="HR4" s="1576"/>
+      <c r="HS4" s="1577"/>
+      <c r="HT4" s="1578"/>
+      <c r="HU4" s="1579"/>
+      <c r="HV4" s="1580"/>
+      <c r="HW4" s="1581"/>
+      <c r="HX4" s="1582"/>
+      <c r="HY4" s="1583"/>
+      <c r="HZ4" s="1584"/>
+      <c r="IA4" s="1585"/>
+      <c r="IB4" s="1586"/>
+      <c r="IC4" s="1587"/>
+      <c r="ID4" s="1588"/>
+      <c r="IE4" s="1589"/>
+      <c r="IF4" s="1590"/>
+      <c r="IG4" s="1591"/>
+      <c r="IH4" s="1592"/>
+      <c r="II4" s="1593"/>
+      <c r="IJ4" s="1594"/>
+      <c r="IK4" s="1595"/>
+      <c r="IL4" s="1596"/>
+      <c r="IM4" s="1597"/>
+      <c r="IN4" s="1598"/>
+      <c r="IO4" s="1599"/>
+      <c r="IP4" s="1600"/>
+      <c r="IQ4" s="1601"/>
+      <c r="IR4" s="1602"/>
+      <c r="IS4" s="1603"/>
+      <c r="IT4" s="1604"/>
+      <c r="IU4" s="1605"/>
+      <c r="IV4" s="1606"/>
+      <c r="IW4" s="1607"/>
+      <c r="IX4" s="1608"/>
+      <c r="IY4" s="1609"/>
+      <c r="IZ4" s="1610"/>
+      <c r="JA4" s="1611"/>
+      <c r="JB4" s="1612"/>
+      <c r="JC4" s="1613"/>
+      <c r="JD4" s="1614"/>
+      <c r="JE4" s="1615"/>
+      <c r="JF4" s="1616"/>
+      <c r="JG4" s="1617"/>
+      <c r="JH4" s="1618"/>
+      <c r="JI4" s="1619"/>
+      <c r="JJ4" s="1620"/>
+      <c r="JK4" s="1621"/>
+      <c r="JL4" s="1622"/>
+      <c r="JM4" s="1623"/>
+      <c r="JN4" s="1624"/>
+      <c r="JO4" s="1625"/>
+      <c r="JP4" s="1626"/>
+      <c r="JQ4" s="1627"/>
+      <c r="JR4" s="1628"/>
+      <c r="JS4" s="1629"/>
+      <c r="JT4" s="1630"/>
+      <c r="JU4" s="1631"/>
+      <c r="JV4" s="1632"/>
+      <c r="JW4" s="1633"/>
+      <c r="JX4" s="1634"/>
+      <c r="JY4" s="1635"/>
+      <c r="JZ4" s="1636"/>
+      <c r="KA4" s="1637"/>
+      <c r="KB4" s="1638"/>
+      <c r="KC4" s="1639"/>
+      <c r="KD4" s="1640"/>
+      <c r="KE4" s="1641"/>
+      <c r="KF4" s="1642"/>
+      <c r="KG4" s="1643"/>
+      <c r="KH4" s="1644"/>
+      <c r="KI4" s="1645"/>
+      <c r="KJ4" s="1646"/>
+      <c r="KK4" s="1647"/>
+      <c r="KL4" s="1648"/>
+      <c r="KM4" s="1649"/>
+      <c r="KN4" s="1650"/>
+      <c r="KO4" s="1651"/>
+      <c r="KP4" s="1652"/>
+      <c r="KQ4" s="1653"/>
+      <c r="KR4" s="1654"/>
+      <c r="KS4" s="1655"/>
+      <c r="KT4" s="1656"/>
+      <c r="KU4" s="1657"/>
+      <c r="KV4" s="1658"/>
+      <c r="KW4" s="1659"/>
+      <c r="KX4" s="1660"/>
+      <c r="KY4" s="1661"/>
+      <c r="KZ4" s="1662"/>
+      <c r="LA4" s="1663"/>
+      <c r="LB4" s="1664"/>
+      <c r="LC4" s="1665"/>
+      <c r="LD4" s="1666"/>
+      <c r="LE4" s="1667"/>
+      <c r="LF4" s="1668"/>
+      <c r="LG4" s="1669"/>
+      <c r="LH4" s="1670"/>
+      <c r="LI4" s="1671"/>
+      <c r="LJ4" s="1672"/>
+      <c r="LK4" s="1673"/>
+      <c r="LL4" s="1674"/>
+      <c r="LM4" s="1675"/>
+      <c r="LN4" s="1676"/>
+      <c r="LO4" s="1677"/>
+      <c r="LP4" s="1678"/>
+      <c r="LQ4" s="1679"/>
+      <c r="LR4" s="1680"/>
+      <c r="LS4" s="1681"/>
+      <c r="LT4" s="1682"/>
+      <c r="LU4" s="1683"/>
+      <c r="LV4" s="1684"/>
+      <c r="LW4" s="1685"/>
+      <c r="LX4" s="1686"/>
+      <c r="LY4" s="1687"/>
+      <c r="LZ4" s="1688"/>
+      <c r="MA4" s="1689"/>
+      <c r="MB4" s="1690"/>
+      <c r="MC4" s="1691"/>
+      <c r="MD4" s="1692"/>
+      <c r="ME4" s="1693"/>
+      <c r="MF4" s="1694"/>
+      <c r="MG4" s="1695"/>
+      <c r="MH4" s="1696"/>
+      <c r="MI4" s="1697"/>
+      <c r="MJ4" s="1698"/>
+      <c r="MK4" s="1699"/>
+      <c r="ML4" s="1700"/>
+      <c r="MM4" s="1701"/>
+      <c r="MN4" s="1702"/>
+      <c r="MO4" s="1703"/>
+      <c r="MP4" s="1704"/>
+      <c r="MQ4" s="1705"/>
+      <c r="MR4" s="1706"/>
+      <c r="MS4" s="1707"/>
+      <c r="MT4" s="1708"/>
+      <c r="MU4" s="1709"/>
+      <c r="MV4" s="1710"/>
+      <c r="MW4" s="1711"/>
+      <c r="MX4" s="1712"/>
+      <c r="MY4" s="1713"/>
+      <c r="MZ4" s="1714"/>
+      <c r="NA4" s="1715"/>
+      <c r="NB4" s="1716"/>
+      <c r="NC4" s="1717"/>
+      <c r="ND4" s="1718"/>
+      <c r="NE4" s="1719"/>
+      <c r="NF4" s="1720"/>
+      <c r="NG4" s="1721"/>
+      <c r="NH4" s="1722"/>
+      <c r="NI4" s="1723"/>
+      <c r="NJ4" s="1724"/>
+      <c r="NK4" s="1725"/>
+      <c r="NL4" s="1726"/>
+      <c r="NM4" s="1727"/>
+      <c r="NN4" s="1728"/>
+      <c r="NO4" s="1729"/>
+      <c r="NP4" s="1730"/>
+      <c r="NQ4" s="1731"/>
+      <c r="NR4" s="1732"/>
+      <c r="NS4" s="1733"/>
+      <c r="NT4" s="1734"/>
+      <c r="NU4" s="1735"/>
+      <c r="NV4" s="1736"/>
+      <c r="NW4" s="1737"/>
+      <c r="NX4" s="1738"/>
+      <c r="NY4" s="1739"/>
+      <c r="NZ4" s="1740"/>
+      <c r="OA4" s="1741"/>
+      <c r="OB4" s="1742"/>
+      <c r="OC4" s="1743"/>
+      <c r="OD4" s="1744"/>
+      <c r="OE4" s="1745"/>
+      <c r="OF4" s="1746"/>
+      <c r="OG4" s="1747"/>
+      <c r="OH4" s="1748"/>
+      <c r="OI4" s="1749"/>
+      <c r="OJ4" s="1750"/>
+      <c r="OK4" s="1751"/>
+      <c r="OL4" s="1752"/>
+      <c r="OM4" s="1753"/>
+      <c r="ON4" s="1754"/>
+      <c r="OO4" s="1755"/>
+      <c r="OP4" s="1756"/>
+      <c r="OQ4" s="1757"/>
+      <c r="OR4" s="1758"/>
+      <c r="OS4" s="1759"/>
+      <c r="OT4" s="1760"/>
+      <c r="OU4" s="1761"/>
+      <c r="OV4" s="1762"/>
+      <c r="OW4" s="1763"/>
+      <c r="OX4" s="1764"/>
+      <c r="OY4" s="1765"/>
+      <c r="OZ4" s="1766"/>
+      <c r="PA4" s="1767"/>
+      <c r="PB4" s="1768"/>
+      <c r="PC4" s="1769"/>
+      <c r="PD4" s="1770"/>
+      <c r="PE4" s="1771"/>
+      <c r="PF4" s="1772"/>
+      <c r="PG4" s="1773"/>
+      <c r="PH4" s="1774"/>
+      <c r="PI4" s="1775"/>
+      <c r="PJ4" s="1776"/>
+      <c r="PK4" s="1777"/>
+      <c r="PL4" s="1778"/>
+      <c r="PM4" s="1779"/>
+      <c r="PN4" s="1780"/>
+      <c r="PO4" s="1781"/>
+      <c r="PP4" s="1782"/>
+      <c r="PQ4" s="1783"/>
+      <c r="PR4" s="1784"/>
+      <c r="PS4" s="1785"/>
+      <c r="PT4" s="1786"/>
+      <c r="PU4" s="1787"/>
+      <c r="PV4" s="1788"/>
+      <c r="PW4" s="1789"/>
+      <c r="PX4" s="1790"/>
+      <c r="PY4" s="1791"/>
+      <c r="PZ4" s="1792"/>
+      <c r="QA4" s="1793"/>
+      <c r="QB4" s="1794"/>
+      <c r="QC4" s="1795"/>
+      <c r="QD4" s="1796"/>
+      <c r="QE4" s="1797"/>
+      <c r="QF4" s="1798"/>
+      <c r="QG4" s="1799"/>
+      <c r="QH4" s="1800"/>
+      <c r="QI4" s="1801"/>
+      <c r="QJ4" s="1802"/>
+      <c r="QK4" s="1803"/>
+      <c r="QL4" s="1804"/>
+      <c r="QM4" s="1805"/>
+      <c r="QN4" s="1806"/>
+      <c r="QO4" s="1807"/>
+      <c r="QP4" s="1808"/>
+      <c r="QQ4" s="1809"/>
+      <c r="QR4" s="1810"/>
+      <c r="QS4" s="1811"/>
+      <c r="QT4" s="1812"/>
+      <c r="QU4" s="1813"/>
+      <c r="QV4" s="1814"/>
+      <c r="QW4" s="1815"/>
+      <c r="QX4" s="1816"/>
+      <c r="QY4" s="1817"/>
+      <c r="QZ4" s="1818"/>
+      <c r="RA4" s="1819"/>
+      <c r="RB4" s="1820"/>
+      <c r="RC4" s="1821"/>
+      <c r="RD4" s="1822"/>
+      <c r="RE4" s="1823"/>
+      <c r="RF4" s="1824"/>
+      <c r="RG4" s="1825"/>
+      <c r="RH4" s="1826"/>
+      <c r="RI4" s="1827"/>
+      <c r="RJ4" s="1828"/>
+      <c r="RK4" s="1829"/>
+      <c r="RL4" s="1830"/>
+      <c r="RM4" s="1831"/>
+      <c r="RN4" s="1832"/>
+      <c r="RO4" s="1833"/>
+      <c r="RP4" s="1834"/>
+      <c r="RQ4" s="1835"/>
+      <c r="RR4" s="1836"/>
+      <c r="RS4" s="1837"/>
+      <c r="RT4" s="1838"/>
+      <c r="RU4" s="1839"/>
+      <c r="RV4" s="1840"/>
+      <c r="RW4" s="1841"/>
+      <c r="RX4" s="1842"/>
+      <c r="RY4" s="1843"/>
+      <c r="RZ4" s="1844"/>
+      <c r="SA4" s="1845"/>
+      <c r="SB4" s="1846"/>
+      <c r="SC4" s="1847"/>
+      <c r="SD4" s="1848"/>
+      <c r="SE4" s="1849"/>
+      <c r="SF4" s="1850"/>
+      <c r="SG4" s="1851"/>
+      <c r="SH4" s="1852"/>
+      <c r="SI4" s="1853"/>
+      <c r="SJ4" s="1854"/>
+      <c r="SK4" s="1855"/>
+      <c r="SL4" s="1856"/>
+      <c r="SM4" s="1857"/>
+      <c r="SN4" s="1858"/>
+      <c r="SO4" s="1859"/>
+      <c r="SP4" s="1860"/>
+      <c r="SQ4" s="1861"/>
+      <c r="SR4" s="1862"/>
+      <c r="SS4" s="1863"/>
+      <c r="ST4" s="1864"/>
+      <c r="SU4" s="1865"/>
+      <c r="SV4" s="1866"/>
+      <c r="SW4" s="1867"/>
+      <c r="SX4" s="1868"/>
+      <c r="SY4" s="1869"/>
+      <c r="SZ4" s="1870"/>
+      <c r="TA4" s="1871"/>
+      <c r="TB4" s="1872"/>
+      <c r="TC4" s="1873"/>
+      <c r="TD4" s="1874"/>
+      <c r="TE4" s="1875"/>
+      <c r="TF4" s="1876"/>
+      <c r="TG4" s="1877"/>
+      <c r="TH4" s="1878"/>
+      <c r="TI4" s="1879"/>
+      <c r="TJ4" s="1880"/>
+      <c r="TK4" s="1881"/>
+      <c r="TL4" s="1882"/>
+      <c r="TM4" s="1883"/>
+      <c r="TN4" s="1884"/>
+      <c r="TO4" s="1885"/>
+      <c r="TP4" s="1886"/>
+      <c r="TQ4" s="1887"/>
+      <c r="TR4" s="1888"/>
+      <c r="TS4" s="1889"/>
+      <c r="TT4" s="1890"/>
+      <c r="TU4" s="1891"/>
+      <c r="TV4" s="1892"/>
+      <c r="TW4" s="1893"/>
+      <c r="TX4" s="1894"/>
+      <c r="TY4" s="1895"/>
+      <c r="TZ4" s="1896"/>
+      <c r="UA4" s="1897"/>
+      <c r="UB4" s="1898"/>
+      <c r="UC4" s="1899"/>
+      <c r="UD4" s="1900"/>
+      <c r="UE4" s="1901"/>
+      <c r="UF4" s="1902"/>
+      <c r="UG4" s="1903"/>
+      <c r="UH4" s="1904"/>
+      <c r="UI4" s="1905"/>
+      <c r="UJ4" s="1906"/>
+      <c r="UK4" s="1907"/>
+      <c r="UL4" s="1908"/>
+      <c r="UM4" s="1909"/>
+      <c r="UN4" s="1910"/>
+      <c r="UO4" s="1911"/>
+      <c r="UP4" s="1912"/>
+      <c r="UQ4" s="1913"/>
+      <c r="UR4" s="1914"/>
+      <c r="US4" s="1915"/>
+      <c r="UT4" s="1916"/>
+      <c r="UU4" s="1917"/>
+      <c r="UV4" s="1918"/>
+      <c r="UW4" s="1919"/>
+      <c r="UX4" s="1920"/>
+      <c r="UY4" s="1921"/>
+      <c r="UZ4" s="1922"/>
+      <c r="VA4" s="1923"/>
+      <c r="VB4" s="1924"/>
+      <c r="VC4" s="1925"/>
+      <c r="VD4" s="1926"/>
+      <c r="VE4" s="1927"/>
+      <c r="VF4" s="1928"/>
+      <c r="VG4" s="1929"/>
+      <c r="VH4" s="1930"/>
+      <c r="VI4" s="1931"/>
+      <c r="VJ4" s="1932"/>
+      <c r="VK4" s="1933"/>
+      <c r="VL4" s="1934"/>
+      <c r="VM4" s="1935"/>
+      <c r="VN4" s="1936"/>
+      <c r="VO4" s="1937"/>
+      <c r="VP4" s="1938"/>
+      <c r="VQ4" s="1939"/>
+      <c r="VR4" s="1940"/>
+      <c r="VS4" s="1941"/>
+      <c r="VT4" s="1942"/>
+      <c r="VU4" s="1943"/>
+      <c r="VV4" s="1944"/>
+      <c r="VW4" s="1945"/>
+      <c r="VX4" s="1946"/>
+      <c r="VY4" s="1947"/>
+      <c r="VZ4" s="1948"/>
+      <c r="WA4" s="1949"/>
+      <c r="WB4" s="1950"/>
+      <c r="WC4" s="1951"/>
+      <c r="WD4" s="1952"/>
+      <c r="WE4" s="1953"/>
+      <c r="WF4" s="1954"/>
+      <c r="WG4" s="1955"/>
+      <c r="WH4" s="1956"/>
+      <c r="WI4" s="1957"/>
+      <c r="WJ4" s="1958"/>
+      <c r="WK4" s="1959"/>
+      <c r="WL4" s="1960"/>
+      <c r="WM4" s="1961"/>
+      <c r="WN4" s="1962"/>
+      <c r="WO4" s="1963"/>
+      <c r="WP4" s="1964"/>
+      <c r="WQ4" s="1965"/>
+      <c r="WR4" s="1966"/>
+      <c r="WS4" s="1967"/>
+      <c r="WT4" s="1968"/>
+      <c r="WU4" s="1969"/>
+      <c r="WV4" s="1970"/>
+      <c r="WW4" s="1971"/>
+      <c r="WX4" s="1972"/>
+      <c r="WY4" s="1973"/>
+      <c r="WZ4" s="1974"/>
+      <c r="XA4" s="1975"/>
+      <c r="XB4" s="1976"/>
+      <c r="XC4" s="1977"/>
+      <c r="XD4" s="1978"/>
+      <c r="XE4" s="1979"/>
+      <c r="XF4" s="1980"/>
+      <c r="XG4" s="1981"/>
+      <c r="XH4" s="1982"/>
+      <c r="XI4" s="1983"/>
+      <c r="XJ4" s="1984"/>
+      <c r="XK4" s="1985"/>
+      <c r="XL4" s="1986"/>
+      <c r="XM4" s="1987"/>
+      <c r="XN4" s="1988"/>
+      <c r="XO4" s="1989"/>
+      <c r="XP4" s="1990"/>
+      <c r="XQ4" s="1991"/>
+      <c r="XR4" s="1992"/>
+      <c r="XS4" s="1993"/>
+      <c r="XT4" s="1994"/>
+      <c r="XU4" s="1995"/>
+      <c r="XV4" s="1996"/>
+      <c r="XW4" s="1997"/>
+      <c r="XX4" s="1998"/>
+      <c r="XY4" s="1999"/>
+      <c r="XZ4" s="2000"/>
+      <c r="YA4" s="2001"/>
+      <c r="YB4" s="2002"/>
+      <c r="YC4" s="2003"/>
+      <c r="YD4" s="2004"/>
+      <c r="YE4" s="2005"/>
+      <c r="YF4" s="2006"/>
+      <c r="YG4" s="2007"/>
+      <c r="YH4" s="2008"/>
+      <c r="YI4" s="2009"/>
+      <c r="YJ4" s="2010"/>
+      <c r="YK4" s="2011"/>
+      <c r="YL4" s="2012"/>
     </row>
     <row r="5">
-      <c r="A5" s="1977"/>
-      <c r="B5" s="1978"/>
-      <c r="C5" t="s" s="1979">
+      <c r="A5" s="2013"/>
+      <c r="B5" s="2014"/>
+      <c r="C5" t="s" s="2015">
         <v>6</v>
       </c>
-      <c r="D5" s="1980"/>
-      <c r="E5" s="1981"/>
-      <c r="F5" s="1982"/>
-      <c r="G5" s="1983"/>
-      <c r="H5" s="1984"/>
-      <c r="I5" s="1985"/>
-      <c r="J5" s="1986"/>
-      <c r="K5" s="1987"/>
-      <c r="L5" s="1988"/>
-      <c r="M5" s="1989"/>
-      <c r="N5" s="1990"/>
-      <c r="O5" t="s" s="1991">
+      <c r="D5" s="2016"/>
+      <c r="E5" s="2017"/>
+      <c r="F5" s="2018"/>
+      <c r="G5" s="2019"/>
+      <c r="H5" s="2020"/>
+      <c r="I5" s="2021"/>
+      <c r="J5" s="2022"/>
+      <c r="K5" s="2023"/>
+      <c r="L5" s="2024"/>
+      <c r="M5" s="2025"/>
+      <c r="N5" s="2026"/>
+      <c r="O5" t="s" s="2027">
         <v>7</v>
       </c>
-      <c r="P5" s="1992"/>
-      <c r="Q5" s="1993"/>
-      <c r="R5" s="1994"/>
-      <c r="S5" s="1995"/>
-      <c r="T5" s="1996"/>
-      <c r="U5" s="1997"/>
-      <c r="V5" s="1998"/>
-      <c r="W5" s="1999"/>
-      <c r="X5" s="2000"/>
-      <c r="Y5" s="2001"/>
-      <c r="Z5" s="2002"/>
-      <c r="AA5" t="s" s="2003">
+      <c r="P5" s="2028"/>
+      <c r="Q5" s="2029"/>
+      <c r="R5" s="2030"/>
+      <c r="S5" s="2031"/>
+      <c r="T5" s="2032"/>
+      <c r="U5" s="2033"/>
+      <c r="V5" s="2034"/>
+      <c r="W5" s="2035"/>
+      <c r="X5" s="2036"/>
+      <c r="Y5" s="2037"/>
+      <c r="Z5" s="2038"/>
+      <c r="AA5" t="s" s="2039">
         <v>8</v>
       </c>
-      <c r="AB5" s="2004"/>
-      <c r="AC5" s="2005"/>
-      <c r="AD5" s="2006"/>
-      <c r="AE5" s="2007"/>
-      <c r="AF5" s="2008"/>
-      <c r="AG5" s="2009"/>
-      <c r="AH5" s="2010"/>
-      <c r="AI5" s="2011"/>
-      <c r="AJ5" s="2012"/>
-      <c r="AK5" s="2013"/>
-      <c r="AL5" s="2014"/>
-      <c r="AM5" t="s" s="2015">
+      <c r="AB5" s="2040"/>
+      <c r="AC5" s="2041"/>
+      <c r="AD5" s="2042"/>
+      <c r="AE5" s="2043"/>
+      <c r="AF5" s="2044"/>
+      <c r="AG5" s="2045"/>
+      <c r="AH5" s="2046"/>
+      <c r="AI5" s="2047"/>
+      <c r="AJ5" s="2048"/>
+      <c r="AK5" s="2049"/>
+      <c r="AL5" s="2050"/>
+      <c r="AM5" t="s" s="2051">
         <v>9</v>
       </c>
-      <c r="AN5" s="2016"/>
-      <c r="AO5" s="2017"/>
-      <c r="AP5" s="2018"/>
-      <c r="AQ5" s="2019"/>
-      <c r="AR5" s="2020"/>
-      <c r="AS5" s="2021"/>
-      <c r="AT5" s="2022"/>
-      <c r="AU5" s="2023"/>
-      <c r="AV5" s="2024"/>
-      <c r="AW5" s="2025"/>
-      <c r="AX5" s="2026"/>
-      <c r="AY5" t="s" s="2027">
+      <c r="AN5" s="2052"/>
+      <c r="AO5" s="2053"/>
+      <c r="AP5" s="2054"/>
+      <c r="AQ5" s="2055"/>
+      <c r="AR5" s="2056"/>
+      <c r="AS5" s="2057"/>
+      <c r="AT5" s="2058"/>
+      <c r="AU5" s="2059"/>
+      <c r="AV5" s="2060"/>
+      <c r="AW5" s="2061"/>
+      <c r="AX5" s="2062"/>
+      <c r="AY5" t="s" s="2063">
         <v>10</v>
       </c>
-      <c r="AZ5" s="2028"/>
-      <c r="BA5" s="2029"/>
-      <c r="BB5" s="2030"/>
-      <c r="BC5" s="2031"/>
-      <c r="BD5" s="2032"/>
-      <c r="BE5" s="2033"/>
-      <c r="BF5" s="2034"/>
-      <c r="BG5" s="2035"/>
-      <c r="BH5" s="2036"/>
-      <c r="BI5" s="2037"/>
-      <c r="BJ5" s="2038"/>
-      <c r="BK5" t="s" s="2039">
+      <c r="AZ5" s="2064"/>
+      <c r="BA5" s="2065"/>
+      <c r="BB5" s="2066"/>
+      <c r="BC5" s="2067"/>
+      <c r="BD5" s="2068"/>
+      <c r="BE5" s="2069"/>
+      <c r="BF5" s="2070"/>
+      <c r="BG5" s="2071"/>
+      <c r="BH5" s="2072"/>
+      <c r="BI5" s="2073"/>
+      <c r="BJ5" s="2074"/>
+      <c r="BK5" t="s" s="2075">
         <v>11</v>
       </c>
-      <c r="BL5" s="2040"/>
-      <c r="BM5" s="2041"/>
-      <c r="BN5" s="2042"/>
-      <c r="BO5" s="2043"/>
-      <c r="BP5" s="2044"/>
-      <c r="BQ5" s="2045"/>
-      <c r="BR5" s="2046"/>
-      <c r="BS5" s="2047"/>
-      <c r="BT5" s="2048"/>
-      <c r="BU5" s="2049"/>
-      <c r="BV5" s="2050"/>
-      <c r="BW5" t="s" s="2051">
+      <c r="BL5" s="2076"/>
+      <c r="BM5" s="2077"/>
+      <c r="BN5" s="2078"/>
+      <c r="BO5" s="2079"/>
+      <c r="BP5" s="2080"/>
+      <c r="BQ5" s="2081"/>
+      <c r="BR5" s="2082"/>
+      <c r="BS5" s="2083"/>
+      <c r="BT5" s="2084"/>
+      <c r="BU5" s="2085"/>
+      <c r="BV5" s="2086"/>
+      <c r="BW5" t="s" s="2087">
         <v>12</v>
       </c>
-      <c r="BX5" s="2052"/>
-      <c r="BY5" s="2053"/>
-      <c r="BZ5" s="2054"/>
-      <c r="CA5" s="2055"/>
-      <c r="CB5" s="2056"/>
-      <c r="CC5" s="2057"/>
-      <c r="CD5" s="2058"/>
-      <c r="CE5" s="2059"/>
-      <c r="CF5" s="2060"/>
-      <c r="CG5" s="2061"/>
-      <c r="CH5" s="2062"/>
-      <c r="CI5" t="s" s="2063">
+      <c r="BX5" s="2088"/>
+      <c r="BY5" s="2089"/>
+      <c r="BZ5" s="2090"/>
+      <c r="CA5" s="2091"/>
+      <c r="CB5" s="2092"/>
+      <c r="CC5" s="2093"/>
+      <c r="CD5" s="2094"/>
+      <c r="CE5" s="2095"/>
+      <c r="CF5" s="2096"/>
+      <c r="CG5" s="2097"/>
+      <c r="CH5" s="2098"/>
+      <c r="CI5" t="s" s="2099">
         <v>13</v>
       </c>
-      <c r="CJ5" s="2064"/>
-      <c r="CK5" s="2065"/>
-      <c r="CL5" s="2066"/>
-      <c r="CM5" s="2067"/>
-      <c r="CN5" s="2068"/>
-      <c r="CO5" s="2069"/>
-      <c r="CP5" s="2070"/>
-      <c r="CQ5" s="2071"/>
-      <c r="CR5" s="2072"/>
-      <c r="CS5" s="2073"/>
-      <c r="CT5" s="2074"/>
-      <c r="CU5" t="s" s="2075">
+      <c r="CJ5" s="2100"/>
+      <c r="CK5" s="2101"/>
+      <c r="CL5" s="2102"/>
+      <c r="CM5" s="2103"/>
+      <c r="CN5" s="2104"/>
+      <c r="CO5" s="2105"/>
+      <c r="CP5" s="2106"/>
+      <c r="CQ5" s="2107"/>
+      <c r="CR5" s="2108"/>
+      <c r="CS5" s="2109"/>
+      <c r="CT5" s="2110"/>
+      <c r="CU5" t="s" s="2111">
         <v>14</v>
       </c>
-      <c r="CV5" s="2076"/>
-      <c r="CW5" s="2077"/>
-      <c r="CX5" s="2078"/>
-      <c r="CY5" s="2079"/>
-      <c r="CZ5" s="2080"/>
-      <c r="DA5" s="2081"/>
-      <c r="DB5" s="2082"/>
-      <c r="DC5" s="2083"/>
-      <c r="DD5" s="2084"/>
-      <c r="DE5" s="2085"/>
-      <c r="DF5" s="2086"/>
-      <c r="DG5" t="s" s="2087">
+      <c r="CV5" s="2112"/>
+      <c r="CW5" s="2113"/>
+      <c r="CX5" s="2114"/>
+      <c r="CY5" s="2115"/>
+      <c r="CZ5" s="2116"/>
+      <c r="DA5" s="2117"/>
+      <c r="DB5" s="2118"/>
+      <c r="DC5" s="2119"/>
+      <c r="DD5" s="2120"/>
+      <c r="DE5" s="2121"/>
+      <c r="DF5" s="2122"/>
+      <c r="DG5" t="s" s="2123">
         <v>15</v>
       </c>
-      <c r="DH5" s="2088"/>
-      <c r="DI5" s="2089"/>
-      <c r="DJ5" s="2090"/>
-      <c r="DK5" s="2091"/>
-      <c r="DL5" s="2092"/>
-      <c r="DM5" s="2093"/>
-      <c r="DN5" s="2094"/>
-      <c r="DO5" s="2095"/>
-      <c r="DP5" s="2096"/>
-      <c r="DQ5" s="2097"/>
-      <c r="DR5" s="2098"/>
-      <c r="DS5" t="s" s="2099">
+      <c r="DH5" s="2124"/>
+      <c r="DI5" s="2125"/>
+      <c r="DJ5" s="2126"/>
+      <c r="DK5" s="2127"/>
+      <c r="DL5" s="2128"/>
+      <c r="DM5" s="2129"/>
+      <c r="DN5" s="2130"/>
+      <c r="DO5" s="2131"/>
+      <c r="DP5" s="2132"/>
+      <c r="DQ5" s="2133"/>
+      <c r="DR5" s="2134"/>
+      <c r="DS5" t="s" s="2135">
         <v>16</v>
       </c>
-      <c r="DT5" s="2100"/>
-      <c r="DU5" s="2101"/>
-      <c r="DV5" s="2102"/>
-      <c r="DW5" s="2103"/>
-      <c r="DX5" s="2104"/>
-      <c r="DY5" s="2105"/>
-      <c r="DZ5" s="2106"/>
-      <c r="EA5" s="2107"/>
-      <c r="EB5" s="2108"/>
-      <c r="EC5" s="2109"/>
-      <c r="ED5" s="2110"/>
-      <c r="EE5" t="s" s="2111">
+      <c r="DT5" s="2136"/>
+      <c r="DU5" s="2137"/>
+      <c r="DV5" s="2138"/>
+      <c r="DW5" s="2139"/>
+      <c r="DX5" s="2140"/>
+      <c r="DY5" s="2141"/>
+      <c r="DZ5" s="2142"/>
+      <c r="EA5" s="2143"/>
+      <c r="EB5" s="2144"/>
+      <c r="EC5" s="2145"/>
+      <c r="ED5" s="2146"/>
+      <c r="EE5" t="s" s="2147">
         <v>17</v>
       </c>
-      <c r="EF5" s="2112"/>
-      <c r="EG5" s="2113"/>
-      <c r="EH5" s="2114"/>
-      <c r="EI5" s="2115"/>
-      <c r="EJ5" s="2116"/>
-      <c r="EK5" s="2117"/>
-      <c r="EL5" s="2118"/>
-      <c r="EM5" s="2119"/>
-      <c r="EN5" s="2120"/>
-      <c r="EO5" s="2121"/>
-      <c r="EP5" s="2122"/>
-      <c r="EQ5" t="s" s="2123">
+      <c r="EF5" s="2148"/>
+      <c r="EG5" s="2149"/>
+      <c r="EH5" s="2150"/>
+      <c r="EI5" s="2151"/>
+      <c r="EJ5" s="2152"/>
+      <c r="EK5" s="2153"/>
+      <c r="EL5" s="2154"/>
+      <c r="EM5" s="2155"/>
+      <c r="EN5" s="2156"/>
+      <c r="EO5" s="2157"/>
+      <c r="EP5" s="2158"/>
+      <c r="EQ5" t="s" s="2159">
         <v>18</v>
       </c>
-      <c r="ER5" s="2124"/>
-      <c r="ES5" s="2125"/>
-      <c r="ET5" s="2126"/>
-      <c r="EU5" s="2127"/>
-      <c r="EV5" s="2128"/>
-      <c r="EW5" s="2129"/>
-      <c r="EX5" s="2130"/>
-      <c r="EY5" s="2131"/>
-      <c r="EZ5" s="2132"/>
-      <c r="FA5" s="2133"/>
-      <c r="FB5" s="2134"/>
-      <c r="FC5" t="s" s="2135">
+      <c r="ER5" s="2160"/>
+      <c r="ES5" s="2161"/>
+      <c r="ET5" s="2162"/>
+      <c r="EU5" s="2163"/>
+      <c r="EV5" s="2164"/>
+      <c r="EW5" s="2165"/>
+      <c r="EX5" s="2166"/>
+      <c r="EY5" s="2167"/>
+      <c r="EZ5" s="2168"/>
+      <c r="FA5" s="2169"/>
+      <c r="FB5" s="2170"/>
+      <c r="FC5" t="s" s="2171">
         <v>19</v>
       </c>
-      <c r="FD5" s="2136"/>
-      <c r="FE5" s="2137"/>
-      <c r="FF5" s="2138"/>
-      <c r="FG5" s="2139"/>
-      <c r="FH5" s="2140"/>
-      <c r="FI5" s="2141"/>
-      <c r="FJ5" s="2142"/>
-      <c r="FK5" s="2143"/>
-      <c r="FL5" s="2144"/>
-      <c r="FM5" s="2145"/>
-      <c r="FN5" s="2146"/>
-      <c r="FO5" t="s" s="2147">
+      <c r="FD5" s="2172"/>
+      <c r="FE5" s="2173"/>
+      <c r="FF5" s="2174"/>
+      <c r="FG5" s="2175"/>
+      <c r="FH5" s="2176"/>
+      <c r="FI5" s="2177"/>
+      <c r="FJ5" s="2178"/>
+      <c r="FK5" s="2179"/>
+      <c r="FL5" s="2180"/>
+      <c r="FM5" s="2181"/>
+      <c r="FN5" s="2182"/>
+      <c r="FO5" t="s" s="2183">
         <v>20</v>
       </c>
-      <c r="FP5" s="2148"/>
-      <c r="FQ5" s="2149"/>
-      <c r="FR5" s="2150"/>
-      <c r="FS5" s="2151"/>
-      <c r="FT5" s="2152"/>
-      <c r="FU5" s="2153"/>
-      <c r="FV5" s="2154"/>
-      <c r="FW5" s="2155"/>
-      <c r="FX5" s="2156"/>
-      <c r="FY5" s="2157"/>
-      <c r="FZ5" s="2158"/>
-      <c r="GA5" t="s" s="2159">
+      <c r="FP5" s="2184"/>
+      <c r="FQ5" s="2185"/>
+      <c r="FR5" s="2186"/>
+      <c r="FS5" s="2187"/>
+      <c r="FT5" s="2188"/>
+      <c r="FU5" s="2189"/>
+      <c r="FV5" s="2190"/>
+      <c r="FW5" s="2191"/>
+      <c r="FX5" s="2192"/>
+      <c r="FY5" s="2193"/>
+      <c r="FZ5" s="2194"/>
+      <c r="GA5" t="s" s="2195">
         <v>21</v>
       </c>
-      <c r="GB5" s="2160"/>
-      <c r="GC5" s="2161"/>
-      <c r="GD5" s="2162"/>
-      <c r="GE5" s="2163"/>
-      <c r="GF5" s="2164"/>
-      <c r="GG5" s="2165"/>
-      <c r="GH5" s="2166"/>
-      <c r="GI5" s="2167"/>
-      <c r="GJ5" s="2168"/>
-      <c r="GK5" s="2169"/>
-      <c r="GL5" s="2170"/>
-      <c r="GM5" t="s" s="2171">
+      <c r="GB5" s="2196"/>
+      <c r="GC5" s="2197"/>
+      <c r="GD5" s="2198"/>
+      <c r="GE5" s="2199"/>
+      <c r="GF5" s="2200"/>
+      <c r="GG5" s="2201"/>
+      <c r="GH5" s="2202"/>
+      <c r="GI5" s="2203"/>
+      <c r="GJ5" s="2204"/>
+      <c r="GK5" s="2205"/>
+      <c r="GL5" s="2206"/>
+      <c r="GM5" t="s" s="2207">
         <v>22</v>
       </c>
-      <c r="GN5" s="2172"/>
-      <c r="GO5" s="2173"/>
-      <c r="GP5" s="2174"/>
-      <c r="GQ5" s="2175"/>
-      <c r="GR5" s="2176"/>
-      <c r="GS5" s="2177"/>
-      <c r="GT5" s="2178"/>
-      <c r="GU5" s="2179"/>
-      <c r="GV5" s="2180"/>
-      <c r="GW5" s="2181"/>
-      <c r="GX5" s="2182"/>
-      <c r="GY5" t="s" s="2183">
+      <c r="GN5" s="2208"/>
+      <c r="GO5" s="2209"/>
+      <c r="GP5" s="2210"/>
+      <c r="GQ5" s="2211"/>
+      <c r="GR5" s="2212"/>
+      <c r="GS5" s="2213"/>
+      <c r="GT5" s="2214"/>
+      <c r="GU5" s="2215"/>
+      <c r="GV5" s="2216"/>
+      <c r="GW5" s="2217"/>
+      <c r="GX5" s="2218"/>
+      <c r="GY5" t="s" s="2219">
         <v>23</v>
       </c>
-      <c r="GZ5" s="2184"/>
-      <c r="HA5" s="2185"/>
-      <c r="HB5" s="2186"/>
-      <c r="HC5" s="2187"/>
-      <c r="HD5" s="2188"/>
-      <c r="HE5" s="2189"/>
-      <c r="HF5" s="2190"/>
-      <c r="HG5" s="2191"/>
-      <c r="HH5" s="2192"/>
-      <c r="HI5" s="2193"/>
-      <c r="HJ5" s="2194"/>
-      <c r="HK5" t="s" s="2195">
+      <c r="GZ5" s="2220"/>
+      <c r="HA5" s="2221"/>
+      <c r="HB5" s="2222"/>
+      <c r="HC5" s="2223"/>
+      <c r="HD5" s="2224"/>
+      <c r="HE5" s="2225"/>
+      <c r="HF5" s="2226"/>
+      <c r="HG5" s="2227"/>
+      <c r="HH5" s="2228"/>
+      <c r="HI5" s="2229"/>
+      <c r="HJ5" s="2230"/>
+      <c r="HK5" t="s" s="2231">
         <v>24</v>
       </c>
-      <c r="HL5" s="2196"/>
-      <c r="HM5" s="2197"/>
-      <c r="HN5" s="2198"/>
-      <c r="HO5" s="2199"/>
-      <c r="HP5" s="2200"/>
-      <c r="HQ5" s="2201"/>
-      <c r="HR5" s="2202"/>
-      <c r="HS5" s="2203"/>
-      <c r="HT5" s="2204"/>
-      <c r="HU5" s="2205"/>
-      <c r="HV5" s="2206"/>
-      <c r="HW5" t="s" s="2207">
+      <c r="HL5" s="2232"/>
+      <c r="HM5" s="2233"/>
+      <c r="HN5" s="2234"/>
+      <c r="HO5" s="2235"/>
+      <c r="HP5" s="2236"/>
+      <c r="HQ5" s="2237"/>
+      <c r="HR5" s="2238"/>
+      <c r="HS5" s="2239"/>
+      <c r="HT5" s="2240"/>
+      <c r="HU5" s="2241"/>
+      <c r="HV5" s="2242"/>
+      <c r="HW5" t="s" s="2243">
         <v>25</v>
       </c>
-      <c r="HX5" s="2208"/>
-      <c r="HY5" s="2209"/>
-      <c r="HZ5" s="2210"/>
-      <c r="IA5" s="2211"/>
-      <c r="IB5" s="2212"/>
-      <c r="IC5" s="2213"/>
-      <c r="ID5" s="2214"/>
-      <c r="IE5" s="2215"/>
-      <c r="IF5" s="2216"/>
-      <c r="IG5" s="2217"/>
-      <c r="IH5" s="2218"/>
-      <c r="II5" t="s" s="2219">
+      <c r="HX5" s="2244"/>
+      <c r="HY5" s="2245"/>
+      <c r="HZ5" s="2246"/>
+      <c r="IA5" s="2247"/>
+      <c r="IB5" s="2248"/>
+      <c r="IC5" s="2249"/>
+      <c r="ID5" s="2250"/>
+      <c r="IE5" s="2251"/>
+      <c r="IF5" s="2252"/>
+      <c r="IG5" s="2253"/>
+      <c r="IH5" s="2254"/>
+      <c r="II5" t="s" s="2255">
         <v>26</v>
       </c>
-      <c r="IJ5" s="2220"/>
-      <c r="IK5" s="2221"/>
-      <c r="IL5" s="2222"/>
-      <c r="IM5" s="2223"/>
-      <c r="IN5" s="2224"/>
-      <c r="IO5" s="2225"/>
-      <c r="IP5" s="2226"/>
-      <c r="IQ5" s="2227"/>
-      <c r="IR5" s="2228"/>
-      <c r="IS5" s="2229"/>
-      <c r="IT5" s="2230"/>
-      <c r="IU5" t="s" s="2231">
+      <c r="IJ5" s="2256"/>
+      <c r="IK5" s="2257"/>
+      <c r="IL5" s="2258"/>
+      <c r="IM5" s="2259"/>
+      <c r="IN5" s="2260"/>
+      <c r="IO5" s="2261"/>
+      <c r="IP5" s="2262"/>
+      <c r="IQ5" s="2263"/>
+      <c r="IR5" s="2264"/>
+      <c r="IS5" s="2265"/>
+      <c r="IT5" s="2266"/>
+      <c r="IU5" t="s" s="2267">
         <v>27</v>
       </c>
-      <c r="IV5" s="2232"/>
-      <c r="IW5" s="2233"/>
-      <c r="IX5" s="2234"/>
-      <c r="IY5" s="2235"/>
-      <c r="IZ5" s="2236"/>
-      <c r="JA5" s="2237"/>
-      <c r="JB5" s="2238"/>
-      <c r="JC5" s="2239"/>
-      <c r="JD5" s="2240"/>
-      <c r="JE5" s="2241"/>
-      <c r="JF5" s="2242"/>
-      <c r="JG5" t="s" s="2243">
+      <c r="IV5" s="2268"/>
+      <c r="IW5" s="2269"/>
+      <c r="IX5" s="2270"/>
+      <c r="IY5" s="2271"/>
+      <c r="IZ5" s="2272"/>
+      <c r="JA5" s="2273"/>
+      <c r="JB5" s="2274"/>
+      <c r="JC5" s="2275"/>
+      <c r="JD5" s="2276"/>
+      <c r="JE5" s="2277"/>
+      <c r="JF5" s="2278"/>
+      <c r="JG5" t="s" s="2279">
         <v>28</v>
       </c>
-      <c r="JH5" s="2244"/>
-      <c r="JI5" s="2245"/>
-      <c r="JJ5" s="2246"/>
-      <c r="JK5" s="2247"/>
-      <c r="JL5" s="2248"/>
-      <c r="JM5" s="2249"/>
-      <c r="JN5" s="2250"/>
-      <c r="JO5" s="2251"/>
-      <c r="JP5" s="2252"/>
-      <c r="JQ5" s="2253"/>
-      <c r="JR5" s="2254"/>
-      <c r="JS5" t="s" s="2255">
+      <c r="JH5" s="2280"/>
+      <c r="JI5" s="2281"/>
+      <c r="JJ5" s="2282"/>
+      <c r="JK5" s="2283"/>
+      <c r="JL5" s="2284"/>
+      <c r="JM5" s="2285"/>
+      <c r="JN5" s="2286"/>
+      <c r="JO5" s="2287"/>
+      <c r="JP5" s="2288"/>
+      <c r="JQ5" s="2289"/>
+      <c r="JR5" s="2290"/>
+      <c r="JS5" t="s" s="2291">
         <v>29</v>
       </c>
-      <c r="JT5" s="2256"/>
-      <c r="JU5" s="2257"/>
-      <c r="JV5" s="2258"/>
-      <c r="JW5" s="2259"/>
-      <c r="JX5" s="2260"/>
-      <c r="JY5" s="2261"/>
-      <c r="JZ5" s="2262"/>
-      <c r="KA5" s="2263"/>
-      <c r="KB5" s="2264"/>
-      <c r="KC5" s="2265"/>
-      <c r="KD5" s="2266"/>
-      <c r="KE5" t="s" s="2267">
+      <c r="JT5" s="2292"/>
+      <c r="JU5" s="2293"/>
+      <c r="JV5" s="2294"/>
+      <c r="JW5" s="2295"/>
+      <c r="JX5" s="2296"/>
+      <c r="JY5" s="2297"/>
+      <c r="JZ5" s="2298"/>
+      <c r="KA5" s="2299"/>
+      <c r="KB5" s="2300"/>
+      <c r="KC5" s="2301"/>
+      <c r="KD5" s="2302"/>
+      <c r="KE5" t="s" s="2303">
         <v>30</v>
       </c>
-      <c r="KF5" s="2268"/>
-      <c r="KG5" s="2269"/>
-      <c r="KH5" s="2270"/>
-      <c r="KI5" s="2271"/>
-      <c r="KJ5" s="2272"/>
-      <c r="KK5" s="2273"/>
-      <c r="KL5" s="2274"/>
-      <c r="KM5" s="2275"/>
-      <c r="KN5" s="2276"/>
-      <c r="KO5" s="2277"/>
-      <c r="KP5" s="2278"/>
-      <c r="KQ5" t="s" s="2279">
+      <c r="KF5" s="2304"/>
+      <c r="KG5" s="2305"/>
+      <c r="KH5" s="2306"/>
+      <c r="KI5" s="2307"/>
+      <c r="KJ5" s="2308"/>
+      <c r="KK5" s="2309"/>
+      <c r="KL5" s="2310"/>
+      <c r="KM5" s="2311"/>
+      <c r="KN5" s="2312"/>
+      <c r="KO5" s="2313"/>
+      <c r="KP5" s="2314"/>
+      <c r="KQ5" t="s" s="2315">
         <v>31</v>
       </c>
-      <c r="KR5" s="2280"/>
-      <c r="KS5" s="2281"/>
-      <c r="KT5" s="2282"/>
-      <c r="KU5" s="2283"/>
-      <c r="KV5" s="2284"/>
-      <c r="KW5" s="2285"/>
-      <c r="KX5" s="2286"/>
-      <c r="KY5" s="2287"/>
-      <c r="KZ5" s="2288"/>
-      <c r="LA5" s="2289"/>
-      <c r="LB5" s="2290"/>
-      <c r="LC5" t="s" s="2291">
+      <c r="KR5" s="2316"/>
+      <c r="KS5" s="2317"/>
+      <c r="KT5" s="2318"/>
+      <c r="KU5" s="2319"/>
+      <c r="KV5" s="2320"/>
+      <c r="KW5" s="2321"/>
+      <c r="KX5" s="2322"/>
+      <c r="KY5" s="2323"/>
+      <c r="KZ5" s="2324"/>
+      <c r="LA5" s="2325"/>
+      <c r="LB5" s="2326"/>
+      <c r="LC5" t="s" s="2327">
         <v>32</v>
       </c>
-      <c r="LD5" s="2292"/>
-      <c r="LE5" s="2293"/>
-      <c r="LF5" s="2294"/>
-      <c r="LG5" s="2295"/>
-      <c r="LH5" s="2296"/>
-      <c r="LI5" s="2297"/>
-      <c r="LJ5" s="2298"/>
-      <c r="LK5" s="2299"/>
-      <c r="LL5" s="2300"/>
-      <c r="LM5" s="2301"/>
-      <c r="LN5" s="2302"/>
-      <c r="LO5" t="s" s="2303">
+      <c r="LD5" s="2328"/>
+      <c r="LE5" s="2329"/>
+      <c r="LF5" s="2330"/>
+      <c r="LG5" s="2331"/>
+      <c r="LH5" s="2332"/>
+      <c r="LI5" s="2333"/>
+      <c r="LJ5" s="2334"/>
+      <c r="LK5" s="2335"/>
+      <c r="LL5" s="2336"/>
+      <c r="LM5" s="2337"/>
+      <c r="LN5" s="2338"/>
+      <c r="LO5" t="s" s="2339">
         <v>33</v>
       </c>
-      <c r="LP5" s="2304"/>
-      <c r="LQ5" s="2305"/>
-      <c r="LR5" s="2306"/>
-      <c r="LS5" s="2307"/>
-      <c r="LT5" s="2308"/>
-      <c r="LU5" s="2309"/>
-      <c r="LV5" s="2310"/>
-      <c r="LW5" s="2311"/>
-      <c r="LX5" s="2312"/>
-      <c r="LY5" s="2313"/>
-      <c r="LZ5" s="2314"/>
-      <c r="MA5" t="s" s="2315">
+      <c r="LP5" s="2340"/>
+      <c r="LQ5" s="2341"/>
+      <c r="LR5" s="2342"/>
+      <c r="LS5" s="2343"/>
+      <c r="LT5" s="2344"/>
+      <c r="LU5" s="2345"/>
+      <c r="LV5" s="2346"/>
+      <c r="LW5" s="2347"/>
+      <c r="LX5" s="2348"/>
+      <c r="LY5" s="2349"/>
+      <c r="LZ5" s="2350"/>
+      <c r="MA5" t="s" s="2351">
         <v>34</v>
       </c>
-      <c r="MB5" s="2316"/>
-      <c r="MC5" s="2317"/>
-      <c r="MD5" s="2318"/>
-      <c r="ME5" s="2319"/>
-      <c r="MF5" s="2320"/>
-      <c r="MG5" s="2321"/>
-      <c r="MH5" s="2322"/>
-      <c r="MI5" s="2323"/>
-      <c r="MJ5" s="2324"/>
-      <c r="MK5" s="2325"/>
-      <c r="ML5" s="2326"/>
-      <c r="MM5" t="s" s="2327">
+      <c r="MB5" s="2352"/>
+      <c r="MC5" s="2353"/>
+      <c r="MD5" s="2354"/>
+      <c r="ME5" s="2355"/>
+      <c r="MF5" s="2356"/>
+      <c r="MG5" s="2357"/>
+      <c r="MH5" s="2358"/>
+      <c r="MI5" s="2359"/>
+      <c r="MJ5" s="2360"/>
+      <c r="MK5" s="2361"/>
+      <c r="ML5" s="2362"/>
+      <c r="MM5" t="s" s="2363">
         <v>35</v>
       </c>
-      <c r="MN5" s="2328"/>
-      <c r="MO5" s="2329"/>
-      <c r="MP5" s="2330"/>
-      <c r="MQ5" s="2331"/>
-      <c r="MR5" s="2332"/>
-      <c r="MS5" s="2333"/>
-      <c r="MT5" s="2334"/>
-      <c r="MU5" s="2335"/>
-      <c r="MV5" s="2336"/>
-      <c r="MW5" s="2337"/>
-      <c r="MX5" s="2338"/>
-      <c r="MY5" t="s" s="2339">
+      <c r="MN5" s="2364"/>
+      <c r="MO5" s="2365"/>
+      <c r="MP5" s="2366"/>
+      <c r="MQ5" s="2367"/>
+      <c r="MR5" s="2368"/>
+      <c r="MS5" s="2369"/>
+      <c r="MT5" s="2370"/>
+      <c r="MU5" s="2371"/>
+      <c r="MV5" s="2372"/>
+      <c r="MW5" s="2373"/>
+      <c r="MX5" s="2374"/>
+      <c r="MY5" t="s" s="2375">
         <v>36</v>
       </c>
-      <c r="MZ5" s="2340"/>
-      <c r="NA5" s="2341"/>
-      <c r="NB5" s="2342"/>
-      <c r="NC5" s="2343"/>
-      <c r="ND5" s="2344"/>
-      <c r="NE5" s="2345"/>
-      <c r="NF5" s="2346"/>
-      <c r="NG5" s="2347"/>
-      <c r="NH5" s="2348"/>
-      <c r="NI5" s="2349"/>
-      <c r="NJ5" s="2350"/>
-      <c r="NK5" t="s" s="2351">
+      <c r="MZ5" s="2376"/>
+      <c r="NA5" s="2377"/>
+      <c r="NB5" s="2378"/>
+      <c r="NC5" s="2379"/>
+      <c r="ND5" s="2380"/>
+      <c r="NE5" s="2381"/>
+      <c r="NF5" s="2382"/>
+      <c r="NG5" s="2383"/>
+      <c r="NH5" s="2384"/>
+      <c r="NI5" s="2385"/>
+      <c r="NJ5" s="2386"/>
+      <c r="NK5" t="s" s="2387">
         <v>37</v>
       </c>
-      <c r="NL5" s="2352"/>
-      <c r="NM5" s="2353"/>
-      <c r="NN5" s="2354"/>
-      <c r="NO5" s="2355"/>
-      <c r="NP5" s="2356"/>
-      <c r="NQ5" s="2357"/>
-      <c r="NR5" s="2358"/>
-      <c r="NS5" s="2359"/>
-      <c r="NT5" s="2360"/>
-      <c r="NU5" s="2361"/>
-      <c r="NV5" s="2362"/>
-      <c r="NW5" t="s" s="2363">
+      <c r="NL5" s="2388"/>
+      <c r="NM5" s="2389"/>
+      <c r="NN5" s="2390"/>
+      <c r="NO5" s="2391"/>
+      <c r="NP5" s="2392"/>
+      <c r="NQ5" s="2393"/>
+      <c r="NR5" s="2394"/>
+      <c r="NS5" s="2395"/>
+      <c r="NT5" s="2396"/>
+      <c r="NU5" s="2397"/>
+      <c r="NV5" s="2398"/>
+      <c r="NW5" t="s" s="2399">
         <v>38</v>
       </c>
-      <c r="NX5" s="2364"/>
-      <c r="NY5" s="2365"/>
-      <c r="NZ5" s="2366"/>
-      <c r="OA5" s="2367"/>
-      <c r="OB5" s="2368"/>
-      <c r="OC5" s="2369"/>
-      <c r="OD5" s="2370"/>
-      <c r="OE5" s="2371"/>
-      <c r="OF5" s="2372"/>
-      <c r="OG5" s="2373"/>
-      <c r="OH5" s="2374"/>
-      <c r="OI5" t="s" s="2375">
+      <c r="NX5" s="2400"/>
+      <c r="NY5" s="2401"/>
+      <c r="NZ5" s="2402"/>
+      <c r="OA5" s="2403"/>
+      <c r="OB5" s="2404"/>
+      <c r="OC5" s="2405"/>
+      <c r="OD5" s="2406"/>
+      <c r="OE5" s="2407"/>
+      <c r="OF5" s="2408"/>
+      <c r="OG5" s="2409"/>
+      <c r="OH5" s="2410"/>
+      <c r="OI5" t="s" s="2411">
         <v>39</v>
       </c>
-      <c r="OJ5" s="2376"/>
-      <c r="OK5" s="2377"/>
-      <c r="OL5" s="2378"/>
-      <c r="OM5" s="2379"/>
-      <c r="ON5" s="2380"/>
-      <c r="OO5" s="2381"/>
-      <c r="OP5" s="2382"/>
-      <c r="OQ5" s="2383"/>
-      <c r="OR5" s="2384"/>
-      <c r="OS5" s="2385"/>
-      <c r="OT5" s="2386"/>
-      <c r="OU5" t="s" s="2387">
+      <c r="OJ5" s="2412"/>
+      <c r="OK5" s="2413"/>
+      <c r="OL5" s="2414"/>
+      <c r="OM5" s="2415"/>
+      <c r="ON5" s="2416"/>
+      <c r="OO5" s="2417"/>
+      <c r="OP5" s="2418"/>
+      <c r="OQ5" s="2419"/>
+      <c r="OR5" s="2420"/>
+      <c r="OS5" s="2421"/>
+      <c r="OT5" s="2422"/>
+      <c r="OU5" t="s" s="2423">
         <v>40</v>
       </c>
-      <c r="OV5" s="2388"/>
-      <c r="OW5" s="2389"/>
-      <c r="OX5" s="2390"/>
-      <c r="OY5" s="2391"/>
-      <c r="OZ5" s="2392"/>
-      <c r="PA5" s="2393"/>
-      <c r="PB5" s="2394"/>
-      <c r="PC5" s="2395"/>
-      <c r="PD5" s="2396"/>
-      <c r="PE5" s="2397"/>
-      <c r="PF5" s="2398"/>
-      <c r="PG5" t="s" s="2399">
+      <c r="OV5" s="2424"/>
+      <c r="OW5" s="2425"/>
+      <c r="OX5" s="2426"/>
+      <c r="OY5" s="2427"/>
+      <c r="OZ5" s="2428"/>
+      <c r="PA5" s="2429"/>
+      <c r="PB5" s="2430"/>
+      <c r="PC5" s="2431"/>
+      <c r="PD5" s="2432"/>
+      <c r="PE5" s="2433"/>
+      <c r="PF5" s="2434"/>
+      <c r="PG5" t="s" s="2435">
         <v>41</v>
       </c>
-      <c r="PH5" s="2400"/>
-      <c r="PI5" s="2401"/>
-      <c r="PJ5" s="2402"/>
-      <c r="PK5" s="2403"/>
-      <c r="PL5" s="2404"/>
-      <c r="PM5" s="2405"/>
-      <c r="PN5" s="2406"/>
-      <c r="PO5" s="2407"/>
-      <c r="PP5" s="2408"/>
-      <c r="PQ5" s="2409"/>
-      <c r="PR5" s="2410"/>
-      <c r="PS5" t="s" s="2411">
+      <c r="PH5" s="2436"/>
+      <c r="PI5" s="2437"/>
+      <c r="PJ5" s="2438"/>
+      <c r="PK5" s="2439"/>
+      <c r="PL5" s="2440"/>
+      <c r="PM5" s="2441"/>
+      <c r="PN5" s="2442"/>
+      <c r="PO5" s="2443"/>
+      <c r="PP5" s="2444"/>
+      <c r="PQ5" s="2445"/>
+      <c r="PR5" s="2446"/>
+      <c r="PS5" t="s" s="2447">
         <v>42</v>
       </c>
-      <c r="PT5" s="2412"/>
-      <c r="PU5" s="2413"/>
-      <c r="PV5" s="2414"/>
-      <c r="PW5" s="2415"/>
-      <c r="PX5" s="2416"/>
-      <c r="PY5" s="2417"/>
-      <c r="PZ5" s="2418"/>
-      <c r="QA5" s="2419"/>
-      <c r="QB5" s="2420"/>
-      <c r="QC5" s="2421"/>
-      <c r="QD5" s="2422"/>
-      <c r="QE5" t="s" s="2423">
+      <c r="PT5" s="2448"/>
+      <c r="PU5" s="2449"/>
+      <c r="PV5" s="2450"/>
+      <c r="PW5" s="2451"/>
+      <c r="PX5" s="2452"/>
+      <c r="PY5" s="2453"/>
+      <c r="PZ5" s="2454"/>
+      <c r="QA5" s="2455"/>
+      <c r="QB5" s="2456"/>
+      <c r="QC5" s="2457"/>
+      <c r="QD5" s="2458"/>
+      <c r="QE5" t="s" s="2459">
         <v>43</v>
       </c>
-      <c r="QF5" s="2424"/>
-      <c r="QG5" s="2425"/>
-      <c r="QH5" s="2426"/>
-      <c r="QI5" s="2427"/>
-      <c r="QJ5" s="2428"/>
-      <c r="QK5" s="2429"/>
-      <c r="QL5" s="2430"/>
-      <c r="QM5" s="2431"/>
-      <c r="QN5" s="2432"/>
-      <c r="QO5" s="2433"/>
-      <c r="QP5" s="2434"/>
-      <c r="QQ5" t="s" s="2435">
+      <c r="QF5" s="2460"/>
+      <c r="QG5" s="2461"/>
+      <c r="QH5" s="2462"/>
+      <c r="QI5" s="2463"/>
+      <c r="QJ5" s="2464"/>
+      <c r="QK5" s="2465"/>
+      <c r="QL5" s="2466"/>
+      <c r="QM5" s="2467"/>
+      <c r="QN5" s="2468"/>
+      <c r="QO5" s="2469"/>
+      <c r="QP5" s="2470"/>
+      <c r="QQ5" t="s" s="2471">
         <v>44</v>
       </c>
-      <c r="QR5" s="2436"/>
-      <c r="QS5" s="2437"/>
-      <c r="QT5" s="2438"/>
-      <c r="QU5" s="2439"/>
-      <c r="QV5" s="2440"/>
-      <c r="QW5" s="2441"/>
-      <c r="QX5" s="2442"/>
-      <c r="QY5" s="2443"/>
-      <c r="QZ5" s="2444"/>
-      <c r="RA5" s="2445"/>
-      <c r="RB5" s="2446"/>
-      <c r="RC5" t="s" s="2447">
+      <c r="QR5" s="2472"/>
+      <c r="QS5" s="2473"/>
+      <c r="QT5" s="2474"/>
+      <c r="QU5" s="2475"/>
+      <c r="QV5" s="2476"/>
+      <c r="QW5" s="2477"/>
+      <c r="QX5" s="2478"/>
+      <c r="QY5" s="2479"/>
+      <c r="QZ5" s="2480"/>
+      <c r="RA5" s="2481"/>
+      <c r="RB5" s="2482"/>
+      <c r="RC5" t="s" s="2483">
         <v>45</v>
       </c>
-      <c r="RD5" s="2448"/>
-      <c r="RE5" s="2449"/>
-      <c r="RF5" s="2450"/>
-      <c r="RG5" s="2451"/>
-      <c r="RH5" s="2452"/>
-      <c r="RI5" s="2453"/>
-      <c r="RJ5" s="2454"/>
-      <c r="RK5" s="2455"/>
-      <c r="RL5" s="2456"/>
-      <c r="RM5" s="2457"/>
-      <c r="RN5" s="2458"/>
-      <c r="RO5" t="s" s="2459">
+      <c r="RD5" s="2484"/>
+      <c r="RE5" s="2485"/>
+      <c r="RF5" s="2486"/>
+      <c r="RG5" s="2487"/>
+      <c r="RH5" s="2488"/>
+      <c r="RI5" s="2489"/>
+      <c r="RJ5" s="2490"/>
+      <c r="RK5" s="2491"/>
+      <c r="RL5" s="2492"/>
+      <c r="RM5" s="2493"/>
+      <c r="RN5" s="2494"/>
+      <c r="RO5" t="s" s="2495">
         <v>46</v>
       </c>
-      <c r="RP5" s="2460"/>
-      <c r="RQ5" s="2461"/>
-      <c r="RR5" s="2462"/>
-      <c r="RS5" s="2463"/>
-      <c r="RT5" s="2464"/>
-      <c r="RU5" s="2465"/>
-      <c r="RV5" s="2466"/>
-      <c r="RW5" s="2467"/>
-      <c r="RX5" s="2468"/>
-      <c r="RY5" s="2469"/>
-      <c r="RZ5" s="2470"/>
-      <c r="SA5" t="s" s="2471">
+      <c r="RP5" s="2496"/>
+      <c r="RQ5" s="2497"/>
+      <c r="RR5" s="2498"/>
+      <c r="RS5" s="2499"/>
+      <c r="RT5" s="2500"/>
+      <c r="RU5" s="2501"/>
+      <c r="RV5" s="2502"/>
+      <c r="RW5" s="2503"/>
+      <c r="RX5" s="2504"/>
+      <c r="RY5" s="2505"/>
+      <c r="RZ5" s="2506"/>
+      <c r="SA5" t="s" s="2507">
         <v>47</v>
       </c>
-      <c r="SB5" s="2472"/>
-      <c r="SC5" s="2473"/>
-      <c r="SD5" s="2474"/>
-      <c r="SE5" s="2475"/>
-      <c r="SF5" s="2476"/>
-      <c r="SG5" s="2477"/>
-      <c r="SH5" s="2478"/>
-      <c r="SI5" s="2479"/>
-      <c r="SJ5" s="2480"/>
-      <c r="SK5" s="2481"/>
-      <c r="SL5" s="2482"/>
-      <c r="SM5" t="s" s="2483">
+      <c r="SB5" s="2508"/>
+      <c r="SC5" s="2509"/>
+      <c r="SD5" s="2510"/>
+      <c r="SE5" s="2511"/>
+      <c r="SF5" s="2512"/>
+      <c r="SG5" s="2513"/>
+      <c r="SH5" s="2514"/>
+      <c r="SI5" s="2515"/>
+      <c r="SJ5" s="2516"/>
+      <c r="SK5" s="2517"/>
+      <c r="SL5" s="2518"/>
+      <c r="SM5" t="s" s="2519">
         <v>48</v>
       </c>
-      <c r="SN5" s="2484"/>
-      <c r="SO5" s="2485"/>
-      <c r="SP5" s="2486"/>
-      <c r="SQ5" s="2487"/>
-      <c r="SR5" s="2488"/>
-      <c r="SS5" s="2489"/>
-      <c r="ST5" s="2490"/>
-      <c r="SU5" s="2491"/>
-      <c r="SV5" s="2492"/>
-      <c r="SW5" s="2493"/>
-      <c r="SX5" s="2494"/>
-      <c r="SY5" t="s" s="2495">
+      <c r="SN5" s="2520"/>
+      <c r="SO5" s="2521"/>
+      <c r="SP5" s="2522"/>
+      <c r="SQ5" s="2523"/>
+      <c r="SR5" s="2524"/>
+      <c r="SS5" s="2525"/>
+      <c r="ST5" s="2526"/>
+      <c r="SU5" s="2527"/>
+      <c r="SV5" s="2528"/>
+      <c r="SW5" s="2529"/>
+      <c r="SX5" s="2530"/>
+      <c r="SY5" t="s" s="2531">
         <v>49</v>
       </c>
-      <c r="SZ5" s="2496"/>
-      <c r="TA5" s="2497"/>
-      <c r="TB5" s="2498"/>
-      <c r="TC5" s="2499"/>
-      <c r="TD5" s="2500"/>
-      <c r="TE5" s="2501"/>
-      <c r="TF5" s="2502"/>
-      <c r="TG5" s="2503"/>
-      <c r="TH5" s="2504"/>
-      <c r="TI5" s="2505"/>
-      <c r="TJ5" s="2506"/>
-      <c r="TK5" t="s" s="2507">
+      <c r="SZ5" s="2532"/>
+      <c r="TA5" s="2533"/>
+      <c r="TB5" s="2534"/>
+      <c r="TC5" s="2535"/>
+      <c r="TD5" s="2536"/>
+      <c r="TE5" s="2537"/>
+      <c r="TF5" s="2538"/>
+      <c r="TG5" s="2539"/>
+      <c r="TH5" s="2540"/>
+      <c r="TI5" s="2541"/>
+      <c r="TJ5" s="2542"/>
+      <c r="TK5" t="s" s="2543">
         <v>50</v>
       </c>
-      <c r="TL5" s="2508"/>
-      <c r="TM5" s="2509"/>
-      <c r="TN5" s="2510"/>
-      <c r="TO5" s="2511"/>
-      <c r="TP5" s="2512"/>
-      <c r="TQ5" s="2513"/>
-      <c r="TR5" s="2514"/>
-      <c r="TS5" s="2515"/>
-      <c r="TT5" s="2516"/>
-      <c r="TU5" s="2517"/>
-      <c r="TV5" s="2518"/>
-      <c r="TW5" t="s" s="2519">
+      <c r="TL5" s="2544"/>
+      <c r="TM5" s="2545"/>
+      <c r="TN5" s="2546"/>
+      <c r="TO5" s="2547"/>
+      <c r="TP5" s="2548"/>
+      <c r="TQ5" s="2549"/>
+      <c r="TR5" s="2550"/>
+      <c r="TS5" s="2551"/>
+      <c r="TT5" s="2552"/>
+      <c r="TU5" s="2553"/>
+      <c r="TV5" s="2554"/>
+      <c r="TW5" t="s" s="2555">
         <v>51</v>
       </c>
-      <c r="TX5" s="2520"/>
-      <c r="TY5" s="2521"/>
-      <c r="TZ5" s="2522"/>
-      <c r="UA5" s="2523"/>
-      <c r="UB5" s="2524"/>
-      <c r="UC5" s="2525"/>
-      <c r="UD5" s="2526"/>
-      <c r="UE5" s="2527"/>
-      <c r="UF5" s="2528"/>
-      <c r="UG5" s="2529"/>
-      <c r="UH5" s="2530"/>
-      <c r="UI5" t="s" s="2531">
+      <c r="TX5" s="2556"/>
+      <c r="TY5" s="2557"/>
+      <c r="TZ5" s="2558"/>
+      <c r="UA5" s="2559"/>
+      <c r="UB5" s="2560"/>
+      <c r="UC5" s="2561"/>
+      <c r="UD5" s="2562"/>
+      <c r="UE5" s="2563"/>
+      <c r="UF5" s="2564"/>
+      <c r="UG5" s="2565"/>
+      <c r="UH5" s="2566"/>
+      <c r="UI5" t="s" s="2567">
         <v>52</v>
       </c>
-      <c r="UJ5" s="2532"/>
-      <c r="UK5" s="2533"/>
-      <c r="UL5" s="2534"/>
-      <c r="UM5" s="2535"/>
-      <c r="UN5" s="2536"/>
-      <c r="UO5" s="2537"/>
-      <c r="UP5" s="2538"/>
-      <c r="UQ5" s="2539"/>
-      <c r="UR5" s="2540"/>
-      <c r="US5" s="2541"/>
-      <c r="UT5" s="2542"/>
-      <c r="UU5" t="s" s="2543">
+      <c r="UJ5" s="2568"/>
+      <c r="UK5" s="2569"/>
+      <c r="UL5" s="2570"/>
+      <c r="UM5" s="2571"/>
+      <c r="UN5" s="2572"/>
+      <c r="UO5" s="2573"/>
+      <c r="UP5" s="2574"/>
+      <c r="UQ5" s="2575"/>
+      <c r="UR5" s="2576"/>
+      <c r="US5" s="2577"/>
+      <c r="UT5" s="2578"/>
+      <c r="UU5" t="s" s="2579">
         <v>53</v>
       </c>
-      <c r="UV5" s="2544"/>
-      <c r="UW5" s="2545"/>
-      <c r="UX5" s="2546"/>
-      <c r="UY5" s="2547"/>
-      <c r="UZ5" s="2548"/>
-      <c r="VA5" s="2549"/>
-      <c r="VB5" s="2550"/>
-      <c r="VC5" s="2551"/>
-      <c r="VD5" s="2552"/>
-      <c r="VE5" s="2553"/>
-      <c r="VF5" s="2554"/>
-      <c r="VG5" t="s" s="2555">
+      <c r="UV5" s="2580"/>
+      <c r="UW5" s="2581"/>
+      <c r="UX5" s="2582"/>
+      <c r="UY5" s="2583"/>
+      <c r="UZ5" s="2584"/>
+      <c r="VA5" s="2585"/>
+      <c r="VB5" s="2586"/>
+      <c r="VC5" s="2587"/>
+      <c r="VD5" s="2588"/>
+      <c r="VE5" s="2589"/>
+      <c r="VF5" s="2590"/>
+      <c r="VG5" t="s" s="2591">
         <v>54</v>
       </c>
-      <c r="VH5" s="2556"/>
-      <c r="VI5" s="2557"/>
-      <c r="VJ5" s="2558"/>
-      <c r="VK5" s="2559"/>
-      <c r="VL5" s="2560"/>
-      <c r="VM5" s="2561"/>
-      <c r="VN5" s="2562"/>
-      <c r="VO5" s="2563"/>
-      <c r="VP5" s="2564"/>
-      <c r="VQ5" s="2565"/>
-      <c r="VR5" s="2566"/>
-      <c r="VS5" t="s" s="2567">
+      <c r="VH5" s="2592"/>
+      <c r="VI5" s="2593"/>
+      <c r="VJ5" s="2594"/>
+      <c r="VK5" s="2595"/>
+      <c r="VL5" s="2596"/>
+      <c r="VM5" s="2597"/>
+      <c r="VN5" s="2598"/>
+      <c r="VO5" s="2599"/>
+      <c r="VP5" s="2600"/>
+      <c r="VQ5" s="2601"/>
+      <c r="VR5" s="2602"/>
+      <c r="VS5" t="s" s="2603">
         <v>55</v>
       </c>
-      <c r="VT5" s="2568"/>
-      <c r="VU5" s="2569"/>
-      <c r="VV5" s="2570"/>
-      <c r="VW5" s="2571"/>
-      <c r="VX5" s="2572"/>
-      <c r="VY5" s="2573"/>
-      <c r="VZ5" s="2574"/>
-      <c r="WA5" s="2575"/>
-      <c r="WB5" s="2576"/>
-      <c r="WC5" s="2577"/>
-      <c r="WD5" s="2578"/>
-      <c r="WE5" t="s" s="2579">
+      <c r="VT5" s="2604"/>
+      <c r="VU5" s="2605"/>
+      <c r="VV5" s="2606"/>
+      <c r="VW5" s="2607"/>
+      <c r="VX5" s="2608"/>
+      <c r="VY5" s="2609"/>
+      <c r="VZ5" s="2610"/>
+      <c r="WA5" s="2611"/>
+      <c r="WB5" s="2612"/>
+      <c r="WC5" s="2613"/>
+      <c r="WD5" s="2614"/>
+      <c r="WE5" t="s" s="2615">
         <v>56</v>
       </c>
-      <c r="WF5" s="2580"/>
-      <c r="WG5" s="2581"/>
-      <c r="WH5" s="2582"/>
-      <c r="WI5" s="2583"/>
-      <c r="WJ5" s="2584"/>
-      <c r="WK5" s="2585"/>
-      <c r="WL5" s="2586"/>
-      <c r="WM5" s="2587"/>
-      <c r="WN5" s="2588"/>
-      <c r="WO5" s="2589"/>
-      <c r="WP5" s="2590"/>
-      <c r="WQ5" t="s" s="2591">
+      <c r="WF5" s="2616"/>
+      <c r="WG5" s="2617"/>
+      <c r="WH5" s="2618"/>
+      <c r="WI5" s="2619"/>
+      <c r="WJ5" s="2620"/>
+      <c r="WK5" s="2621"/>
+      <c r="WL5" s="2622"/>
+      <c r="WM5" s="2623"/>
+      <c r="WN5" s="2624"/>
+      <c r="WO5" s="2625"/>
+      <c r="WP5" s="2626"/>
+      <c r="WQ5" t="s" s="2627">
         <v>57</v>
       </c>
-      <c r="WR5" s="2592"/>
-      <c r="WS5" s="2593"/>
-      <c r="WT5" s="2594"/>
-      <c r="WU5" s="2595"/>
-      <c r="WV5" s="2596"/>
-      <c r="WW5" s="2597"/>
-      <c r="WX5" s="2598"/>
-      <c r="WY5" s="2599"/>
-      <c r="WZ5" s="2600"/>
-      <c r="XA5" s="2601"/>
-      <c r="XB5" s="2602"/>
-      <c r="XC5" t="s" s="2603">
+      <c r="WR5" s="2628"/>
+      <c r="WS5" s="2629"/>
+      <c r="WT5" s="2630"/>
+      <c r="WU5" s="2631"/>
+      <c r="WV5" s="2632"/>
+      <c r="WW5" s="2633"/>
+      <c r="WX5" s="2634"/>
+      <c r="WY5" s="2635"/>
+      <c r="WZ5" s="2636"/>
+      <c r="XA5" s="2637"/>
+      <c r="XB5" s="2638"/>
+      <c r="XC5" t="s" s="2639">
         <v>58</v>
       </c>
-      <c r="XD5" s="2604"/>
-      <c r="XE5" s="2605"/>
-      <c r="XF5" s="2606"/>
-      <c r="XG5" s="2607"/>
-      <c r="XH5" s="2608"/>
-      <c r="XI5" s="2609"/>
-      <c r="XJ5" s="2610"/>
-      <c r="XK5" s="2611"/>
-      <c r="XL5" s="2612"/>
-      <c r="XM5" s="2613"/>
-      <c r="XN5" s="2614"/>
-      <c r="XO5" t="s" s="2615">
+      <c r="XD5" s="2640"/>
+      <c r="XE5" s="2641"/>
+      <c r="XF5" s="2642"/>
+      <c r="XG5" s="2643"/>
+      <c r="XH5" s="2644"/>
+      <c r="XI5" s="2645"/>
+      <c r="XJ5" s="2646"/>
+      <c r="XK5" s="2647"/>
+      <c r="XL5" s="2648"/>
+      <c r="XM5" s="2649"/>
+      <c r="XN5" s="2650"/>
+      <c r="XO5" t="s" s="2651">
         <v>59</v>
       </c>
-      <c r="XP5" s="2616"/>
-      <c r="XQ5" s="2617"/>
-      <c r="XR5" s="2618"/>
-      <c r="XS5" s="2619"/>
-      <c r="XT5" s="2620"/>
-      <c r="XU5" s="2621"/>
-      <c r="XV5" s="2622"/>
-      <c r="XW5" s="2623"/>
-      <c r="XX5" s="2624"/>
-      <c r="XY5" s="2625"/>
-      <c r="XZ5" s="2626"/>
+      <c r="XP5" s="2652"/>
+      <c r="XQ5" s="2653"/>
+      <c r="XR5" s="2654"/>
+      <c r="XS5" s="2655"/>
+      <c r="XT5" s="2656"/>
+      <c r="XU5" s="2657"/>
+      <c r="XV5" s="2658"/>
+      <c r="XW5" s="2659"/>
+      <c r="XX5" s="2660"/>
+      <c r="XY5" s="2661"/>
+      <c r="XZ5" s="2662"/>
+      <c r="YA5" t="s" s="2663">
+        <v>60</v>
+      </c>
+      <c r="YB5" s="2664"/>
+      <c r="YC5" s="2665"/>
+      <c r="YD5" s="2666"/>
+      <c r="YE5" s="2667"/>
+      <c r="YF5" s="2668"/>
+      <c r="YG5" s="2669"/>
+      <c r="YH5" s="2670"/>
+      <c r="YI5" s="2671"/>
+      <c r="YJ5" s="2672"/>
+      <c r="YK5" s="2673"/>
+      <c r="YL5" s="2674"/>
     </row>
     <row r="6">
-      <c r="A6" s="2627"/>
-      <c r="B6" s="2628"/>
-      <c r="C6" t="s" s="2629">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2630"/>
-      <c r="E6" s="2631"/>
-      <c r="F6" s="2632"/>
-      <c r="G6" s="2633"/>
-      <c r="H6" s="2634"/>
-      <c r="I6" s="2635"/>
-      <c r="J6" s="2636"/>
-      <c r="K6" s="2637"/>
-      <c r="L6" s="2638"/>
-      <c r="M6" s="2639"/>
-      <c r="N6" s="2640"/>
-      <c r="O6" t="s" s="2641">
-        <v>60</v>
-      </c>
-      <c r="P6" s="2642"/>
-      <c r="Q6" s="2643"/>
-      <c r="R6" s="2644"/>
-      <c r="S6" s="2645"/>
-      <c r="T6" s="2646"/>
-      <c r="U6" s="2647"/>
-      <c r="V6" s="2648"/>
-      <c r="W6" s="2649"/>
-      <c r="X6" s="2650"/>
-      <c r="Y6" s="2651"/>
-      <c r="Z6" s="2652"/>
-      <c r="AA6" t="s" s="2653">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="2654"/>
-      <c r="AC6" s="2655"/>
-      <c r="AD6" s="2656"/>
-      <c r="AE6" s="2657"/>
-      <c r="AF6" s="2658"/>
-      <c r="AG6" s="2659"/>
-      <c r="AH6" s="2660"/>
-      <c r="AI6" s="2661"/>
-      <c r="AJ6" s="2662"/>
-      <c r="AK6" s="2663"/>
-      <c r="AL6" s="2664"/>
-      <c r="AM6" t="s" s="2665">
-        <v>60</v>
-      </c>
-      <c r="AN6" s="2666"/>
-      <c r="AO6" s="2667"/>
-      <c r="AP6" s="2668"/>
-      <c r="AQ6" s="2669"/>
-      <c r="AR6" s="2670"/>
-      <c r="AS6" s="2671"/>
-      <c r="AT6" s="2672"/>
-      <c r="AU6" s="2673"/>
-      <c r="AV6" s="2674"/>
-      <c r="AW6" s="2675"/>
-      <c r="AX6" s="2676"/>
-      <c r="AY6" t="s" s="2677">
-        <v>60</v>
-      </c>
-      <c r="AZ6" s="2678"/>
-      <c r="BA6" s="2679"/>
-      <c r="BB6" s="2680"/>
-      <c r="BC6" s="2681"/>
-      <c r="BD6" s="2682"/>
-      <c r="BE6" s="2683"/>
-      <c r="BF6" s="2684"/>
-      <c r="BG6" s="2685"/>
-      <c r="BH6" s="2686"/>
-      <c r="BI6" s="2687"/>
-      <c r="BJ6" s="2688"/>
-      <c r="BK6" t="s" s="2689">
-        <v>60</v>
-      </c>
-      <c r="BL6" s="2690"/>
-      <c r="BM6" s="2691"/>
-      <c r="BN6" s="2692"/>
-      <c r="BO6" s="2693"/>
-      <c r="BP6" s="2694"/>
-      <c r="BQ6" s="2695"/>
-      <c r="BR6" s="2696"/>
-      <c r="BS6" s="2697"/>
-      <c r="BT6" s="2698"/>
-      <c r="BU6" s="2699"/>
-      <c r="BV6" s="2700"/>
-      <c r="BW6" t="s" s="2701">
-        <v>60</v>
-      </c>
-      <c r="BX6" s="2702"/>
-      <c r="BY6" s="2703"/>
-      <c r="BZ6" s="2704"/>
-      <c r="CA6" s="2705"/>
-      <c r="CB6" s="2706"/>
-      <c r="CC6" s="2707"/>
-      <c r="CD6" s="2708"/>
-      <c r="CE6" s="2709"/>
-      <c r="CF6" s="2710"/>
-      <c r="CG6" s="2711"/>
-      <c r="CH6" s="2712"/>
-      <c r="CI6" t="s" s="2713">
-        <v>60</v>
-      </c>
-      <c r="CJ6" s="2714"/>
-      <c r="CK6" s="2715"/>
-      <c r="CL6" s="2716"/>
-      <c r="CM6" s="2717"/>
-      <c r="CN6" s="2718"/>
-      <c r="CO6" s="2719"/>
-      <c r="CP6" s="2720"/>
-      <c r="CQ6" s="2721"/>
-      <c r="CR6" s="2722"/>
-      <c r="CS6" s="2723"/>
-      <c r="CT6" s="2724"/>
-      <c r="CU6" t="s" s="2725">
-        <v>60</v>
-      </c>
-      <c r="CV6" s="2726"/>
-      <c r="CW6" s="2727"/>
-      <c r="CX6" s="2728"/>
-      <c r="CY6" s="2729"/>
-      <c r="CZ6" s="2730"/>
-      <c r="DA6" s="2731"/>
-      <c r="DB6" s="2732"/>
-      <c r="DC6" s="2733"/>
-      <c r="DD6" s="2734"/>
-      <c r="DE6" s="2735"/>
-      <c r="DF6" s="2736"/>
-      <c r="DG6" t="s" s="2737">
-        <v>60</v>
-      </c>
-      <c r="DH6" s="2738"/>
-      <c r="DI6" s="2739"/>
-      <c r="DJ6" s="2740"/>
-      <c r="DK6" s="2741"/>
-      <c r="DL6" s="2742"/>
-      <c r="DM6" s="2743"/>
-      <c r="DN6" s="2744"/>
-      <c r="DO6" s="2745"/>
-      <c r="DP6" s="2746"/>
-      <c r="DQ6" s="2747"/>
-      <c r="DR6" s="2748"/>
-      <c r="DS6" t="s" s="2749">
-        <v>60</v>
-      </c>
-      <c r="DT6" s="2750"/>
-      <c r="DU6" s="2751"/>
-      <c r="DV6" s="2752"/>
-      <c r="DW6" s="2753"/>
-      <c r="DX6" s="2754"/>
-      <c r="DY6" s="2755"/>
-      <c r="DZ6" s="2756"/>
-      <c r="EA6" s="2757"/>
-      <c r="EB6" s="2758"/>
-      <c r="EC6" s="2759"/>
-      <c r="ED6" s="2760"/>
-      <c r="EE6" t="s" s="2761">
-        <v>60</v>
-      </c>
-      <c r="EF6" s="2762"/>
-      <c r="EG6" s="2763"/>
-      <c r="EH6" s="2764"/>
-      <c r="EI6" s="2765"/>
-      <c r="EJ6" s="2766"/>
-      <c r="EK6" s="2767"/>
-      <c r="EL6" s="2768"/>
-      <c r="EM6" s="2769"/>
-      <c r="EN6" s="2770"/>
-      <c r="EO6" s="2771"/>
-      <c r="EP6" s="2772"/>
-      <c r="EQ6" t="s" s="2773">
-        <v>60</v>
-      </c>
-      <c r="ER6" s="2774"/>
-      <c r="ES6" s="2775"/>
-      <c r="ET6" s="2776"/>
-      <c r="EU6" s="2777"/>
-      <c r="EV6" s="2778"/>
-      <c r="EW6" s="2779"/>
-      <c r="EX6" s="2780"/>
-      <c r="EY6" s="2781"/>
-      <c r="EZ6" s="2782"/>
-      <c r="FA6" s="2783"/>
-      <c r="FB6" s="2784"/>
-      <c r="FC6" t="s" s="2785">
-        <v>60</v>
-      </c>
-      <c r="FD6" s="2786"/>
-      <c r="FE6" s="2787"/>
-      <c r="FF6" s="2788"/>
-      <c r="FG6" s="2789"/>
-      <c r="FH6" s="2790"/>
-      <c r="FI6" s="2791"/>
-      <c r="FJ6" s="2792"/>
-      <c r="FK6" s="2793"/>
-      <c r="FL6" s="2794"/>
-      <c r="FM6" s="2795"/>
-      <c r="FN6" s="2796"/>
-      <c r="FO6" t="s" s="2797">
-        <v>60</v>
-      </c>
-      <c r="FP6" s="2798"/>
-      <c r="FQ6" s="2799"/>
-      <c r="FR6" s="2800"/>
-      <c r="FS6" s="2801"/>
-      <c r="FT6" s="2802"/>
-      <c r="FU6" s="2803"/>
-      <c r="FV6" s="2804"/>
-      <c r="FW6" s="2805"/>
-      <c r="FX6" s="2806"/>
-      <c r="FY6" s="2807"/>
-      <c r="FZ6" s="2808"/>
-      <c r="GA6" t="s" s="2809">
-        <v>60</v>
-      </c>
-      <c r="GB6" s="2810"/>
-      <c r="GC6" s="2811"/>
-      <c r="GD6" s="2812"/>
-      <c r="GE6" s="2813"/>
-      <c r="GF6" s="2814"/>
-      <c r="GG6" s="2815"/>
-      <c r="GH6" s="2816"/>
-      <c r="GI6" s="2817"/>
-      <c r="GJ6" s="2818"/>
-      <c r="GK6" s="2819"/>
-      <c r="GL6" s="2820"/>
-      <c r="GM6" t="s" s="2821">
-        <v>60</v>
-      </c>
-      <c r="GN6" s="2822"/>
-      <c r="GO6" s="2823"/>
-      <c r="GP6" s="2824"/>
-      <c r="GQ6" s="2825"/>
-      <c r="GR6" s="2826"/>
-      <c r="GS6" s="2827"/>
-      <c r="GT6" s="2828"/>
-      <c r="GU6" s="2829"/>
-      <c r="GV6" s="2830"/>
-      <c r="GW6" s="2831"/>
-      <c r="GX6" s="2832"/>
-      <c r="GY6" t="s" s="2833">
-        <v>60</v>
-      </c>
-      <c r="GZ6" s="2834"/>
-      <c r="HA6" s="2835"/>
-      <c r="HB6" s="2836"/>
-      <c r="HC6" s="2837"/>
-      <c r="HD6" s="2838"/>
-      <c r="HE6" s="2839"/>
-      <c r="HF6" s="2840"/>
-      <c r="HG6" s="2841"/>
-      <c r="HH6" s="2842"/>
-      <c r="HI6" s="2843"/>
-      <c r="HJ6" s="2844"/>
-      <c r="HK6" t="s" s="2845">
-        <v>60</v>
-      </c>
-      <c r="HL6" s="2846"/>
-      <c r="HM6" s="2847"/>
-      <c r="HN6" s="2848"/>
-      <c r="HO6" s="2849"/>
-      <c r="HP6" s="2850"/>
-      <c r="HQ6" s="2851"/>
-      <c r="HR6" s="2852"/>
-      <c r="HS6" s="2853"/>
-      <c r="HT6" s="2854"/>
-      <c r="HU6" s="2855"/>
-      <c r="HV6" s="2856"/>
-      <c r="HW6" t="s" s="2857">
-        <v>60</v>
-      </c>
-      <c r="HX6" s="2858"/>
-      <c r="HY6" s="2859"/>
-      <c r="HZ6" s="2860"/>
-      <c r="IA6" s="2861"/>
-      <c r="IB6" s="2862"/>
-      <c r="IC6" s="2863"/>
-      <c r="ID6" s="2864"/>
-      <c r="IE6" s="2865"/>
-      <c r="IF6" s="2866"/>
-      <c r="IG6" s="2867"/>
-      <c r="IH6" s="2868"/>
-      <c r="II6" t="s" s="2869">
-        <v>60</v>
-      </c>
-      <c r="IJ6" s="2870"/>
-      <c r="IK6" s="2871"/>
-      <c r="IL6" s="2872"/>
-      <c r="IM6" s="2873"/>
-      <c r="IN6" s="2874"/>
-      <c r="IO6" s="2875"/>
-      <c r="IP6" s="2876"/>
-      <c r="IQ6" s="2877"/>
-      <c r="IR6" s="2878"/>
-      <c r="IS6" s="2879"/>
-      <c r="IT6" s="2880"/>
-      <c r="IU6" t="s" s="2881">
-        <v>60</v>
-      </c>
-      <c r="IV6" s="2882"/>
-      <c r="IW6" s="2883"/>
-      <c r="IX6" s="2884"/>
-      <c r="IY6" s="2885"/>
-      <c r="IZ6" s="2886"/>
-      <c r="JA6" s="2887"/>
-      <c r="JB6" s="2888"/>
-      <c r="JC6" s="2889"/>
-      <c r="JD6" s="2890"/>
-      <c r="JE6" s="2891"/>
-      <c r="JF6" s="2892"/>
-      <c r="JG6" t="s" s="2893">
-        <v>60</v>
-      </c>
-      <c r="JH6" s="2894"/>
-      <c r="JI6" s="2895"/>
-      <c r="JJ6" s="2896"/>
-      <c r="JK6" s="2897"/>
-      <c r="JL6" s="2898"/>
-      <c r="JM6" s="2899"/>
-      <c r="JN6" s="2900"/>
-      <c r="JO6" s="2901"/>
-      <c r="JP6" s="2902"/>
-      <c r="JQ6" s="2903"/>
-      <c r="JR6" s="2904"/>
-      <c r="JS6" t="s" s="2905">
-        <v>60</v>
-      </c>
-      <c r="JT6" s="2906"/>
-      <c r="JU6" s="2907"/>
-      <c r="JV6" s="2908"/>
-      <c r="JW6" s="2909"/>
-      <c r="JX6" s="2910"/>
-      <c r="JY6" s="2911"/>
-      <c r="JZ6" s="2912"/>
-      <c r="KA6" s="2913"/>
-      <c r="KB6" s="2914"/>
-      <c r="KC6" s="2915"/>
-      <c r="KD6" s="2916"/>
-      <c r="KE6" t="s" s="2917">
-        <v>60</v>
-      </c>
-      <c r="KF6" s="2918"/>
-      <c r="KG6" s="2919"/>
-      <c r="KH6" s="2920"/>
-      <c r="KI6" s="2921"/>
-      <c r="KJ6" s="2922"/>
-      <c r="KK6" s="2923"/>
-      <c r="KL6" s="2924"/>
-      <c r="KM6" s="2925"/>
-      <c r="KN6" s="2926"/>
-      <c r="KO6" s="2927"/>
-      <c r="KP6" s="2928"/>
-      <c r="KQ6" t="s" s="2929">
-        <v>60</v>
-      </c>
-      <c r="KR6" s="2930"/>
-      <c r="KS6" s="2931"/>
-      <c r="KT6" s="2932"/>
-      <c r="KU6" s="2933"/>
-      <c r="KV6" s="2934"/>
-      <c r="KW6" s="2935"/>
-      <c r="KX6" s="2936"/>
-      <c r="KY6" s="2937"/>
-      <c r="KZ6" s="2938"/>
-      <c r="LA6" s="2939"/>
-      <c r="LB6" s="2940"/>
-      <c r="LC6" t="s" s="2941">
-        <v>60</v>
-      </c>
-      <c r="LD6" s="2942"/>
-      <c r="LE6" s="2943"/>
-      <c r="LF6" s="2944"/>
-      <c r="LG6" s="2945"/>
-      <c r="LH6" s="2946"/>
-      <c r="LI6" s="2947"/>
-      <c r="LJ6" s="2948"/>
-      <c r="LK6" s="2949"/>
-      <c r="LL6" s="2950"/>
-      <c r="LM6" s="2951"/>
-      <c r="LN6" s="2952"/>
-      <c r="LO6" t="s" s="2953">
-        <v>60</v>
-      </c>
-      <c r="LP6" s="2954"/>
-      <c r="LQ6" s="2955"/>
-      <c r="LR6" s="2956"/>
-      <c r="LS6" s="2957"/>
-      <c r="LT6" s="2958"/>
-      <c r="LU6" s="2959"/>
-      <c r="LV6" s="2960"/>
-      <c r="LW6" s="2961"/>
-      <c r="LX6" s="2962"/>
-      <c r="LY6" s="2963"/>
-      <c r="LZ6" s="2964"/>
-      <c r="MA6" t="s" s="2965">
-        <v>60</v>
-      </c>
-      <c r="MB6" s="2966"/>
-      <c r="MC6" s="2967"/>
-      <c r="MD6" s="2968"/>
-      <c r="ME6" s="2969"/>
-      <c r="MF6" s="2970"/>
-      <c r="MG6" s="2971"/>
-      <c r="MH6" s="2972"/>
-      <c r="MI6" s="2973"/>
-      <c r="MJ6" s="2974"/>
-      <c r="MK6" s="2975"/>
-      <c r="ML6" s="2976"/>
-      <c r="MM6" t="s" s="2977">
-        <v>60</v>
-      </c>
-      <c r="MN6" s="2978"/>
-      <c r="MO6" s="2979"/>
-      <c r="MP6" s="2980"/>
-      <c r="MQ6" s="2981"/>
-      <c r="MR6" s="2982"/>
-      <c r="MS6" s="2983"/>
-      <c r="MT6" s="2984"/>
-      <c r="MU6" s="2985"/>
-      <c r="MV6" s="2986"/>
-      <c r="MW6" s="2987"/>
-      <c r="MX6" s="2988"/>
-      <c r="MY6" t="s" s="2989">
-        <v>60</v>
-      </c>
-      <c r="MZ6" s="2990"/>
-      <c r="NA6" s="2991"/>
-      <c r="NB6" s="2992"/>
-      <c r="NC6" s="2993"/>
-      <c r="ND6" s="2994"/>
-      <c r="NE6" s="2995"/>
-      <c r="NF6" s="2996"/>
-      <c r="NG6" s="2997"/>
-      <c r="NH6" s="2998"/>
-      <c r="NI6" s="2999"/>
-      <c r="NJ6" s="3000"/>
-      <c r="NK6" t="s" s="3001">
-        <v>60</v>
-      </c>
-      <c r="NL6" s="3002"/>
-      <c r="NM6" s="3003"/>
-      <c r="NN6" s="3004"/>
-      <c r="NO6" s="3005"/>
-      <c r="NP6" s="3006"/>
-      <c r="NQ6" s="3007"/>
-      <c r="NR6" s="3008"/>
-      <c r="NS6" s="3009"/>
-      <c r="NT6" s="3010"/>
-      <c r="NU6" s="3011"/>
-      <c r="NV6" s="3012"/>
-      <c r="NW6" t="s" s="3013">
-        <v>60</v>
-      </c>
-      <c r="NX6" s="3014"/>
-      <c r="NY6" s="3015"/>
-      <c r="NZ6" s="3016"/>
-      <c r="OA6" s="3017"/>
-      <c r="OB6" s="3018"/>
-      <c r="OC6" s="3019"/>
-      <c r="OD6" s="3020"/>
-      <c r="OE6" s="3021"/>
-      <c r="OF6" s="3022"/>
-      <c r="OG6" s="3023"/>
-      <c r="OH6" s="3024"/>
-      <c r="OI6" t="s" s="3025">
-        <v>60</v>
-      </c>
-      <c r="OJ6" s="3026"/>
-      <c r="OK6" s="3027"/>
-      <c r="OL6" s="3028"/>
-      <c r="OM6" s="3029"/>
-      <c r="ON6" s="3030"/>
-      <c r="OO6" s="3031"/>
-      <c r="OP6" s="3032"/>
-      <c r="OQ6" s="3033"/>
-      <c r="OR6" s="3034"/>
-      <c r="OS6" s="3035"/>
-      <c r="OT6" s="3036"/>
-      <c r="OU6" t="s" s="3037">
-        <v>60</v>
-      </c>
-      <c r="OV6" s="3038"/>
-      <c r="OW6" s="3039"/>
-      <c r="OX6" s="3040"/>
-      <c r="OY6" s="3041"/>
-      <c r="OZ6" s="3042"/>
-      <c r="PA6" s="3043"/>
-      <c r="PB6" s="3044"/>
-      <c r="PC6" s="3045"/>
-      <c r="PD6" s="3046"/>
-      <c r="PE6" s="3047"/>
-      <c r="PF6" s="3048"/>
-      <c r="PG6" t="s" s="3049">
-        <v>60</v>
-      </c>
-      <c r="PH6" s="3050"/>
-      <c r="PI6" s="3051"/>
-      <c r="PJ6" s="3052"/>
-      <c r="PK6" s="3053"/>
-      <c r="PL6" s="3054"/>
-      <c r="PM6" s="3055"/>
-      <c r="PN6" s="3056"/>
-      <c r="PO6" s="3057"/>
-      <c r="PP6" s="3058"/>
-      <c r="PQ6" s="3059"/>
-      <c r="PR6" s="3060"/>
-      <c r="PS6" t="s" s="3061">
-        <v>60</v>
-      </c>
-      <c r="PT6" s="3062"/>
-      <c r="PU6" s="3063"/>
-      <c r="PV6" s="3064"/>
-      <c r="PW6" s="3065"/>
-      <c r="PX6" s="3066"/>
-      <c r="PY6" s="3067"/>
-      <c r="PZ6" s="3068"/>
-      <c r="QA6" s="3069"/>
-      <c r="QB6" s="3070"/>
-      <c r="QC6" s="3071"/>
-      <c r="QD6" s="3072"/>
-      <c r="QE6" t="s" s="3073">
-        <v>60</v>
-      </c>
-      <c r="QF6" s="3074"/>
-      <c r="QG6" s="3075"/>
-      <c r="QH6" s="3076"/>
-      <c r="QI6" s="3077"/>
-      <c r="QJ6" s="3078"/>
-      <c r="QK6" s="3079"/>
-      <c r="QL6" s="3080"/>
-      <c r="QM6" s="3081"/>
-      <c r="QN6" s="3082"/>
-      <c r="QO6" s="3083"/>
-      <c r="QP6" s="3084"/>
-      <c r="QQ6" t="s" s="3085">
-        <v>60</v>
-      </c>
-      <c r="QR6" s="3086"/>
-      <c r="QS6" s="3087"/>
-      <c r="QT6" s="3088"/>
-      <c r="QU6" s="3089"/>
-      <c r="QV6" s="3090"/>
-      <c r="QW6" s="3091"/>
-      <c r="QX6" s="3092"/>
-      <c r="QY6" s="3093"/>
-      <c r="QZ6" s="3094"/>
-      <c r="RA6" s="3095"/>
-      <c r="RB6" s="3096"/>
-      <c r="RC6" t="s" s="3097">
-        <v>60</v>
-      </c>
-      <c r="RD6" s="3098"/>
-      <c r="RE6" s="3099"/>
-      <c r="RF6" s="3100"/>
-      <c r="RG6" s="3101"/>
-      <c r="RH6" s="3102"/>
-      <c r="RI6" s="3103"/>
-      <c r="RJ6" s="3104"/>
-      <c r="RK6" s="3105"/>
-      <c r="RL6" s="3106"/>
-      <c r="RM6" s="3107"/>
-      <c r="RN6" s="3108"/>
-      <c r="RO6" t="s" s="3109">
-        <v>60</v>
-      </c>
-      <c r="RP6" s="3110"/>
-      <c r="RQ6" s="3111"/>
-      <c r="RR6" s="3112"/>
-      <c r="RS6" s="3113"/>
-      <c r="RT6" s="3114"/>
-      <c r="RU6" s="3115"/>
-      <c r="RV6" s="3116"/>
-      <c r="RW6" s="3117"/>
-      <c r="RX6" s="3118"/>
-      <c r="RY6" s="3119"/>
-      <c r="RZ6" s="3120"/>
-      <c r="SA6" t="s" s="3121">
-        <v>60</v>
-      </c>
-      <c r="SB6" s="3122"/>
-      <c r="SC6" s="3123"/>
-      <c r="SD6" s="3124"/>
-      <c r="SE6" s="3125"/>
-      <c r="SF6" s="3126"/>
-      <c r="SG6" s="3127"/>
-      <c r="SH6" s="3128"/>
-      <c r="SI6" s="3129"/>
-      <c r="SJ6" s="3130"/>
-      <c r="SK6" s="3131"/>
-      <c r="SL6" s="3132"/>
-      <c r="SM6" t="s" s="3133">
-        <v>60</v>
-      </c>
-      <c r="SN6" s="3134"/>
-      <c r="SO6" s="3135"/>
-      <c r="SP6" s="3136"/>
-      <c r="SQ6" s="3137"/>
-      <c r="SR6" s="3138"/>
-      <c r="SS6" s="3139"/>
-      <c r="ST6" s="3140"/>
-      <c r="SU6" s="3141"/>
-      <c r="SV6" s="3142"/>
-      <c r="SW6" s="3143"/>
-      <c r="SX6" s="3144"/>
-      <c r="SY6" t="s" s="3145">
-        <v>60</v>
-      </c>
-      <c r="SZ6" s="3146"/>
-      <c r="TA6" s="3147"/>
-      <c r="TB6" s="3148"/>
-      <c r="TC6" s="3149"/>
-      <c r="TD6" s="3150"/>
-      <c r="TE6" s="3151"/>
-      <c r="TF6" s="3152"/>
-      <c r="TG6" s="3153"/>
-      <c r="TH6" s="3154"/>
-      <c r="TI6" s="3155"/>
-      <c r="TJ6" s="3156"/>
-      <c r="TK6" t="s" s="3157">
-        <v>60</v>
-      </c>
-      <c r="TL6" s="3158"/>
-      <c r="TM6" s="3159"/>
-      <c r="TN6" s="3160"/>
-      <c r="TO6" s="3161"/>
-      <c r="TP6" s="3162"/>
-      <c r="TQ6" s="3163"/>
-      <c r="TR6" s="3164"/>
-      <c r="TS6" s="3165"/>
-      <c r="TT6" s="3166"/>
-      <c r="TU6" s="3167"/>
-      <c r="TV6" s="3168"/>
-      <c r="TW6" t="s" s="3169">
-        <v>60</v>
-      </c>
-      <c r="TX6" s="3170"/>
-      <c r="TY6" s="3171"/>
-      <c r="TZ6" s="3172"/>
-      <c r="UA6" s="3173"/>
-      <c r="UB6" s="3174"/>
-      <c r="UC6" s="3175"/>
-      <c r="UD6" s="3176"/>
-      <c r="UE6" s="3177"/>
-      <c r="UF6" s="3178"/>
-      <c r="UG6" s="3179"/>
-      <c r="UH6" s="3180"/>
-      <c r="UI6" t="s" s="3181">
-        <v>60</v>
-      </c>
-      <c r="UJ6" s="3182"/>
-      <c r="UK6" s="3183"/>
-      <c r="UL6" s="3184"/>
-      <c r="UM6" s="3185"/>
-      <c r="UN6" s="3186"/>
-      <c r="UO6" s="3187"/>
-      <c r="UP6" s="3188"/>
-      <c r="UQ6" s="3189"/>
-      <c r="UR6" s="3190"/>
-      <c r="US6" s="3191"/>
-      <c r="UT6" s="3192"/>
-      <c r="UU6" t="s" s="3193">
-        <v>60</v>
-      </c>
-      <c r="UV6" s="3194"/>
-      <c r="UW6" s="3195"/>
-      <c r="UX6" s="3196"/>
-      <c r="UY6" s="3197"/>
-      <c r="UZ6" s="3198"/>
-      <c r="VA6" s="3199"/>
-      <c r="VB6" s="3200"/>
-      <c r="VC6" s="3201"/>
-      <c r="VD6" s="3202"/>
-      <c r="VE6" s="3203"/>
-      <c r="VF6" s="3204"/>
-      <c r="VG6" t="s" s="3205">
-        <v>60</v>
-      </c>
-      <c r="VH6" s="3206"/>
-      <c r="VI6" s="3207"/>
-      <c r="VJ6" s="3208"/>
-      <c r="VK6" s="3209"/>
-      <c r="VL6" s="3210"/>
-      <c r="VM6" s="3211"/>
-      <c r="VN6" s="3212"/>
-      <c r="VO6" s="3213"/>
-      <c r="VP6" s="3214"/>
-      <c r="VQ6" s="3215"/>
-      <c r="VR6" s="3216"/>
-      <c r="VS6" t="s" s="3217">
-        <v>60</v>
-      </c>
-      <c r="VT6" s="3218"/>
-      <c r="VU6" s="3219"/>
-      <c r="VV6" s="3220"/>
-      <c r="VW6" s="3221"/>
-      <c r="VX6" s="3222"/>
-      <c r="VY6" s="3223"/>
-      <c r="VZ6" s="3224"/>
-      <c r="WA6" s="3225"/>
-      <c r="WB6" s="3226"/>
-      <c r="WC6" s="3227"/>
-      <c r="WD6" s="3228"/>
-      <c r="WE6" t="s" s="3229">
-        <v>60</v>
-      </c>
-      <c r="WF6" s="3230"/>
-      <c r="WG6" s="3231"/>
-      <c r="WH6" s="3232"/>
-      <c r="WI6" s="3233"/>
-      <c r="WJ6" s="3234"/>
-      <c r="WK6" s="3235"/>
-      <c r="WL6" s="3236"/>
-      <c r="WM6" s="3237"/>
-      <c r="WN6" s="3238"/>
-      <c r="WO6" s="3239"/>
-      <c r="WP6" s="3240"/>
-      <c r="WQ6" t="s" s="3241">
-        <v>60</v>
-      </c>
-      <c r="WR6" s="3242"/>
-      <c r="WS6" s="3243"/>
-      <c r="WT6" s="3244"/>
-      <c r="WU6" s="3245"/>
-      <c r="WV6" s="3246"/>
-      <c r="WW6" s="3247"/>
-      <c r="WX6" s="3248"/>
-      <c r="WY6" s="3249"/>
-      <c r="WZ6" s="3250"/>
-      <c r="XA6" s="3251"/>
-      <c r="XB6" s="3252"/>
-      <c r="XC6" t="s" s="3253">
-        <v>60</v>
-      </c>
-      <c r="XD6" s="3254"/>
-      <c r="XE6" s="3255"/>
-      <c r="XF6" s="3256"/>
-      <c r="XG6" s="3257"/>
-      <c r="XH6" s="3258"/>
-      <c r="XI6" s="3259"/>
-      <c r="XJ6" s="3260"/>
-      <c r="XK6" s="3261"/>
-      <c r="XL6" s="3262"/>
-      <c r="XM6" s="3263"/>
-      <c r="XN6" s="3264"/>
-      <c r="XO6" t="s" s="3265">
-        <v>60</v>
-      </c>
-      <c r="XP6" s="3266"/>
-      <c r="XQ6" s="3267"/>
-      <c r="XR6" s="3268"/>
-      <c r="XS6" s="3269"/>
-      <c r="XT6" s="3270"/>
-      <c r="XU6" s="3271"/>
-      <c r="XV6" s="3272"/>
-      <c r="XW6" s="3273"/>
-      <c r="XX6" s="3274"/>
-      <c r="XY6" s="3275"/>
-      <c r="XZ6" s="3276"/>
+      <c r="A6" s="2675"/>
+      <c r="B6" s="2676"/>
+      <c r="C6" t="s" s="2677">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2678"/>
+      <c r="E6" s="2679"/>
+      <c r="F6" s="2680"/>
+      <c r="G6" s="2681"/>
+      <c r="H6" s="2682"/>
+      <c r="I6" s="2683"/>
+      <c r="J6" s="2684"/>
+      <c r="K6" s="2685"/>
+      <c r="L6" s="2686"/>
+      <c r="M6" s="2687"/>
+      <c r="N6" s="2688"/>
+      <c r="O6" t="s" s="2689">
+        <v>61</v>
+      </c>
+      <c r="P6" s="2690"/>
+      <c r="Q6" s="2691"/>
+      <c r="R6" s="2692"/>
+      <c r="S6" s="2693"/>
+      <c r="T6" s="2694"/>
+      <c r="U6" s="2695"/>
+      <c r="V6" s="2696"/>
+      <c r="W6" s="2697"/>
+      <c r="X6" s="2698"/>
+      <c r="Y6" s="2699"/>
+      <c r="Z6" s="2700"/>
+      <c r="AA6" t="s" s="2701">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="2702"/>
+      <c r="AC6" s="2703"/>
+      <c r="AD6" s="2704"/>
+      <c r="AE6" s="2705"/>
+      <c r="AF6" s="2706"/>
+      <c r="AG6" s="2707"/>
+      <c r="AH6" s="2708"/>
+      <c r="AI6" s="2709"/>
+      <c r="AJ6" s="2710"/>
+      <c r="AK6" s="2711"/>
+      <c r="AL6" s="2712"/>
+      <c r="AM6" t="s" s="2713">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="2714"/>
+      <c r="AO6" s="2715"/>
+      <c r="AP6" s="2716"/>
+      <c r="AQ6" s="2717"/>
+      <c r="AR6" s="2718"/>
+      <c r="AS6" s="2719"/>
+      <c r="AT6" s="2720"/>
+      <c r="AU6" s="2721"/>
+      <c r="AV6" s="2722"/>
+      <c r="AW6" s="2723"/>
+      <c r="AX6" s="2724"/>
+      <c r="AY6" t="s" s="2725">
+        <v>61</v>
+      </c>
+      <c r="AZ6" s="2726"/>
+      <c r="BA6" s="2727"/>
+      <c r="BB6" s="2728"/>
+      <c r="BC6" s="2729"/>
+      <c r="BD6" s="2730"/>
+      <c r="BE6" s="2731"/>
+      <c r="BF6" s="2732"/>
+      <c r="BG6" s="2733"/>
+      <c r="BH6" s="2734"/>
+      <c r="BI6" s="2735"/>
+      <c r="BJ6" s="2736"/>
+      <c r="BK6" t="s" s="2737">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="2738"/>
+      <c r="BM6" s="2739"/>
+      <c r="BN6" s="2740"/>
+      <c r="BO6" s="2741"/>
+      <c r="BP6" s="2742"/>
+      <c r="BQ6" s="2743"/>
+      <c r="BR6" s="2744"/>
+      <c r="BS6" s="2745"/>
+      <c r="BT6" s="2746"/>
+      <c r="BU6" s="2747"/>
+      <c r="BV6" s="2748"/>
+      <c r="BW6" t="s" s="2749">
+        <v>61</v>
+      </c>
+      <c r="BX6" s="2750"/>
+      <c r="BY6" s="2751"/>
+      <c r="BZ6" s="2752"/>
+      <c r="CA6" s="2753"/>
+      <c r="CB6" s="2754"/>
+      <c r="CC6" s="2755"/>
+      <c r="CD6" s="2756"/>
+      <c r="CE6" s="2757"/>
+      <c r="CF6" s="2758"/>
+      <c r="CG6" s="2759"/>
+      <c r="CH6" s="2760"/>
+      <c r="CI6" t="s" s="2761">
+        <v>61</v>
+      </c>
+      <c r="CJ6" s="2762"/>
+      <c r="CK6" s="2763"/>
+      <c r="CL6" s="2764"/>
+      <c r="CM6" s="2765"/>
+      <c r="CN6" s="2766"/>
+      <c r="CO6" s="2767"/>
+      <c r="CP6" s="2768"/>
+      <c r="CQ6" s="2769"/>
+      <c r="CR6" s="2770"/>
+      <c r="CS6" s="2771"/>
+      <c r="CT6" s="2772"/>
+      <c r="CU6" t="s" s="2773">
+        <v>61</v>
+      </c>
+      <c r="CV6" s="2774"/>
+      <c r="CW6" s="2775"/>
+      <c r="CX6" s="2776"/>
+      <c r="CY6" s="2777"/>
+      <c r="CZ6" s="2778"/>
+      <c r="DA6" s="2779"/>
+      <c r="DB6" s="2780"/>
+      <c r="DC6" s="2781"/>
+      <c r="DD6" s="2782"/>
+      <c r="DE6" s="2783"/>
+      <c r="DF6" s="2784"/>
+      <c r="DG6" t="s" s="2785">
+        <v>61</v>
+      </c>
+      <c r="DH6" s="2786"/>
+      <c r="DI6" s="2787"/>
+      <c r="DJ6" s="2788"/>
+      <c r="DK6" s="2789"/>
+      <c r="DL6" s="2790"/>
+      <c r="DM6" s="2791"/>
+      <c r="DN6" s="2792"/>
+      <c r="DO6" s="2793"/>
+      <c r="DP6" s="2794"/>
+      <c r="DQ6" s="2795"/>
+      <c r="DR6" s="2796"/>
+      <c r="DS6" t="s" s="2797">
+        <v>61</v>
+      </c>
+      <c r="DT6" s="2798"/>
+      <c r="DU6" s="2799"/>
+      <c r="DV6" s="2800"/>
+      <c r="DW6" s="2801"/>
+      <c r="DX6" s="2802"/>
+      <c r="DY6" s="2803"/>
+      <c r="DZ6" s="2804"/>
+      <c r="EA6" s="2805"/>
+      <c r="EB6" s="2806"/>
+      <c r="EC6" s="2807"/>
+      <c r="ED6" s="2808"/>
+      <c r="EE6" t="s" s="2809">
+        <v>61</v>
+      </c>
+      <c r="EF6" s="2810"/>
+      <c r="EG6" s="2811"/>
+      <c r="EH6" s="2812"/>
+      <c r="EI6" s="2813"/>
+      <c r="EJ6" s="2814"/>
+      <c r="EK6" s="2815"/>
+      <c r="EL6" s="2816"/>
+      <c r="EM6" s="2817"/>
+      <c r="EN6" s="2818"/>
+      <c r="EO6" s="2819"/>
+      <c r="EP6" s="2820"/>
+      <c r="EQ6" t="s" s="2821">
+        <v>61</v>
+      </c>
+      <c r="ER6" s="2822"/>
+      <c r="ES6" s="2823"/>
+      <c r="ET6" s="2824"/>
+      <c r="EU6" s="2825"/>
+      <c r="EV6" s="2826"/>
+      <c r="EW6" s="2827"/>
+      <c r="EX6" s="2828"/>
+      <c r="EY6" s="2829"/>
+      <c r="EZ6" s="2830"/>
+      <c r="FA6" s="2831"/>
+      <c r="FB6" s="2832"/>
+      <c r="FC6" t="s" s="2833">
+        <v>61</v>
+      </c>
+      <c r="FD6" s="2834"/>
+      <c r="FE6" s="2835"/>
+      <c r="FF6" s="2836"/>
+      <c r="FG6" s="2837"/>
+      <c r="FH6" s="2838"/>
+      <c r="FI6" s="2839"/>
+      <c r="FJ6" s="2840"/>
+      <c r="FK6" s="2841"/>
+      <c r="FL6" s="2842"/>
+      <c r="FM6" s="2843"/>
+      <c r="FN6" s="2844"/>
+      <c r="FO6" t="s" s="2845">
+        <v>61</v>
+      </c>
+      <c r="FP6" s="2846"/>
+      <c r="FQ6" s="2847"/>
+      <c r="FR6" s="2848"/>
+      <c r="FS6" s="2849"/>
+      <c r="FT6" s="2850"/>
+      <c r="FU6" s="2851"/>
+      <c r="FV6" s="2852"/>
+      <c r="FW6" s="2853"/>
+      <c r="FX6" s="2854"/>
+      <c r="FY6" s="2855"/>
+      <c r="FZ6" s="2856"/>
+      <c r="GA6" t="s" s="2857">
+        <v>61</v>
+      </c>
+      <c r="GB6" s="2858"/>
+      <c r="GC6" s="2859"/>
+      <c r="GD6" s="2860"/>
+      <c r="GE6" s="2861"/>
+      <c r="GF6" s="2862"/>
+      <c r="GG6" s="2863"/>
+      <c r="GH6" s="2864"/>
+      <c r="GI6" s="2865"/>
+      <c r="GJ6" s="2866"/>
+      <c r="GK6" s="2867"/>
+      <c r="GL6" s="2868"/>
+      <c r="GM6" t="s" s="2869">
+        <v>61</v>
+      </c>
+      <c r="GN6" s="2870"/>
+      <c r="GO6" s="2871"/>
+      <c r="GP6" s="2872"/>
+      <c r="GQ6" s="2873"/>
+      <c r="GR6" s="2874"/>
+      <c r="GS6" s="2875"/>
+      <c r="GT6" s="2876"/>
+      <c r="GU6" s="2877"/>
+      <c r="GV6" s="2878"/>
+      <c r="GW6" s="2879"/>
+      <c r="GX6" s="2880"/>
+      <c r="GY6" t="s" s="2881">
+        <v>61</v>
+      </c>
+      <c r="GZ6" s="2882"/>
+      <c r="HA6" s="2883"/>
+      <c r="HB6" s="2884"/>
+      <c r="HC6" s="2885"/>
+      <c r="HD6" s="2886"/>
+      <c r="HE6" s="2887"/>
+      <c r="HF6" s="2888"/>
+      <c r="HG6" s="2889"/>
+      <c r="HH6" s="2890"/>
+      <c r="HI6" s="2891"/>
+      <c r="HJ6" s="2892"/>
+      <c r="HK6" t="s" s="2893">
+        <v>61</v>
+      </c>
+      <c r="HL6" s="2894"/>
+      <c r="HM6" s="2895"/>
+      <c r="HN6" s="2896"/>
+      <c r="HO6" s="2897"/>
+      <c r="HP6" s="2898"/>
+      <c r="HQ6" s="2899"/>
+      <c r="HR6" s="2900"/>
+      <c r="HS6" s="2901"/>
+      <c r="HT6" s="2902"/>
+      <c r="HU6" s="2903"/>
+      <c r="HV6" s="2904"/>
+      <c r="HW6" t="s" s="2905">
+        <v>61</v>
+      </c>
+      <c r="HX6" s="2906"/>
+      <c r="HY6" s="2907"/>
+      <c r="HZ6" s="2908"/>
+      <c r="IA6" s="2909"/>
+      <c r="IB6" s="2910"/>
+      <c r="IC6" s="2911"/>
+      <c r="ID6" s="2912"/>
+      <c r="IE6" s="2913"/>
+      <c r="IF6" s="2914"/>
+      <c r="IG6" s="2915"/>
+      <c r="IH6" s="2916"/>
+      <c r="II6" t="s" s="2917">
+        <v>61</v>
+      </c>
+      <c r="IJ6" s="2918"/>
+      <c r="IK6" s="2919"/>
+      <c r="IL6" s="2920"/>
+      <c r="IM6" s="2921"/>
+      <c r="IN6" s="2922"/>
+      <c r="IO6" s="2923"/>
+      <c r="IP6" s="2924"/>
+      <c r="IQ6" s="2925"/>
+      <c r="IR6" s="2926"/>
+      <c r="IS6" s="2927"/>
+      <c r="IT6" s="2928"/>
+      <c r="IU6" t="s" s="2929">
+        <v>61</v>
+      </c>
+      <c r="IV6" s="2930"/>
+      <c r="IW6" s="2931"/>
+      <c r="IX6" s="2932"/>
+      <c r="IY6" s="2933"/>
+      <c r="IZ6" s="2934"/>
+      <c r="JA6" s="2935"/>
+      <c r="JB6" s="2936"/>
+      <c r="JC6" s="2937"/>
+      <c r="JD6" s="2938"/>
+      <c r="JE6" s="2939"/>
+      <c r="JF6" s="2940"/>
+      <c r="JG6" t="s" s="2941">
+        <v>61</v>
+      </c>
+      <c r="JH6" s="2942"/>
+      <c r="JI6" s="2943"/>
+      <c r="JJ6" s="2944"/>
+      <c r="JK6" s="2945"/>
+      <c r="JL6" s="2946"/>
+      <c r="JM6" s="2947"/>
+      <c r="JN6" s="2948"/>
+      <c r="JO6" s="2949"/>
+      <c r="JP6" s="2950"/>
+      <c r="JQ6" s="2951"/>
+      <c r="JR6" s="2952"/>
+      <c r="JS6" t="s" s="2953">
+        <v>61</v>
+      </c>
+      <c r="JT6" s="2954"/>
+      <c r="JU6" s="2955"/>
+      <c r="JV6" s="2956"/>
+      <c r="JW6" s="2957"/>
+      <c r="JX6" s="2958"/>
+      <c r="JY6" s="2959"/>
+      <c r="JZ6" s="2960"/>
+      <c r="KA6" s="2961"/>
+      <c r="KB6" s="2962"/>
+      <c r="KC6" s="2963"/>
+      <c r="KD6" s="2964"/>
+      <c r="KE6" t="s" s="2965">
+        <v>61</v>
+      </c>
+      <c r="KF6" s="2966"/>
+      <c r="KG6" s="2967"/>
+      <c r="KH6" s="2968"/>
+      <c r="KI6" s="2969"/>
+      <c r="KJ6" s="2970"/>
+      <c r="KK6" s="2971"/>
+      <c r="KL6" s="2972"/>
+      <c r="KM6" s="2973"/>
+      <c r="KN6" s="2974"/>
+      <c r="KO6" s="2975"/>
+      <c r="KP6" s="2976"/>
+      <c r="KQ6" t="s" s="2977">
+        <v>61</v>
+      </c>
+      <c r="KR6" s="2978"/>
+      <c r="KS6" s="2979"/>
+      <c r="KT6" s="2980"/>
+      <c r="KU6" s="2981"/>
+      <c r="KV6" s="2982"/>
+      <c r="KW6" s="2983"/>
+      <c r="KX6" s="2984"/>
+      <c r="KY6" s="2985"/>
+      <c r="KZ6" s="2986"/>
+      <c r="LA6" s="2987"/>
+      <c r="LB6" s="2988"/>
+      <c r="LC6" t="s" s="2989">
+        <v>61</v>
+      </c>
+      <c r="LD6" s="2990"/>
+      <c r="LE6" s="2991"/>
+      <c r="LF6" s="2992"/>
+      <c r="LG6" s="2993"/>
+      <c r="LH6" s="2994"/>
+      <c r="LI6" s="2995"/>
+      <c r="LJ6" s="2996"/>
+      <c r="LK6" s="2997"/>
+      <c r="LL6" s="2998"/>
+      <c r="LM6" s="2999"/>
+      <c r="LN6" s="3000"/>
+      <c r="LO6" t="s" s="3001">
+        <v>61</v>
+      </c>
+      <c r="LP6" s="3002"/>
+      <c r="LQ6" s="3003"/>
+      <c r="LR6" s="3004"/>
+      <c r="LS6" s="3005"/>
+      <c r="LT6" s="3006"/>
+      <c r="LU6" s="3007"/>
+      <c r="LV6" s="3008"/>
+      <c r="LW6" s="3009"/>
+      <c r="LX6" s="3010"/>
+      <c r="LY6" s="3011"/>
+      <c r="LZ6" s="3012"/>
+      <c r="MA6" t="s" s="3013">
+        <v>61</v>
+      </c>
+      <c r="MB6" s="3014"/>
+      <c r="MC6" s="3015"/>
+      <c r="MD6" s="3016"/>
+      <c r="ME6" s="3017"/>
+      <c r="MF6" s="3018"/>
+      <c r="MG6" s="3019"/>
+      <c r="MH6" s="3020"/>
+      <c r="MI6" s="3021"/>
+      <c r="MJ6" s="3022"/>
+      <c r="MK6" s="3023"/>
+      <c r="ML6" s="3024"/>
+      <c r="MM6" t="s" s="3025">
+        <v>61</v>
+      </c>
+      <c r="MN6" s="3026"/>
+      <c r="MO6" s="3027"/>
+      <c r="MP6" s="3028"/>
+      <c r="MQ6" s="3029"/>
+      <c r="MR6" s="3030"/>
+      <c r="MS6" s="3031"/>
+      <c r="MT6" s="3032"/>
+      <c r="MU6" s="3033"/>
+      <c r="MV6" s="3034"/>
+      <c r="MW6" s="3035"/>
+      <c r="MX6" s="3036"/>
+      <c r="MY6" t="s" s="3037">
+        <v>61</v>
+      </c>
+      <c r="MZ6" s="3038"/>
+      <c r="NA6" s="3039"/>
+      <c r="NB6" s="3040"/>
+      <c r="NC6" s="3041"/>
+      <c r="ND6" s="3042"/>
+      <c r="NE6" s="3043"/>
+      <c r="NF6" s="3044"/>
+      <c r="NG6" s="3045"/>
+      <c r="NH6" s="3046"/>
+      <c r="NI6" s="3047"/>
+      <c r="NJ6" s="3048"/>
+      <c r="NK6" t="s" s="3049">
+        <v>61</v>
+      </c>
+      <c r="NL6" s="3050"/>
+      <c r="NM6" s="3051"/>
+      <c r="NN6" s="3052"/>
+      <c r="NO6" s="3053"/>
+      <c r="NP6" s="3054"/>
+      <c r="NQ6" s="3055"/>
+      <c r="NR6" s="3056"/>
+      <c r="NS6" s="3057"/>
+      <c r="NT6" s="3058"/>
+      <c r="NU6" s="3059"/>
+      <c r="NV6" s="3060"/>
+      <c r="NW6" t="s" s="3061">
+        <v>61</v>
+      </c>
+      <c r="NX6" s="3062"/>
+      <c r="NY6" s="3063"/>
+      <c r="NZ6" s="3064"/>
+      <c r="OA6" s="3065"/>
+      <c r="OB6" s="3066"/>
+      <c r="OC6" s="3067"/>
+      <c r="OD6" s="3068"/>
+      <c r="OE6" s="3069"/>
+      <c r="OF6" s="3070"/>
+      <c r="OG6" s="3071"/>
+      <c r="OH6" s="3072"/>
+      <c r="OI6" t="s" s="3073">
+        <v>61</v>
+      </c>
+      <c r="OJ6" s="3074"/>
+      <c r="OK6" s="3075"/>
+      <c r="OL6" s="3076"/>
+      <c r="OM6" s="3077"/>
+      <c r="ON6" s="3078"/>
+      <c r="OO6" s="3079"/>
+      <c r="OP6" s="3080"/>
+      <c r="OQ6" s="3081"/>
+      <c r="OR6" s="3082"/>
+      <c r="OS6" s="3083"/>
+      <c r="OT6" s="3084"/>
+      <c r="OU6" t="s" s="3085">
+        <v>61</v>
+      </c>
+      <c r="OV6" s="3086"/>
+      <c r="OW6" s="3087"/>
+      <c r="OX6" s="3088"/>
+      <c r="OY6" s="3089"/>
+      <c r="OZ6" s="3090"/>
+      <c r="PA6" s="3091"/>
+      <c r="PB6" s="3092"/>
+      <c r="PC6" s="3093"/>
+      <c r="PD6" s="3094"/>
+      <c r="PE6" s="3095"/>
+      <c r="PF6" s="3096"/>
+      <c r="PG6" t="s" s="3097">
+        <v>61</v>
+      </c>
+      <c r="PH6" s="3098"/>
+      <c r="PI6" s="3099"/>
+      <c r="PJ6" s="3100"/>
+      <c r="PK6" s="3101"/>
+      <c r="PL6" s="3102"/>
+      <c r="PM6" s="3103"/>
+      <c r="PN6" s="3104"/>
+      <c r="PO6" s="3105"/>
+      <c r="PP6" s="3106"/>
+      <c r="PQ6" s="3107"/>
+      <c r="PR6" s="3108"/>
+      <c r="PS6" t="s" s="3109">
+        <v>61</v>
+      </c>
+      <c r="PT6" s="3110"/>
+      <c r="PU6" s="3111"/>
+      <c r="PV6" s="3112"/>
+      <c r="PW6" s="3113"/>
+      <c r="PX6" s="3114"/>
+      <c r="PY6" s="3115"/>
+      <c r="PZ6" s="3116"/>
+      <c r="QA6" s="3117"/>
+      <c r="QB6" s="3118"/>
+      <c r="QC6" s="3119"/>
+      <c r="QD6" s="3120"/>
+      <c r="QE6" t="s" s="3121">
+        <v>61</v>
+      </c>
+      <c r="QF6" s="3122"/>
+      <c r="QG6" s="3123"/>
+      <c r="QH6" s="3124"/>
+      <c r="QI6" s="3125"/>
+      <c r="QJ6" s="3126"/>
+      <c r="QK6" s="3127"/>
+      <c r="QL6" s="3128"/>
+      <c r="QM6" s="3129"/>
+      <c r="QN6" s="3130"/>
+      <c r="QO6" s="3131"/>
+      <c r="QP6" s="3132"/>
+      <c r="QQ6" t="s" s="3133">
+        <v>61</v>
+      </c>
+      <c r="QR6" s="3134"/>
+      <c r="QS6" s="3135"/>
+      <c r="QT6" s="3136"/>
+      <c r="QU6" s="3137"/>
+      <c r="QV6" s="3138"/>
+      <c r="QW6" s="3139"/>
+      <c r="QX6" s="3140"/>
+      <c r="QY6" s="3141"/>
+      <c r="QZ6" s="3142"/>
+      <c r="RA6" s="3143"/>
+      <c r="RB6" s="3144"/>
+      <c r="RC6" t="s" s="3145">
+        <v>61</v>
+      </c>
+      <c r="RD6" s="3146"/>
+      <c r="RE6" s="3147"/>
+      <c r="RF6" s="3148"/>
+      <c r="RG6" s="3149"/>
+      <c r="RH6" s="3150"/>
+      <c r="RI6" s="3151"/>
+      <c r="RJ6" s="3152"/>
+      <c r="RK6" s="3153"/>
+      <c r="RL6" s="3154"/>
+      <c r="RM6" s="3155"/>
+      <c r="RN6" s="3156"/>
+      <c r="RO6" t="s" s="3157">
+        <v>61</v>
+      </c>
+      <c r="RP6" s="3158"/>
+      <c r="RQ6" s="3159"/>
+      <c r="RR6" s="3160"/>
+      <c r="RS6" s="3161"/>
+      <c r="RT6" s="3162"/>
+      <c r="RU6" s="3163"/>
+      <c r="RV6" s="3164"/>
+      <c r="RW6" s="3165"/>
+      <c r="RX6" s="3166"/>
+      <c r="RY6" s="3167"/>
+      <c r="RZ6" s="3168"/>
+      <c r="SA6" t="s" s="3169">
+        <v>61</v>
+      </c>
+      <c r="SB6" s="3170"/>
+      <c r="SC6" s="3171"/>
+      <c r="SD6" s="3172"/>
+      <c r="SE6" s="3173"/>
+      <c r="SF6" s="3174"/>
+      <c r="SG6" s="3175"/>
+      <c r="SH6" s="3176"/>
+      <c r="SI6" s="3177"/>
+      <c r="SJ6" s="3178"/>
+      <c r="SK6" s="3179"/>
+      <c r="SL6" s="3180"/>
+      <c r="SM6" t="s" s="3181">
+        <v>61</v>
+      </c>
+      <c r="SN6" s="3182"/>
+      <c r="SO6" s="3183"/>
+      <c r="SP6" s="3184"/>
+      <c r="SQ6" s="3185"/>
+      <c r="SR6" s="3186"/>
+      <c r="SS6" s="3187"/>
+      <c r="ST6" s="3188"/>
+      <c r="SU6" s="3189"/>
+      <c r="SV6" s="3190"/>
+      <c r="SW6" s="3191"/>
+      <c r="SX6" s="3192"/>
+      <c r="SY6" t="s" s="3193">
+        <v>61</v>
+      </c>
+      <c r="SZ6" s="3194"/>
+      <c r="TA6" s="3195"/>
+      <c r="TB6" s="3196"/>
+      <c r="TC6" s="3197"/>
+      <c r="TD6" s="3198"/>
+      <c r="TE6" s="3199"/>
+      <c r="TF6" s="3200"/>
+      <c r="TG6" s="3201"/>
+      <c r="TH6" s="3202"/>
+      <c r="TI6" s="3203"/>
+      <c r="TJ6" s="3204"/>
+      <c r="TK6" t="s" s="3205">
+        <v>61</v>
+      </c>
+      <c r="TL6" s="3206"/>
+      <c r="TM6" s="3207"/>
+      <c r="TN6" s="3208"/>
+      <c r="TO6" s="3209"/>
+      <c r="TP6" s="3210"/>
+      <c r="TQ6" s="3211"/>
+      <c r="TR6" s="3212"/>
+      <c r="TS6" s="3213"/>
+      <c r="TT6" s="3214"/>
+      <c r="TU6" s="3215"/>
+      <c r="TV6" s="3216"/>
+      <c r="TW6" t="s" s="3217">
+        <v>61</v>
+      </c>
+      <c r="TX6" s="3218"/>
+      <c r="TY6" s="3219"/>
+      <c r="TZ6" s="3220"/>
+      <c r="UA6" s="3221"/>
+      <c r="UB6" s="3222"/>
+      <c r="UC6" s="3223"/>
+      <c r="UD6" s="3224"/>
+      <c r="UE6" s="3225"/>
+      <c r="UF6" s="3226"/>
+      <c r="UG6" s="3227"/>
+      <c r="UH6" s="3228"/>
+      <c r="UI6" t="s" s="3229">
+        <v>61</v>
+      </c>
+      <c r="UJ6" s="3230"/>
+      <c r="UK6" s="3231"/>
+      <c r="UL6" s="3232"/>
+      <c r="UM6" s="3233"/>
+      <c r="UN6" s="3234"/>
+      <c r="UO6" s="3235"/>
+      <c r="UP6" s="3236"/>
+      <c r="UQ6" s="3237"/>
+      <c r="UR6" s="3238"/>
+      <c r="US6" s="3239"/>
+      <c r="UT6" s="3240"/>
+      <c r="UU6" t="s" s="3241">
+        <v>61</v>
+      </c>
+      <c r="UV6" s="3242"/>
+      <c r="UW6" s="3243"/>
+      <c r="UX6" s="3244"/>
+      <c r="UY6" s="3245"/>
+      <c r="UZ6" s="3246"/>
+      <c r="VA6" s="3247"/>
+      <c r="VB6" s="3248"/>
+      <c r="VC6" s="3249"/>
+      <c r="VD6" s="3250"/>
+      <c r="VE6" s="3251"/>
+      <c r="VF6" s="3252"/>
+      <c r="VG6" t="s" s="3253">
+        <v>61</v>
+      </c>
+      <c r="VH6" s="3254"/>
+      <c r="VI6" s="3255"/>
+      <c r="VJ6" s="3256"/>
+      <c r="VK6" s="3257"/>
+      <c r="VL6" s="3258"/>
+      <c r="VM6" s="3259"/>
+      <c r="VN6" s="3260"/>
+      <c r="VO6" s="3261"/>
+      <c r="VP6" s="3262"/>
+      <c r="VQ6" s="3263"/>
+      <c r="VR6" s="3264"/>
+      <c r="VS6" t="s" s="3265">
+        <v>61</v>
+      </c>
+      <c r="VT6" s="3266"/>
+      <c r="VU6" s="3267"/>
+      <c r="VV6" s="3268"/>
+      <c r="VW6" s="3269"/>
+      <c r="VX6" s="3270"/>
+      <c r="VY6" s="3271"/>
+      <c r="VZ6" s="3272"/>
+      <c r="WA6" s="3273"/>
+      <c r="WB6" s="3274"/>
+      <c r="WC6" s="3275"/>
+      <c r="WD6" s="3276"/>
+      <c r="WE6" t="s" s="3277">
+        <v>61</v>
+      </c>
+      <c r="WF6" s="3278"/>
+      <c r="WG6" s="3279"/>
+      <c r="WH6" s="3280"/>
+      <c r="WI6" s="3281"/>
+      <c r="WJ6" s="3282"/>
+      <c r="WK6" s="3283"/>
+      <c r="WL6" s="3284"/>
+      <c r="WM6" s="3285"/>
+      <c r="WN6" s="3286"/>
+      <c r="WO6" s="3287"/>
+      <c r="WP6" s="3288"/>
+      <c r="WQ6" t="s" s="3289">
+        <v>61</v>
+      </c>
+      <c r="WR6" s="3290"/>
+      <c r="WS6" s="3291"/>
+      <c r="WT6" s="3292"/>
+      <c r="WU6" s="3293"/>
+      <c r="WV6" s="3294"/>
+      <c r="WW6" s="3295"/>
+      <c r="WX6" s="3296"/>
+      <c r="WY6" s="3297"/>
+      <c r="WZ6" s="3298"/>
+      <c r="XA6" s="3299"/>
+      <c r="XB6" s="3300"/>
+      <c r="XC6" t="s" s="3301">
+        <v>61</v>
+      </c>
+      <c r="XD6" s="3302"/>
+      <c r="XE6" s="3303"/>
+      <c r="XF6" s="3304"/>
+      <c r="XG6" s="3305"/>
+      <c r="XH6" s="3306"/>
+      <c r="XI6" s="3307"/>
+      <c r="XJ6" s="3308"/>
+      <c r="XK6" s="3309"/>
+      <c r="XL6" s="3310"/>
+      <c r="XM6" s="3311"/>
+      <c r="XN6" s="3312"/>
+      <c r="XO6" t="s" s="3313">
+        <v>61</v>
+      </c>
+      <c r="XP6" s="3314"/>
+      <c r="XQ6" s="3315"/>
+      <c r="XR6" s="3316"/>
+      <c r="XS6" s="3317"/>
+      <c r="XT6" s="3318"/>
+      <c r="XU6" s="3319"/>
+      <c r="XV6" s="3320"/>
+      <c r="XW6" s="3321"/>
+      <c r="XX6" s="3322"/>
+      <c r="XY6" s="3323"/>
+      <c r="XZ6" s="3324"/>
+      <c r="YA6" t="s" s="3325">
+        <v>61</v>
+      </c>
+      <c r="YB6" s="3326"/>
+      <c r="YC6" s="3327"/>
+      <c r="YD6" s="3328"/>
+      <c r="YE6" s="3329"/>
+      <c r="YF6" s="3330"/>
+      <c r="YG6" s="3331"/>
+      <c r="YH6" s="3332"/>
+      <c r="YI6" s="3333"/>
+      <c r="YJ6" s="3334"/>
+      <c r="YK6" s="3335"/>
+      <c r="YL6" s="3336"/>
     </row>
     <row r="7">
-      <c r="A7" s="3277"/>
-      <c r="B7" s="3278"/>
-      <c r="C7" t="s" s="3279">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s" s="3280">
+      <c r="A7" s="3337"/>
+      <c r="B7" s="3338"/>
+      <c r="C7" t="s" s="3339">
         <v>62</v>
       </c>
-      <c r="E7" t="s" s="3281">
+      <c r="D7" t="s" s="3340">
         <v>63</v>
       </c>
-      <c r="F7" t="s" s="3282">
+      <c r="E7" t="s" s="3341">
         <v>64</v>
       </c>
-      <c r="G7" t="s" s="3283">
+      <c r="F7" t="s" s="3342">
         <v>65</v>
       </c>
-      <c r="H7" t="s" s="3284">
+      <c r="G7" t="s" s="3343">
         <v>66</v>
       </c>
-      <c r="I7" t="s" s="3285">
+      <c r="H7" t="s" s="3344">
         <v>67</v>
       </c>
-      <c r="J7" t="s" s="3286">
+      <c r="I7" t="s" s="3345">
         <v>68</v>
       </c>
-      <c r="K7" t="s" s="3287">
+      <c r="J7" t="s" s="3346">
         <v>69</v>
       </c>
-      <c r="L7" t="s" s="3288">
+      <c r="K7" t="s" s="3347">
         <v>70</v>
       </c>
-      <c r="M7" t="s" s="3289">
+      <c r="L7" t="s" s="3348">
         <v>71</v>
       </c>
-      <c r="N7" t="s" s="3290">
+      <c r="M7" t="s" s="3349">
         <v>72</v>
       </c>
-      <c r="O7" t="s" s="3291">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s" s="3292">
+      <c r="N7" t="s" s="3350">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s" s="3351">
         <v>62</v>
       </c>
-      <c r="Q7" t="s" s="3293">
+      <c r="P7" t="s" s="3352">
         <v>63</v>
       </c>
-      <c r="R7" t="s" s="3294">
+      <c r="Q7" t="s" s="3353">
         <v>64</v>
       </c>
-      <c r="S7" t="s" s="3295">
+      <c r="R7" t="s" s="3354">
         <v>65</v>
       </c>
-      <c r="T7" t="s" s="3296">
+      <c r="S7" t="s" s="3355">
         <v>66</v>
       </c>
-      <c r="U7" t="s" s="3297">
+      <c r="T7" t="s" s="3356">
         <v>67</v>
       </c>
-      <c r="V7" t="s" s="3298">
+      <c r="U7" t="s" s="3357">
         <v>68</v>
       </c>
-      <c r="W7" t="s" s="3299">
+      <c r="V7" t="s" s="3358">
         <v>69</v>
       </c>
-      <c r="X7" t="s" s="3300">
+      <c r="W7" t="s" s="3359">
         <v>70</v>
       </c>
-      <c r="Y7" t="s" s="3301">
+      <c r="X7" t="s" s="3360">
         <v>71</v>
       </c>
-      <c r="Z7" t="s" s="3302">
+      <c r="Y7" t="s" s="3361">
         <v>72</v>
       </c>
-      <c r="AA7" t="s" s="3303">
-        <v>61</v>
-      </c>
-      <c r="AB7" t="s" s="3304">
+      <c r="Z7" t="s" s="3362">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s" s="3363">
         <v>62</v>
       </c>
-      <c r="AC7" t="s" s="3305">
+      <c r="AB7" t="s" s="3364">
         <v>63</v>
       </c>
-      <c r="AD7" t="s" s="3306">
+      <c r="AC7" t="s" s="3365">
         <v>64</v>
       </c>
-      <c r="AE7" t="s" s="3307">
+      <c r="AD7" t="s" s="3366">
         <v>65</v>
       </c>
-      <c r="AF7" t="s" s="3308">
+      <c r="AE7" t="s" s="3367">
         <v>66</v>
       </c>
-      <c r="AG7" t="s" s="3309">
+      <c r="AF7" t="s" s="3368">
         <v>67</v>
       </c>
-      <c r="AH7" t="s" s="3310">
+      <c r="AG7" t="s" s="3369">
         <v>68</v>
       </c>
-      <c r="AI7" t="s" s="3311">
+      <c r="AH7" t="s" s="3370">
         <v>69</v>
       </c>
-      <c r="AJ7" t="s" s="3312">
+      <c r="AI7" t="s" s="3371">
         <v>70</v>
       </c>
-      <c r="AK7" t="s" s="3313">
+      <c r="AJ7" t="s" s="3372">
         <v>71</v>
       </c>
-      <c r="AL7" t="s" s="3314">
+      <c r="AK7" t="s" s="3373">
         <v>72</v>
       </c>
-      <c r="AM7" t="s" s="3315">
-        <v>61</v>
-      </c>
-      <c r="AN7" t="s" s="3316">
+      <c r="AL7" t="s" s="3374">
+        <v>73</v>
+      </c>
+      <c r="AM7" t="s" s="3375">
         <v>62</v>
       </c>
-      <c r="AO7" t="s" s="3317">
+      <c r="AN7" t="s" s="3376">
         <v>63</v>
       </c>
-      <c r="AP7" t="s" s="3318">
+      <c r="AO7" t="s" s="3377">
         <v>64</v>
       </c>
-      <c r="AQ7" t="s" s="3319">
+      <c r="AP7" t="s" s="3378">
         <v>65</v>
       </c>
-      <c r="AR7" t="s" s="3320">
+      <c r="AQ7" t="s" s="3379">
         <v>66</v>
       </c>
-      <c r="AS7" t="s" s="3321">
+      <c r="AR7" t="s" s="3380">
         <v>67</v>
       </c>
-      <c r="AT7" t="s" s="3322">
+      <c r="AS7" t="s" s="3381">
         <v>68</v>
       </c>
-      <c r="AU7" t="s" s="3323">
+      <c r="AT7" t="s" s="3382">
         <v>69</v>
       </c>
-      <c r="AV7" t="s" s="3324">
+      <c r="AU7" t="s" s="3383">
         <v>70</v>
       </c>
-      <c r="AW7" t="s" s="3325">
+      <c r="AV7" t="s" s="3384">
         <v>71</v>
       </c>
-      <c r="AX7" t="s" s="3326">
+      <c r="AW7" t="s" s="3385">
         <v>72</v>
       </c>
-      <c r="AY7" t="s" s="3327">
-        <v>61</v>
-      </c>
-      <c r="AZ7" t="s" s="3328">
+      <c r="AX7" t="s" s="3386">
+        <v>73</v>
+      </c>
+      <c r="AY7" t="s" s="3387">
         <v>62</v>
       </c>
-      <c r="BA7" t="s" s="3329">
+      <c r="AZ7" t="s" s="3388">
         <v>63</v>
       </c>
-      <c r="BB7" t="s" s="3330">
+      <c r="BA7" t="s" s="3389">
         <v>64</v>
       </c>
-      <c r="BC7" t="s" s="3331">
+      <c r="BB7" t="s" s="3390">
         <v>65</v>
       </c>
-      <c r="BD7" t="s" s="3332">
+      <c r="BC7" t="s" s="3391">
         <v>66</v>
       </c>
-      <c r="BE7" t="s" s="3333">
+      <c r="BD7" t="s" s="3392">
         <v>67</v>
       </c>
-      <c r="BF7" t="s" s="3334">
+      <c r="BE7" t="s" s="3393">
         <v>68</v>
       </c>
-      <c r="BG7" t="s" s="3335">
+      <c r="BF7" t="s" s="3394">
         <v>69</v>
       </c>
-      <c r="BH7" t="s" s="3336">
+      <c r="BG7" t="s" s="3395">
         <v>70</v>
       </c>
-      <c r="BI7" t="s" s="3337">
+      <c r="BH7" t="s" s="3396">
         <v>71</v>
       </c>
-      <c r="BJ7" t="s" s="3338">
+      <c r="BI7" t="s" s="3397">
         <v>72</v>
       </c>
-      <c r="BK7" t="s" s="3339">
-        <v>61</v>
-      </c>
-      <c r="BL7" t="s" s="3340">
+      <c r="BJ7" t="s" s="3398">
+        <v>73</v>
+      </c>
+      <c r="BK7" t="s" s="3399">
         <v>62</v>
       </c>
-      <c r="BM7" t="s" s="3341">
+      <c r="BL7" t="s" s="3400">
         <v>63</v>
       </c>
-      <c r="BN7" t="s" s="3342">
+      <c r="BM7" t="s" s="3401">
         <v>64</v>
       </c>
-      <c r="BO7" t="s" s="3343">
+      <c r="BN7" t="s" s="3402">
         <v>65</v>
       </c>
-      <c r="BP7" t="s" s="3344">
+      <c r="BO7" t="s" s="3403">
         <v>66</v>
       </c>
-      <c r="BQ7" t="s" s="3345">
+      <c r="BP7" t="s" s="3404">
         <v>67</v>
       </c>
-      <c r="BR7" t="s" s="3346">
+      <c r="BQ7" t="s" s="3405">
         <v>68</v>
       </c>
-      <c r="BS7" t="s" s="3347">
+      <c r="BR7" t="s" s="3406">
         <v>69</v>
       </c>
-      <c r="BT7" t="s" s="3348">
+      <c r="BS7" t="s" s="3407">
         <v>70</v>
       </c>
-      <c r="BU7" t="s" s="3349">
+      <c r="BT7" t="s" s="3408">
         <v>71</v>
       </c>
-      <c r="BV7" t="s" s="3350">
+      <c r="BU7" t="s" s="3409">
         <v>72</v>
       </c>
-      <c r="BW7" t="s" s="3351">
-        <v>61</v>
-      </c>
-      <c r="BX7" t="s" s="3352">
+      <c r="BV7" t="s" s="3410">
+        <v>73</v>
+      </c>
+      <c r="BW7" t="s" s="3411">
         <v>62</v>
       </c>
-      <c r="BY7" t="s" s="3353">
+      <c r="BX7" t="s" s="3412">
         <v>63</v>
       </c>
-      <c r="BZ7" t="s" s="3354">
+      <c r="BY7" t="s" s="3413">
         <v>64</v>
       </c>
-      <c r="CA7" t="s" s="3355">
+      <c r="BZ7" t="s" s="3414">
         <v>65</v>
       </c>
-      <c r="CB7" t="s" s="3356">
+      <c r="CA7" t="s" s="3415">
         <v>66</v>
       </c>
-      <c r="CC7" t="s" s="3357">
+      <c r="CB7" t="s" s="3416">
         <v>67</v>
       </c>
-      <c r="CD7" t="s" s="3358">
+      <c r="CC7" t="s" s="3417">
         <v>68</v>
       </c>
-      <c r="CE7" t="s" s="3359">
+      <c r="CD7" t="s" s="3418">
         <v>69</v>
       </c>
-      <c r="CF7" t="s" s="3360">
+      <c r="CE7" t="s" s="3419">
         <v>70</v>
       </c>
-      <c r="CG7" t="s" s="3361">
+      <c r="CF7" t="s" s="3420">
         <v>71</v>
       </c>
-      <c r="CH7" t="s" s="3362">
+      <c r="CG7" t="s" s="3421">
         <v>72</v>
       </c>
-      <c r="CI7" t="s" s="3363">
-        <v>61</v>
-      </c>
-      <c r="CJ7" t="s" s="3364">
+      <c r="CH7" t="s" s="3422">
+        <v>73</v>
+      </c>
+      <c r="CI7" t="s" s="3423">
         <v>62</v>
       </c>
-      <c r="CK7" t="s" s="3365">
+      <c r="CJ7" t="s" s="3424">
         <v>63</v>
       </c>
-      <c r="CL7" t="s" s="3366">
+      <c r="CK7" t="s" s="3425">
         <v>64</v>
       </c>
-      <c r="CM7" t="s" s="3367">
+      <c r="CL7" t="s" s="3426">
         <v>65</v>
       </c>
-      <c r="CN7" t="s" s="3368">
+      <c r="CM7" t="s" s="3427">
         <v>66</v>
       </c>
-      <c r="CO7" t="s" s="3369">
+      <c r="CN7" t="s" s="3428">
         <v>67</v>
       </c>
-      <c r="CP7" t="s" s="3370">
+      <c r="CO7" t="s" s="3429">
         <v>68</v>
       </c>
-      <c r="CQ7" t="s" s="3371">
+      <c r="CP7" t="s" s="3430">
         <v>69</v>
       </c>
-      <c r="CR7" t="s" s="3372">
+      <c r="CQ7" t="s" s="3431">
         <v>70</v>
       </c>
-      <c r="CS7" t="s" s="3373">
+      <c r="CR7" t="s" s="3432">
         <v>71</v>
       </c>
-      <c r="CT7" t="s" s="3374">
+      <c r="CS7" t="s" s="3433">
         <v>72</v>
       </c>
-      <c r="CU7" t="s" s="3375">
-        <v>61</v>
-      </c>
-      <c r="CV7" t="s" s="3376">
+      <c r="CT7" t="s" s="3434">
+        <v>73</v>
+      </c>
+      <c r="CU7" t="s" s="3435">
         <v>62</v>
       </c>
-      <c r="CW7" t="s" s="3377">
+      <c r="CV7" t="s" s="3436">
         <v>63</v>
       </c>
-      <c r="CX7" t="s" s="3378">
+      <c r="CW7" t="s" s="3437">
         <v>64</v>
       </c>
-      <c r="CY7" t="s" s="3379">
+      <c r="CX7" t="s" s="3438">
         <v>65</v>
       </c>
-      <c r="CZ7" t="s" s="3380">
+      <c r="CY7" t="s" s="3439">
         <v>66</v>
       </c>
-      <c r="DA7" t="s" s="3381">
+      <c r="CZ7" t="s" s="3440">
         <v>67</v>
       </c>
-      <c r="DB7" t="s" s="3382">
+      <c r="DA7" t="s" s="3441">
         <v>68</v>
       </c>
-      <c r="DC7" t="s" s="3383">
+      <c r="DB7" t="s" s="3442">
         <v>69</v>
       </c>
-      <c r="DD7" t="s" s="3384">
+      <c r="DC7" t="s" s="3443">
         <v>70</v>
       </c>
-      <c r="DE7" t="s" s="3385">
+      <c r="DD7" t="s" s="3444">
         <v>71</v>
       </c>
-      <c r="DF7" t="s" s="3386">
+      <c r="DE7" t="s" s="3445">
         <v>72</v>
       </c>
-      <c r="DG7" t="s" s="3387">
-        <v>61</v>
-      </c>
-      <c r="DH7" t="s" s="3388">
+      <c r="DF7" t="s" s="3446">
+        <v>73</v>
+      </c>
+      <c r="DG7" t="s" s="3447">
         <v>62</v>
       </c>
-      <c r="DI7" t="s" s="3389">
+      <c r="DH7" t="s" s="3448">
         <v>63</v>
       </c>
-      <c r="DJ7" t="s" s="3390">
+      <c r="DI7" t="s" s="3449">
         <v>64</v>
       </c>
-      <c r="DK7" t="s" s="3391">
+      <c r="DJ7" t="s" s="3450">
         <v>65</v>
       </c>
-      <c r="DL7" t="s" s="3392">
+      <c r="DK7" t="s" s="3451">
         <v>66</v>
       </c>
-      <c r="DM7" t="s" s="3393">
+      <c r="DL7" t="s" s="3452">
         <v>67</v>
       </c>
-      <c r="DN7" t="s" s="3394">
+      <c r="DM7" t="s" s="3453">
         <v>68</v>
       </c>
-      <c r="DO7" t="s" s="3395">
+      <c r="DN7" t="s" s="3454">
         <v>69</v>
       </c>
-      <c r="DP7" t="s" s="3396">
+      <c r="DO7" t="s" s="3455">
         <v>70</v>
       </c>
-      <c r="DQ7" t="s" s="3397">
+      <c r="DP7" t="s" s="3456">
         <v>71</v>
       </c>
-      <c r="DR7" t="s" s="3398">
+      <c r="DQ7" t="s" s="3457">
         <v>72</v>
       </c>
-      <c r="DS7" t="s" s="3399">
-        <v>61</v>
-      </c>
-      <c r="DT7" t="s" s="3400">
+      <c r="DR7" t="s" s="3458">
+        <v>73</v>
+      </c>
+      <c r="DS7" t="s" s="3459">
         <v>62</v>
       </c>
-      <c r="DU7" t="s" s="3401">
+      <c r="DT7" t="s" s="3460">
         <v>63</v>
       </c>
-      <c r="DV7" t="s" s="3402">
+      <c r="DU7" t="s" s="3461">
         <v>64</v>
       </c>
-      <c r="DW7" t="s" s="3403">
+      <c r="DV7" t="s" s="3462">
         <v>65</v>
       </c>
-      <c r="DX7" t="s" s="3404">
+      <c r="DW7" t="s" s="3463">
         <v>66</v>
       </c>
-      <c r="DY7" t="s" s="3405">
+      <c r="DX7" t="s" s="3464">
         <v>67</v>
       </c>
-      <c r="DZ7" t="s" s="3406">
+      <c r="DY7" t="s" s="3465">
         <v>68</v>
       </c>
-      <c r="EA7" t="s" s="3407">
+      <c r="DZ7" t="s" s="3466">
         <v>69</v>
       </c>
-      <c r="EB7" t="s" s="3408">
+      <c r="EA7" t="s" s="3467">
         <v>70</v>
       </c>
-      <c r="EC7" t="s" s="3409">
+      <c r="EB7" t="s" s="3468">
         <v>71</v>
       </c>
-      <c r="ED7" t="s" s="3410">
+      <c r="EC7" t="s" s="3469">
         <v>72</v>
       </c>
-      <c r="EE7" t="s" s="3411">
-        <v>61</v>
-      </c>
-      <c r="EF7" t="s" s="3412">
+      <c r="ED7" t="s" s="3470">
+        <v>73</v>
+      </c>
+      <c r="EE7" t="s" s="3471">
         <v>62</v>
       </c>
-      <c r="EG7" t="s" s="3413">
+      <c r="EF7" t="s" s="3472">
         <v>63</v>
       </c>
-      <c r="EH7" t="s" s="3414">
+      <c r="EG7" t="s" s="3473">
         <v>64</v>
       </c>
-      <c r="EI7" t="s" s="3415">
+      <c r="EH7" t="s" s="3474">
         <v>65</v>
       </c>
-      <c r="EJ7" t="s" s="3416">
+      <c r="EI7" t="s" s="3475">
         <v>66</v>
       </c>
-      <c r="EK7" t="s" s="3417">
+      <c r="EJ7" t="s" s="3476">
         <v>67</v>
       </c>
-      <c r="EL7" t="s" s="3418">
+      <c r="EK7" t="s" s="3477">
         <v>68</v>
       </c>
-      <c r="EM7" t="s" s="3419">
+      <c r="EL7" t="s" s="3478">
         <v>69</v>
       </c>
-      <c r="EN7" t="s" s="3420">
+      <c r="EM7" t="s" s="3479">
         <v>70</v>
       </c>
-      <c r="EO7" t="s" s="3421">
+      <c r="EN7" t="s" s="3480">
         <v>71</v>
       </c>
-      <c r="EP7" t="s" s="3422">
+      <c r="EO7" t="s" s="3481">
         <v>72</v>
       </c>
-      <c r="EQ7" t="s" s="3423">
-        <v>61</v>
-      </c>
-      <c r="ER7" t="s" s="3424">
+      <c r="EP7" t="s" s="3482">
+        <v>73</v>
+      </c>
+      <c r="EQ7" t="s" s="3483">
         <v>62</v>
       </c>
-      <c r="ES7" t="s" s="3425">
+      <c r="ER7" t="s" s="3484">
         <v>63</v>
       </c>
-      <c r="ET7" t="s" s="3426">
+      <c r="ES7" t="s" s="3485">
         <v>64</v>
       </c>
-      <c r="EU7" t="s" s="3427">
+      <c r="ET7" t="s" s="3486">
         <v>65</v>
       </c>
-      <c r="EV7" t="s" s="3428">
+      <c r="EU7" t="s" s="3487">
         <v>66</v>
       </c>
-      <c r="EW7" t="s" s="3429">
+      <c r="EV7" t="s" s="3488">
         <v>67</v>
       </c>
-      <c r="EX7" t="s" s="3430">
+      <c r="EW7" t="s" s="3489">
         <v>68</v>
       </c>
-      <c r="EY7" t="s" s="3431">
+      <c r="EX7" t="s" s="3490">
         <v>69</v>
       </c>
-      <c r="EZ7" t="s" s="3432">
+      <c r="EY7" t="s" s="3491">
         <v>70</v>
       </c>
-      <c r="FA7" t="s" s="3433">
+      <c r="EZ7" t="s" s="3492">
         <v>71</v>
       </c>
-      <c r="FB7" t="s" s="3434">
+      <c r="FA7" t="s" s="3493">
         <v>72</v>
       </c>
-      <c r="FC7" t="s" s="3435">
-        <v>61</v>
-      </c>
-      <c r="FD7" t="s" s="3436">
+      <c r="FB7" t="s" s="3494">
+        <v>73</v>
+      </c>
+      <c r="FC7" t="s" s="3495">
         <v>62</v>
       </c>
-      <c r="FE7" t="s" s="3437">
+      <c r="FD7" t="s" s="3496">
         <v>63</v>
       </c>
-      <c r="FF7" t="s" s="3438">
+      <c r="FE7" t="s" s="3497">
         <v>64</v>
       </c>
-      <c r="FG7" t="s" s="3439">
+      <c r="FF7" t="s" s="3498">
         <v>65</v>
       </c>
-      <c r="FH7" t="s" s="3440">
+      <c r="FG7" t="s" s="3499">
         <v>66</v>
       </c>
-      <c r="FI7" t="s" s="3441">
+      <c r="FH7" t="s" s="3500">
         <v>67</v>
       </c>
-      <c r="FJ7" t="s" s="3442">
+      <c r="FI7" t="s" s="3501">
         <v>68</v>
       </c>
-      <c r="FK7" t="s" s="3443">
+      <c r="FJ7" t="s" s="3502">
         <v>69</v>
       </c>
-      <c r="FL7" t="s" s="3444">
+      <c r="FK7" t="s" s="3503">
         <v>70</v>
       </c>
-      <c r="FM7" t="s" s="3445">
+      <c r="FL7" t="s" s="3504">
         <v>71</v>
       </c>
-      <c r="FN7" t="s" s="3446">
+      <c r="FM7" t="s" s="3505">
         <v>72</v>
       </c>
-      <c r="FO7" t="s" s="3447">
-        <v>61</v>
-      </c>
-      <c r="FP7" t="s" s="3448">
+      <c r="FN7" t="s" s="3506">
+        <v>73</v>
+      </c>
+      <c r="FO7" t="s" s="3507">
         <v>62</v>
       </c>
-      <c r="FQ7" t="s" s="3449">
+      <c r="FP7" t="s" s="3508">
         <v>63</v>
       </c>
-      <c r="FR7" t="s" s="3450">
+      <c r="FQ7" t="s" s="3509">
         <v>64</v>
       </c>
-      <c r="FS7" t="s" s="3451">
+      <c r="FR7" t="s" s="3510">
         <v>65</v>
       </c>
-      <c r="FT7" t="s" s="3452">
+      <c r="FS7" t="s" s="3511">
         <v>66</v>
       </c>
-      <c r="FU7" t="s" s="3453">
+      <c r="FT7" t="s" s="3512">
         <v>67</v>
       </c>
-      <c r="FV7" t="s" s="3454">
+      <c r="FU7" t="s" s="3513">
         <v>68</v>
       </c>
-      <c r="FW7" t="s" s="3455">
+      <c r="FV7" t="s" s="3514">
         <v>69</v>
       </c>
-      <c r="FX7" t="s" s="3456">
+      <c r="FW7" t="s" s="3515">
         <v>70</v>
       </c>
-      <c r="FY7" t="s" s="3457">
+      <c r="FX7" t="s" s="3516">
         <v>71</v>
       </c>
-      <c r="FZ7" t="s" s="3458">
+      <c r="FY7" t="s" s="3517">
         <v>72</v>
       </c>
-      <c r="GA7" t="s" s="3459">
-        <v>61</v>
-      </c>
-      <c r="GB7" t="s" s="3460">
+      <c r="FZ7" t="s" s="3518">
+        <v>73</v>
+      </c>
+      <c r="GA7" t="s" s="3519">
         <v>62</v>
       </c>
-      <c r="GC7" t="s" s="3461">
+      <c r="GB7" t="s" s="3520">
         <v>63</v>
       </c>
-      <c r="GD7" t="s" s="3462">
+      <c r="GC7" t="s" s="3521">
         <v>64</v>
       </c>
-      <c r="GE7" t="s" s="3463">
+      <c r="GD7" t="s" s="3522">
         <v>65</v>
       </c>
-      <c r="GF7" t="s" s="3464">
+      <c r="GE7" t="s" s="3523">
         <v>66</v>
       </c>
-      <c r="GG7" t="s" s="3465">
+      <c r="GF7" t="s" s="3524">
         <v>67</v>
       </c>
-      <c r="GH7" t="s" s="3466">
+      <c r="GG7" t="s" s="3525">
         <v>68</v>
       </c>
-      <c r="GI7" t="s" s="3467">
+      <c r="GH7" t="s" s="3526">
         <v>69</v>
       </c>
-      <c r="GJ7" t="s" s="3468">
+      <c r="GI7" t="s" s="3527">
         <v>70</v>
       </c>
-      <c r="GK7" t="s" s="3469">
+      <c r="GJ7" t="s" s="3528">
         <v>71</v>
       </c>
-      <c r="GL7" t="s" s="3470">
+      <c r="GK7" t="s" s="3529">
         <v>72</v>
       </c>
-      <c r="GM7" t="s" s="3471">
-        <v>61</v>
-      </c>
-      <c r="GN7" t="s" s="3472">
+      <c r="GL7" t="s" s="3530">
+        <v>73</v>
+      </c>
+      <c r="GM7" t="s" s="3531">
         <v>62</v>
       </c>
-      <c r="GO7" t="s" s="3473">
+      <c r="GN7" t="s" s="3532">
         <v>63</v>
       </c>
-      <c r="GP7" t="s" s="3474">
+      <c r="GO7" t="s" s="3533">
         <v>64</v>
       </c>
-      <c r="GQ7" t="s" s="3475">
+      <c r="GP7" t="s" s="3534">
         <v>65</v>
       </c>
-      <c r="GR7" t="s" s="3476">
+      <c r="GQ7" t="s" s="3535">
         <v>66</v>
       </c>
-      <c r="GS7" t="s" s="3477">
+      <c r="GR7" t="s" s="3536">
         <v>67</v>
       </c>
-      <c r="GT7" t="s" s="3478">
+      <c r="GS7" t="s" s="3537">
         <v>68</v>
       </c>
-      <c r="GU7" t="s" s="3479">
+      <c r="GT7" t="s" s="3538">
         <v>69</v>
       </c>
-      <c r="GV7" t="s" s="3480">
+      <c r="GU7" t="s" s="3539">
         <v>70</v>
       </c>
-      <c r="GW7" t="s" s="3481">
+      <c r="GV7" t="s" s="3540">
         <v>71</v>
       </c>
-      <c r="GX7" t="s" s="3482">
+      <c r="GW7" t="s" s="3541">
         <v>72</v>
       </c>
-      <c r="GY7" t="s" s="3483">
-        <v>61</v>
-      </c>
-      <c r="GZ7" t="s" s="3484">
+      <c r="GX7" t="s" s="3542">
+        <v>73</v>
+      </c>
+      <c r="GY7" t="s" s="3543">
         <v>62</v>
       </c>
-      <c r="HA7" t="s" s="3485">
+      <c r="GZ7" t="s" s="3544">
         <v>63</v>
       </c>
-      <c r="HB7" t="s" s="3486">
+      <c r="HA7" t="s" s="3545">
         <v>64</v>
       </c>
-      <c r="HC7" t="s" s="3487">
+      <c r="HB7" t="s" s="3546">
         <v>65</v>
       </c>
-      <c r="HD7" t="s" s="3488">
+      <c r="HC7" t="s" s="3547">
         <v>66</v>
       </c>
-      <c r="HE7" t="s" s="3489">
+      <c r="HD7" t="s" s="3548">
         <v>67</v>
       </c>
-      <c r="HF7" t="s" s="3490">
+      <c r="HE7" t="s" s="3549">
         <v>68</v>
       </c>
-      <c r="HG7" t="s" s="3491">
+      <c r="HF7" t="s" s="3550">
         <v>69</v>
       </c>
-      <c r="HH7" t="s" s="3492">
+      <c r="HG7" t="s" s="3551">
         <v>70</v>
       </c>
-      <c r="HI7" t="s" s="3493">
+      <c r="HH7" t="s" s="3552">
         <v>71</v>
       </c>
-      <c r="HJ7" t="s" s="3494">
+      <c r="HI7" t="s" s="3553">
         <v>72</v>
       </c>
-      <c r="HK7" t="s" s="3495">
-        <v>61</v>
-      </c>
-      <c r="HL7" t="s" s="3496">
+      <c r="HJ7" t="s" s="3554">
+        <v>73</v>
+      </c>
+      <c r="HK7" t="s" s="3555">
         <v>62</v>
       </c>
-      <c r="HM7" t="s" s="3497">
+      <c r="HL7" t="s" s="3556">
         <v>63</v>
       </c>
-      <c r="HN7" t="s" s="3498">
+      <c r="HM7" t="s" s="3557">
         <v>64</v>
       </c>
-      <c r="HO7" t="s" s="3499">
+      <c r="HN7" t="s" s="3558">
         <v>65</v>
       </c>
-      <c r="HP7" t="s" s="3500">
+      <c r="HO7" t="s" s="3559">
         <v>66</v>
       </c>
-      <c r="HQ7" t="s" s="3501">
+      <c r="HP7" t="s" s="3560">
         <v>67</v>
       </c>
-      <c r="HR7" t="s" s="3502">
+      <c r="HQ7" t="s" s="3561">
         <v>68</v>
       </c>
-      <c r="HS7" t="s" s="3503">
+      <c r="HR7" t="s" s="3562">
         <v>69</v>
       </c>
-      <c r="HT7" t="s" s="3504">
+      <c r="HS7" t="s" s="3563">
         <v>70</v>
       </c>
-      <c r="HU7" t="s" s="3505">
+      <c r="HT7" t="s" s="3564">
         <v>71</v>
       </c>
-      <c r="HV7" t="s" s="3506">
+      <c r="HU7" t="s" s="3565">
         <v>72</v>
       </c>
-      <c r="HW7" t="s" s="3507">
-        <v>61</v>
-      </c>
-      <c r="HX7" t="s" s="3508">
+      <c r="HV7" t="s" s="3566">
+        <v>73</v>
+      </c>
+      <c r="HW7" t="s" s="3567">
         <v>62</v>
       </c>
-      <c r="HY7" t="s" s="3509">
+      <c r="HX7" t="s" s="3568">
         <v>63</v>
       </c>
-      <c r="HZ7" t="s" s="3510">
+      <c r="HY7" t="s" s="3569">
         <v>64</v>
       </c>
-      <c r="IA7" t="s" s="3511">
+      <c r="HZ7" t="s" s="3570">
         <v>65</v>
       </c>
-      <c r="IB7" t="s" s="3512">
+      <c r="IA7" t="s" s="3571">
         <v>66</v>
       </c>
-      <c r="IC7" t="s" s="3513">
+      <c r="IB7" t="s" s="3572">
         <v>67</v>
       </c>
-      <c r="ID7" t="s" s="3514">
+      <c r="IC7" t="s" s="3573">
         <v>68</v>
       </c>
-      <c r="IE7" t="s" s="3515">
+      <c r="ID7" t="s" s="3574">
         <v>69</v>
       </c>
-      <c r="IF7" t="s" s="3516">
+      <c r="IE7" t="s" s="3575">
         <v>70</v>
       </c>
-      <c r="IG7" t="s" s="3517">
+      <c r="IF7" t="s" s="3576">
         <v>71</v>
       </c>
-      <c r="IH7" t="s" s="3518">
+      <c r="IG7" t="s" s="3577">
         <v>72</v>
       </c>
-      <c r="II7" t="s" s="3519">
-        <v>61</v>
-      </c>
-      <c r="IJ7" t="s" s="3520">
+      <c r="IH7" t="s" s="3578">
+        <v>73</v>
+      </c>
+      <c r="II7" t="s" s="3579">
         <v>62</v>
       </c>
-      <c r="IK7" t="s" s="3521">
+      <c r="IJ7" t="s" s="3580">
         <v>63</v>
       </c>
-      <c r="IL7" t="s" s="3522">
+      <c r="IK7" t="s" s="3581">
         <v>64</v>
       </c>
-      <c r="IM7" t="s" s="3523">
+      <c r="IL7" t="s" s="3582">
         <v>65</v>
       </c>
-      <c r="IN7" t="s" s="3524">
+      <c r="IM7" t="s" s="3583">
         <v>66</v>
       </c>
-      <c r="IO7" t="s" s="3525">
+      <c r="IN7" t="s" s="3584">
         <v>67</v>
       </c>
-      <c r="IP7" t="s" s="3526">
+      <c r="IO7" t="s" s="3585">
         <v>68</v>
       </c>
-      <c r="IQ7" t="s" s="3527">
+      <c r="IP7" t="s" s="3586">
         <v>69</v>
       </c>
-      <c r="IR7" t="s" s="3528">
+      <c r="IQ7" t="s" s="3587">
         <v>70</v>
       </c>
-      <c r="IS7" t="s" s="3529">
+      <c r="IR7" t="s" s="3588">
         <v>71</v>
       </c>
-      <c r="IT7" t="s" s="3530">
+      <c r="IS7" t="s" s="3589">
         <v>72</v>
       </c>
-      <c r="IU7" t="s" s="3531">
-        <v>61</v>
-      </c>
-      <c r="IV7" t="s" s="3532">
+      <c r="IT7" t="s" s="3590">
+        <v>73</v>
+      </c>
+      <c r="IU7" t="s" s="3591">
         <v>62</v>
       </c>
-      <c r="IW7" t="s" s="3533">
+      <c r="IV7" t="s" s="3592">
         <v>63</v>
       </c>
-      <c r="IX7" t="s" s="3534">
+      <c r="IW7" t="s" s="3593">
         <v>64</v>
       </c>
-      <c r="IY7" t="s" s="3535">
+      <c r="IX7" t="s" s="3594">
         <v>65</v>
       </c>
-      <c r="IZ7" t="s" s="3536">
+      <c r="IY7" t="s" s="3595">
         <v>66</v>
       </c>
-      <c r="JA7" t="s" s="3537">
+      <c r="IZ7" t="s" s="3596">
         <v>67</v>
       </c>
-      <c r="JB7" t="s" s="3538">
+      <c r="JA7" t="s" s="3597">
         <v>68</v>
       </c>
-      <c r="JC7" t="s" s="3539">
+      <c r="JB7" t="s" s="3598">
         <v>69</v>
       </c>
-      <c r="JD7" t="s" s="3540">
+      <c r="JC7" t="s" s="3599">
         <v>70</v>
       </c>
-      <c r="JE7" t="s" s="3541">
+      <c r="JD7" t="s" s="3600">
         <v>71</v>
       </c>
-      <c r="JF7" t="s" s="3542">
+      <c r="JE7" t="s" s="3601">
         <v>72</v>
       </c>
-      <c r="JG7" t="s" s="3543">
-        <v>61</v>
-      </c>
-      <c r="JH7" t="s" s="3544">
+      <c r="JF7" t="s" s="3602">
+        <v>73</v>
+      </c>
+      <c r="JG7" t="s" s="3603">
         <v>62</v>
       </c>
-      <c r="JI7" t="s" s="3545">
+      <c r="JH7" t="s" s="3604">
         <v>63</v>
       </c>
-      <c r="JJ7" t="s" s="3546">
+      <c r="JI7" t="s" s="3605">
         <v>64</v>
       </c>
-      <c r="JK7" t="s" s="3547">
+      <c r="JJ7" t="s" s="3606">
         <v>65</v>
       </c>
-      <c r="JL7" t="s" s="3548">
+      <c r="JK7" t="s" s="3607">
         <v>66</v>
       </c>
-      <c r="JM7" t="s" s="3549">
+      <c r="JL7" t="s" s="3608">
         <v>67</v>
       </c>
-      <c r="JN7" t="s" s="3550">
+      <c r="JM7" t="s" s="3609">
         <v>68</v>
       </c>
-      <c r="JO7" t="s" s="3551">
+      <c r="JN7" t="s" s="3610">
         <v>69</v>
       </c>
-      <c r="JP7" t="s" s="3552">
+      <c r="JO7" t="s" s="3611">
         <v>70</v>
       </c>
-      <c r="JQ7" t="s" s="3553">
+      <c r="JP7" t="s" s="3612">
         <v>71</v>
       </c>
-      <c r="JR7" t="s" s="3554">
+      <c r="JQ7" t="s" s="3613">
         <v>72</v>
       </c>
-      <c r="JS7" t="s" s="3555">
-        <v>61</v>
-      </c>
-      <c r="JT7" t="s" s="3556">
+      <c r="JR7" t="s" s="3614">
+        <v>73</v>
+      </c>
+      <c r="JS7" t="s" s="3615">
         <v>62</v>
       </c>
-      <c r="JU7" t="s" s="3557">
+      <c r="JT7" t="s" s="3616">
         <v>63</v>
       </c>
-      <c r="JV7" t="s" s="3558">
+      <c r="JU7" t="s" s="3617">
         <v>64</v>
       </c>
-      <c r="JW7" t="s" s="3559">
+      <c r="JV7" t="s" s="3618">
         <v>65</v>
       </c>
-      <c r="JX7" t="s" s="3560">
+      <c r="JW7" t="s" s="3619">
         <v>66</v>
       </c>
-      <c r="JY7" t="s" s="3561">
+      <c r="JX7" t="s" s="3620">
         <v>67</v>
       </c>
-      <c r="JZ7" t="s" s="3562">
+      <c r="JY7" t="s" s="3621">
         <v>68</v>
       </c>
-      <c r="KA7" t="s" s="3563">
+      <c r="JZ7" t="s" s="3622">
         <v>69</v>
       </c>
-      <c r="KB7" t="s" s="3564">
+      <c r="KA7" t="s" s="3623">
         <v>70</v>
       </c>
-      <c r="KC7" t="s" s="3565">
+      <c r="KB7" t="s" s="3624">
         <v>71</v>
       </c>
-      <c r="KD7" t="s" s="3566">
+      <c r="KC7" t="s" s="3625">
         <v>72</v>
       </c>
-      <c r="KE7" t="s" s="3567">
-        <v>61</v>
-      </c>
-      <c r="KF7" t="s" s="3568">
+      <c r="KD7" t="s" s="3626">
+        <v>73</v>
+      </c>
+      <c r="KE7" t="s" s="3627">
         <v>62</v>
       </c>
-      <c r="KG7" t="s" s="3569">
+      <c r="KF7" t="s" s="3628">
         <v>63</v>
       </c>
-      <c r="KH7" t="s" s="3570">
+      <c r="KG7" t="s" s="3629">
         <v>64</v>
       </c>
-      <c r="KI7" t="s" s="3571">
+      <c r="KH7" t="s" s="3630">
         <v>65</v>
       </c>
-      <c r="KJ7" t="s" s="3572">
+      <c r="KI7" t="s" s="3631">
         <v>66</v>
       </c>
-      <c r="KK7" t="s" s="3573">
+      <c r="KJ7" t="s" s="3632">
         <v>67</v>
       </c>
-      <c r="KL7" t="s" s="3574">
+      <c r="KK7" t="s" s="3633">
         <v>68</v>
       </c>
-      <c r="KM7" t="s" s="3575">
+      <c r="KL7" t="s" s="3634">
         <v>69</v>
       </c>
-      <c r="KN7" t="s" s="3576">
+      <c r="KM7" t="s" s="3635">
         <v>70</v>
       </c>
-      <c r="KO7" t="s" s="3577">
+      <c r="KN7" t="s" s="3636">
         <v>71</v>
       </c>
-      <c r="KP7" t="s" s="3578">
+      <c r="KO7" t="s" s="3637">
         <v>72</v>
       </c>
-      <c r="KQ7" t="s" s="3579">
-        <v>61</v>
-      </c>
-      <c r="KR7" t="s" s="3580">
+      <c r="KP7" t="s" s="3638">
+        <v>73</v>
+      </c>
+      <c r="KQ7" t="s" s="3639">
         <v>62</v>
       </c>
-      <c r="KS7" t="s" s="3581">
+      <c r="KR7" t="s" s="3640">
         <v>63</v>
       </c>
-      <c r="KT7" t="s" s="3582">
+      <c r="KS7" t="s" s="3641">
         <v>64</v>
       </c>
-      <c r="KU7" t="s" s="3583">
+      <c r="KT7" t="s" s="3642">
         <v>65</v>
       </c>
-      <c r="KV7" t="s" s="3584">
+      <c r="KU7" t="s" s="3643">
         <v>66</v>
       </c>
-      <c r="KW7" t="s" s="3585">
+      <c r="KV7" t="s" s="3644">
         <v>67</v>
       </c>
-      <c r="KX7" t="s" s="3586">
+      <c r="KW7" t="s" s="3645">
         <v>68</v>
       </c>
-      <c r="KY7" t="s" s="3587">
+      <c r="KX7" t="s" s="3646">
         <v>69</v>
       </c>
-      <c r="KZ7" t="s" s="3588">
+      <c r="KY7" t="s" s="3647">
         <v>70</v>
       </c>
-      <c r="LA7" t="s" s="3589">
+      <c r="KZ7" t="s" s="3648">
         <v>71</v>
       </c>
-      <c r="LB7" t="s" s="3590">
+      <c r="LA7" t="s" s="3649">
         <v>72</v>
       </c>
-      <c r="LC7" t="s" s="3591">
-        <v>61</v>
-      </c>
-      <c r="LD7" t="s" s="3592">
+      <c r="LB7" t="s" s="3650">
+        <v>73</v>
+      </c>
+      <c r="LC7" t="s" s="3651">
         <v>62</v>
       </c>
-      <c r="LE7" t="s" s="3593">
+      <c r="LD7" t="s" s="3652">
         <v>63</v>
       </c>
-      <c r="LF7" t="s" s="3594">
+      <c r="LE7" t="s" s="3653">
         <v>64</v>
       </c>
-      <c r="LG7" t="s" s="3595">
+      <c r="LF7" t="s" s="3654">
         <v>65</v>
       </c>
-      <c r="LH7" t="s" s="3596">
+      <c r="LG7" t="s" s="3655">
         <v>66</v>
       </c>
-      <c r="LI7" t="s" s="3597">
+      <c r="LH7" t="s" s="3656">
         <v>67</v>
       </c>
-      <c r="LJ7" t="s" s="3598">
+      <c r="LI7" t="s" s="3657">
         <v>68</v>
       </c>
-      <c r="LK7" t="s" s="3599">
+      <c r="LJ7" t="s" s="3658">
         <v>69</v>
       </c>
-      <c r="LL7" t="s" s="3600">
+      <c r="LK7" t="s" s="3659">
         <v>70</v>
       </c>
-      <c r="LM7" t="s" s="3601">
+      <c r="LL7" t="s" s="3660">
         <v>71</v>
       </c>
-      <c r="LN7" t="s" s="3602">
+      <c r="LM7" t="s" s="3661">
         <v>72</v>
       </c>
-      <c r="LO7" t="s" s="3603">
-        <v>61</v>
-      </c>
-      <c r="LP7" t="s" s="3604">
+      <c r="LN7" t="s" s="3662">
+        <v>73</v>
+      </c>
+      <c r="LO7" t="s" s="3663">
         <v>62</v>
       </c>
-      <c r="LQ7" t="s" s="3605">
+      <c r="LP7" t="s" s="3664">
         <v>63</v>
       </c>
-      <c r="LR7" t="s" s="3606">
+      <c r="LQ7" t="s" s="3665">
         <v>64</v>
       </c>
-      <c r="LS7" t="s" s="3607">
+      <c r="LR7" t="s" s="3666">
         <v>65</v>
       </c>
-      <c r="LT7" t="s" s="3608">
+      <c r="LS7" t="s" s="3667">
         <v>66</v>
       </c>
-      <c r="LU7" t="s" s="3609">
+      <c r="LT7" t="s" s="3668">
         <v>67</v>
       </c>
-      <c r="LV7" t="s" s="3610">
+      <c r="LU7" t="s" s="3669">
         <v>68</v>
       </c>
-      <c r="LW7" t="s" s="3611">
+      <c r="LV7" t="s" s="3670">
         <v>69</v>
       </c>
-      <c r="LX7" t="s" s="3612">
+      <c r="LW7" t="s" s="3671">
         <v>70</v>
       </c>
-      <c r="LY7" t="s" s="3613">
+      <c r="LX7" t="s" s="3672">
         <v>71</v>
       </c>
-      <c r="LZ7" t="s" s="3614">
+      <c r="LY7" t="s" s="3673">
         <v>72</v>
       </c>
-      <c r="MA7" t="s" s="3615">
-        <v>61</v>
-      </c>
-      <c r="MB7" t="s" s="3616">
+      <c r="LZ7" t="s" s="3674">
+        <v>73</v>
+      </c>
+      <c r="MA7" t="s" s="3675">
         <v>62</v>
       </c>
-      <c r="MC7" t="s" s="3617">
+      <c r="MB7" t="s" s="3676">
         <v>63</v>
       </c>
-      <c r="MD7" t="s" s="3618">
+      <c r="MC7" t="s" s="3677">
         <v>64</v>
       </c>
-      <c r="ME7" t="s" s="3619">
+      <c r="MD7" t="s" s="3678">
         <v>65</v>
       </c>
-      <c r="MF7" t="s" s="3620">
+      <c r="ME7" t="s" s="3679">
         <v>66</v>
       </c>
-      <c r="MG7" t="s" s="3621">
+      <c r="MF7" t="s" s="3680">
         <v>67</v>
       </c>
-      <c r="MH7" t="s" s="3622">
+      <c r="MG7" t="s" s="3681">
         <v>68</v>
       </c>
-      <c r="MI7" t="s" s="3623">
+      <c r="MH7" t="s" s="3682">
         <v>69</v>
       </c>
-      <c r="MJ7" t="s" s="3624">
+      <c r="MI7" t="s" s="3683">
         <v>70</v>
       </c>
-      <c r="MK7" t="s" s="3625">
+      <c r="MJ7" t="s" s="3684">
         <v>71</v>
       </c>
-      <c r="ML7" t="s" s="3626">
+      <c r="MK7" t="s" s="3685">
         <v>72</v>
       </c>
-      <c r="MM7" t="s" s="3627">
-        <v>61</v>
-      </c>
-      <c r="MN7" t="s" s="3628">
+      <c r="ML7" t="s" s="3686">
+        <v>73</v>
+      </c>
+      <c r="MM7" t="s" s="3687">
         <v>62</v>
       </c>
-      <c r="MO7" t="s" s="3629">
+      <c r="MN7" t="s" s="3688">
         <v>63</v>
       </c>
-      <c r="MP7" t="s" s="3630">
+      <c r="MO7" t="s" s="3689">
         <v>64</v>
       </c>
-      <c r="MQ7" t="s" s="3631">
+      <c r="MP7" t="s" s="3690">
         <v>65</v>
       </c>
-      <c r="MR7" t="s" s="3632">
+      <c r="MQ7" t="s" s="3691">
         <v>66</v>
       </c>
-      <c r="MS7" t="s" s="3633">
+      <c r="MR7" t="s" s="3692">
         <v>67</v>
       </c>
-      <c r="MT7" t="s" s="3634">
+      <c r="MS7" t="s" s="3693">
         <v>68</v>
       </c>
-      <c r="MU7" t="s" s="3635">
+      <c r="MT7" t="s" s="3694">
         <v>69</v>
       </c>
-      <c r="MV7" t="s" s="3636">
+      <c r="MU7" t="s" s="3695">
         <v>70</v>
       </c>
-      <c r="MW7" t="s" s="3637">
+      <c r="MV7" t="s" s="3696">
         <v>71</v>
       </c>
-      <c r="MX7" t="s" s="3638">
+      <c r="MW7" t="s" s="3697">
         <v>72</v>
       </c>
-      <c r="MY7" t="s" s="3639">
-        <v>61</v>
-      </c>
-      <c r="MZ7" t="s" s="3640">
+      <c r="MX7" t="s" s="3698">
+        <v>73</v>
+      </c>
+      <c r="MY7" t="s" s="3699">
         <v>62</v>
       </c>
-      <c r="NA7" t="s" s="3641">
+      <c r="MZ7" t="s" s="3700">
         <v>63</v>
       </c>
-      <c r="NB7" t="s" s="3642">
+      <c r="NA7" t="s" s="3701">
         <v>64</v>
       </c>
-      <c r="NC7" t="s" s="3643">
+      <c r="NB7" t="s" s="3702">
         <v>65</v>
       </c>
-      <c r="ND7" t="s" s="3644">
+      <c r="NC7" t="s" s="3703">
         <v>66</v>
       </c>
-      <c r="NE7" t="s" s="3645">
+      <c r="ND7" t="s" s="3704">
         <v>67</v>
       </c>
-      <c r="NF7" t="s" s="3646">
+      <c r="NE7" t="s" s="3705">
         <v>68</v>
       </c>
-      <c r="NG7" t="s" s="3647">
+      <c r="NF7" t="s" s="3706">
         <v>69</v>
       </c>
-      <c r="NH7" t="s" s="3648">
+      <c r="NG7" t="s" s="3707">
         <v>70</v>
       </c>
-      <c r="NI7" t="s" s="3649">
+      <c r="NH7" t="s" s="3708">
         <v>71</v>
       </c>
-      <c r="NJ7" t="s" s="3650">
+      <c r="NI7" t="s" s="3709">
         <v>72</v>
       </c>
-      <c r="NK7" t="s" s="3651">
-        <v>61</v>
-      </c>
-      <c r="NL7" t="s" s="3652">
+      <c r="NJ7" t="s" s="3710">
+        <v>73</v>
+      </c>
+      <c r="NK7" t="s" s="3711">
         <v>62</v>
       </c>
-      <c r="NM7" t="s" s="3653">
+      <c r="NL7" t="s" s="3712">
         <v>63</v>
       </c>
-      <c r="NN7" t="s" s="3654">
+      <c r="NM7" t="s" s="3713">
         <v>64</v>
       </c>
-      <c r="NO7" t="s" s="3655">
+      <c r="NN7" t="s" s="3714">
         <v>65</v>
       </c>
-      <c r="NP7" t="s" s="3656">
+      <c r="NO7" t="s" s="3715">
         <v>66</v>
       </c>
-      <c r="NQ7" t="s" s="3657">
+      <c r="NP7" t="s" s="3716">
         <v>67</v>
       </c>
-      <c r="NR7" t="s" s="3658">
+      <c r="NQ7" t="s" s="3717">
         <v>68</v>
       </c>
-      <c r="NS7" t="s" s="3659">
+      <c r="NR7" t="s" s="3718">
         <v>69</v>
       </c>
-      <c r="NT7" t="s" s="3660">
+      <c r="NS7" t="s" s="3719">
         <v>70</v>
       </c>
-      <c r="NU7" t="s" s="3661">
+      <c r="NT7" t="s" s="3720">
         <v>71</v>
       </c>
-      <c r="NV7" t="s" s="3662">
+      <c r="NU7" t="s" s="3721">
         <v>72</v>
       </c>
-      <c r="NW7" t="s" s="3663">
-        <v>61</v>
-      </c>
-      <c r="NX7" t="s" s="3664">
+      <c r="NV7" t="s" s="3722">
+        <v>73</v>
+      </c>
+      <c r="NW7" t="s" s="3723">
         <v>62</v>
       </c>
-      <c r="NY7" t="s" s="3665">
+      <c r="NX7" t="s" s="3724">
         <v>63</v>
       </c>
-      <c r="NZ7" t="s" s="3666">
+      <c r="NY7" t="s" s="3725">
         <v>64</v>
       </c>
-      <c r="OA7" t="s" s="3667">
+      <c r="NZ7" t="s" s="3726">
         <v>65</v>
       </c>
-      <c r="OB7" t="s" s="3668">
+      <c r="OA7" t="s" s="3727">
         <v>66</v>
       </c>
-      <c r="OC7" t="s" s="3669">
+      <c r="OB7" t="s" s="3728">
         <v>67</v>
       </c>
-      <c r="OD7" t="s" s="3670">
+      <c r="OC7" t="s" s="3729">
         <v>68</v>
       </c>
-      <c r="OE7" t="s" s="3671">
+      <c r="OD7" t="s" s="3730">
         <v>69</v>
       </c>
-      <c r="OF7" t="s" s="3672">
+      <c r="OE7" t="s" s="3731">
         <v>70</v>
       </c>
-      <c r="OG7" t="s" s="3673">
+      <c r="OF7" t="s" s="3732">
         <v>71</v>
       </c>
-      <c r="OH7" t="s" s="3674">
+      <c r="OG7" t="s" s="3733">
         <v>72</v>
       </c>
-      <c r="OI7" t="s" s="3675">
-        <v>61</v>
-      </c>
-      <c r="OJ7" t="s" s="3676">
+      <c r="OH7" t="s" s="3734">
+        <v>73</v>
+      </c>
+      <c r="OI7" t="s" s="3735">
         <v>62</v>
       </c>
-      <c r="OK7" t="s" s="3677">
+      <c r="OJ7" t="s" s="3736">
         <v>63</v>
       </c>
-      <c r="OL7" t="s" s="3678">
+      <c r="OK7" t="s" s="3737">
         <v>64</v>
       </c>
-      <c r="OM7" t="s" s="3679">
+      <c r="OL7" t="s" s="3738">
         <v>65</v>
       </c>
-      <c r="ON7" t="s" s="3680">
+      <c r="OM7" t="s" s="3739">
         <v>66</v>
       </c>
-      <c r="OO7" t="s" s="3681">
+      <c r="ON7" t="s" s="3740">
         <v>67</v>
       </c>
-      <c r="OP7" t="s" s="3682">
+      <c r="OO7" t="s" s="3741">
         <v>68</v>
       </c>
-      <c r="OQ7" t="s" s="3683">
+      <c r="OP7" t="s" s="3742">
         <v>69</v>
       </c>
-      <c r="OR7" t="s" s="3684">
+      <c r="OQ7" t="s" s="3743">
         <v>70</v>
       </c>
-      <c r="OS7" t="s" s="3685">
+      <c r="OR7" t="s" s="3744">
         <v>71</v>
       </c>
-      <c r="OT7" t="s" s="3686">
+      <c r="OS7" t="s" s="3745">
         <v>72</v>
       </c>
-      <c r="OU7" t="s" s="3687">
-        <v>61</v>
-      </c>
-      <c r="OV7" t="s" s="3688">
+      <c r="OT7" t="s" s="3746">
+        <v>73</v>
+      </c>
+      <c r="OU7" t="s" s="3747">
         <v>62</v>
       </c>
-      <c r="OW7" t="s" s="3689">
+      <c r="OV7" t="s" s="3748">
         <v>63</v>
       </c>
-      <c r="OX7" t="s" s="3690">
+      <c r="OW7" t="s" s="3749">
         <v>64</v>
       </c>
-      <c r="OY7" t="s" s="3691">
+      <c r="OX7" t="s" s="3750">
         <v>65</v>
       </c>
-      <c r="OZ7" t="s" s="3692">
+      <c r="OY7" t="s" s="3751">
         <v>66</v>
       </c>
-      <c r="PA7" t="s" s="3693">
+      <c r="OZ7" t="s" s="3752">
         <v>67</v>
       </c>
-      <c r="PB7" t="s" s="3694">
+      <c r="PA7" t="s" s="3753">
         <v>68</v>
       </c>
-      <c r="PC7" t="s" s="3695">
+      <c r="PB7" t="s" s="3754">
         <v>69</v>
       </c>
-      <c r="PD7" t="s" s="3696">
+      <c r="PC7" t="s" s="3755">
         <v>70</v>
       </c>
-      <c r="PE7" t="s" s="3697">
+      <c r="PD7" t="s" s="3756">
         <v>71</v>
       </c>
-      <c r="PF7" t="s" s="3698">
+      <c r="PE7" t="s" s="3757">
         <v>72</v>
       </c>
-      <c r="PG7" t="s" s="3699">
-        <v>61</v>
-      </c>
-      <c r="PH7" t="s" s="3700">
+      <c r="PF7" t="s" s="3758">
+        <v>73</v>
+      </c>
+      <c r="PG7" t="s" s="3759">
         <v>62</v>
       </c>
-      <c r="PI7" t="s" s="3701">
+      <c r="PH7" t="s" s="3760">
         <v>63</v>
       </c>
-      <c r="PJ7" t="s" s="3702">
+      <c r="PI7" t="s" s="3761">
         <v>64</v>
       </c>
-      <c r="PK7" t="s" s="3703">
+      <c r="PJ7" t="s" s="3762">
         <v>65</v>
       </c>
-      <c r="PL7" t="s" s="3704">
+      <c r="PK7" t="s" s="3763">
         <v>66</v>
       </c>
-      <c r="PM7" t="s" s="3705">
+      <c r="PL7" t="s" s="3764">
         <v>67</v>
       </c>
-      <c r="PN7" t="s" s="3706">
+      <c r="PM7" t="s" s="3765">
         <v>68</v>
       </c>
-      <c r="PO7" t="s" s="3707">
+      <c r="PN7" t="s" s="3766">
         <v>69</v>
       </c>
-      <c r="PP7" t="s" s="3708">
+      <c r="PO7" t="s" s="3767">
         <v>70</v>
       </c>
-      <c r="PQ7" t="s" s="3709">
+      <c r="PP7" t="s" s="3768">
         <v>71</v>
       </c>
-      <c r="PR7" t="s" s="3710">
+      <c r="PQ7" t="s" s="3769">
         <v>72</v>
       </c>
-      <c r="PS7" t="s" s="3711">
-        <v>61</v>
-      </c>
-      <c r="PT7" t="s" s="3712">
+      <c r="PR7" t="s" s="3770">
+        <v>73</v>
+      </c>
+      <c r="PS7" t="s" s="3771">
         <v>62</v>
       </c>
-      <c r="PU7" t="s" s="3713">
+      <c r="PT7" t="s" s="3772">
         <v>63</v>
       </c>
-      <c r="PV7" t="s" s="3714">
+      <c r="PU7" t="s" s="3773">
         <v>64</v>
       </c>
-      <c r="PW7" t="s" s="3715">
+      <c r="PV7" t="s" s="3774">
         <v>65</v>
       </c>
-      <c r="PX7" t="s" s="3716">
+      <c r="PW7" t="s" s="3775">
         <v>66</v>
       </c>
-      <c r="PY7" t="s" s="3717">
+      <c r="PX7" t="s" s="3776">
         <v>67</v>
       </c>
-      <c r="PZ7" t="s" s="3718">
+      <c r="PY7" t="s" s="3777">
         <v>68</v>
       </c>
-      <c r="QA7" t="s" s="3719">
+      <c r="PZ7" t="s" s="3778">
         <v>69</v>
       </c>
-      <c r="QB7" t="s" s="3720">
+      <c r="QA7" t="s" s="3779">
         <v>70</v>
       </c>
-      <c r="QC7" t="s" s="3721">
+      <c r="QB7" t="s" s="3780">
         <v>71</v>
       </c>
-      <c r="QD7" t="s" s="3722">
+      <c r="QC7" t="s" s="3781">
         <v>72</v>
       </c>
-      <c r="QE7" t="s" s="3723">
-        <v>61</v>
-      </c>
-      <c r="QF7" t="s" s="3724">
+      <c r="QD7" t="s" s="3782">
+        <v>73</v>
+      </c>
+      <c r="QE7" t="s" s="3783">
         <v>62</v>
       </c>
-      <c r="QG7" t="s" s="3725">
+      <c r="QF7" t="s" s="3784">
         <v>63</v>
       </c>
-      <c r="QH7" t="s" s="3726">
+      <c r="QG7" t="s" s="3785">
         <v>64</v>
       </c>
-      <c r="QI7" t="s" s="3727">
+      <c r="QH7" t="s" s="3786">
         <v>65</v>
       </c>
-      <c r="QJ7" t="s" s="3728">
+      <c r="QI7" t="s" s="3787">
         <v>66</v>
       </c>
-      <c r="QK7" t="s" s="3729">
+      <c r="QJ7" t="s" s="3788">
         <v>67</v>
       </c>
-      <c r="QL7" t="s" s="3730">
+      <c r="QK7" t="s" s="3789">
         <v>68</v>
       </c>
-      <c r="QM7" t="s" s="3731">
+      <c r="QL7" t="s" s="3790">
         <v>69</v>
       </c>
-      <c r="QN7" t="s" s="3732">
+      <c r="QM7" t="s" s="3791">
         <v>70</v>
       </c>
-      <c r="QO7" t="s" s="3733">
+      <c r="QN7" t="s" s="3792">
         <v>71</v>
       </c>
-      <c r="QP7" t="s" s="3734">
+      <c r="QO7" t="s" s="3793">
         <v>72</v>
       </c>
-      <c r="QQ7" t="s" s="3735">
-        <v>61</v>
-      </c>
-      <c r="QR7" t="s" s="3736">
+      <c r="QP7" t="s" s="3794">
+        <v>73</v>
+      </c>
+      <c r="QQ7" t="s" s="3795">
         <v>62</v>
       </c>
-      <c r="QS7" t="s" s="3737">
+      <c r="QR7" t="s" s="3796">
         <v>63</v>
       </c>
-      <c r="QT7" t="s" s="3738">
+      <c r="QS7" t="s" s="3797">
         <v>64</v>
       </c>
-      <c r="QU7" t="s" s="3739">
+      <c r="QT7" t="s" s="3798">
         <v>65</v>
       </c>
-      <c r="QV7" t="s" s="3740">
+      <c r="QU7" t="s" s="3799">
         <v>66</v>
       </c>
-      <c r="QW7" t="s" s="3741">
+      <c r="QV7" t="s" s="3800">
         <v>67</v>
       </c>
-      <c r="QX7" t="s" s="3742">
+      <c r="QW7" t="s" s="3801">
         <v>68</v>
       </c>
-      <c r="QY7" t="s" s="3743">
+      <c r="QX7" t="s" s="3802">
         <v>69</v>
       </c>
-      <c r="QZ7" t="s" s="3744">
+      <c r="QY7" t="s" s="3803">
         <v>70</v>
       </c>
-      <c r="RA7" t="s" s="3745">
+      <c r="QZ7" t="s" s="3804">
         <v>71</v>
       </c>
-      <c r="RB7" t="s" s="3746">
+      <c r="RA7" t="s" s="3805">
         <v>72</v>
       </c>
-      <c r="RC7" t="s" s="3747">
-        <v>61</v>
-      </c>
-      <c r="RD7" t="s" s="3748">
+      <c r="RB7" t="s" s="3806">
+        <v>73</v>
+      </c>
+      <c r="RC7" t="s" s="3807">
         <v>62</v>
       </c>
-      <c r="RE7" t="s" s="3749">
+      <c r="RD7" t="s" s="3808">
         <v>63</v>
       </c>
-      <c r="RF7" t="s" s="3750">
+      <c r="RE7" t="s" s="3809">
         <v>64</v>
       </c>
-      <c r="RG7" t="s" s="3751">
+      <c r="RF7" t="s" s="3810">
         <v>65</v>
       </c>
-      <c r="RH7" t="s" s="3752">
+      <c r="RG7" t="s" s="3811">
         <v>66</v>
       </c>
-      <c r="RI7" t="s" s="3753">
+      <c r="RH7" t="s" s="3812">
         <v>67</v>
       </c>
-      <c r="RJ7" t="s" s="3754">
+      <c r="RI7" t="s" s="3813">
         <v>68</v>
       </c>
-      <c r="RK7" t="s" s="3755">
+      <c r="RJ7" t="s" s="3814">
         <v>69</v>
       </c>
-      <c r="RL7" t="s" s="3756">
+      <c r="RK7" t="s" s="3815">
         <v>70</v>
       </c>
-      <c r="RM7" t="s" s="3757">
+      <c r="RL7" t="s" s="3816">
         <v>71</v>
       </c>
-      <c r="RN7" t="s" s="3758">
+      <c r="RM7" t="s" s="3817">
         <v>72</v>
       </c>
-      <c r="RO7" t="s" s="3759">
-        <v>61</v>
-      </c>
-      <c r="RP7" t="s" s="3760">
+      <c r="RN7" t="s" s="3818">
+        <v>73</v>
+      </c>
+      <c r="RO7" t="s" s="3819">
         <v>62</v>
       </c>
-      <c r="RQ7" t="s" s="3761">
+      <c r="RP7" t="s" s="3820">
         <v>63</v>
       </c>
-      <c r="RR7" t="s" s="3762">
+      <c r="RQ7" t="s" s="3821">
         <v>64</v>
       </c>
-      <c r="RS7" t="s" s="3763">
+      <c r="RR7" t="s" s="3822">
         <v>65</v>
       </c>
-      <c r="RT7" t="s" s="3764">
+      <c r="RS7" t="s" s="3823">
         <v>66</v>
       </c>
-      <c r="RU7" t="s" s="3765">
+      <c r="RT7" t="s" s="3824">
         <v>67</v>
       </c>
-      <c r="RV7" t="s" s="3766">
+      <c r="RU7" t="s" s="3825">
         <v>68</v>
       </c>
-      <c r="RW7" t="s" s="3767">
+      <c r="RV7" t="s" s="3826">
         <v>69</v>
       </c>
-      <c r="RX7" t="s" s="3768">
+      <c r="RW7" t="s" s="3827">
         <v>70</v>
       </c>
-      <c r="RY7" t="s" s="3769">
+      <c r="RX7" t="s" s="3828">
         <v>71</v>
       </c>
-      <c r="RZ7" t="s" s="3770">
+      <c r="RY7" t="s" s="3829">
         <v>72</v>
       </c>
-      <c r="SA7" t="s" s="3771">
-        <v>61</v>
-      </c>
-      <c r="SB7" t="s" s="3772">
+      <c r="RZ7" t="s" s="3830">
+        <v>73</v>
+      </c>
+      <c r="SA7" t="s" s="3831">
         <v>62</v>
       </c>
-      <c r="SC7" t="s" s="3773">
+      <c r="SB7" t="s" s="3832">
         <v>63</v>
       </c>
-      <c r="SD7" t="s" s="3774">
+      <c r="SC7" t="s" s="3833">
         <v>64</v>
       </c>
-      <c r="SE7" t="s" s="3775">
+      <c r="SD7" t="s" s="3834">
         <v>65</v>
       </c>
-      <c r="SF7" t="s" s="3776">
+      <c r="SE7" t="s" s="3835">
         <v>66</v>
       </c>
-      <c r="SG7" t="s" s="3777">
+      <c r="SF7" t="s" s="3836">
         <v>67</v>
       </c>
-      <c r="SH7" t="s" s="3778">
+      <c r="SG7" t="s" s="3837">
         <v>68</v>
       </c>
-      <c r="SI7" t="s" s="3779">
+      <c r="SH7" t="s" s="3838">
         <v>69</v>
       </c>
-      <c r="SJ7" t="s" s="3780">
+      <c r="SI7" t="s" s="3839">
         <v>70</v>
       </c>
-      <c r="SK7" t="s" s="3781">
+      <c r="SJ7" t="s" s="3840">
         <v>71</v>
       </c>
-      <c r="SL7" t="s" s="3782">
+      <c r="SK7" t="s" s="3841">
         <v>72</v>
       </c>
-      <c r="SM7" t="s" s="3783">
-        <v>61</v>
-      </c>
-      <c r="SN7" t="s" s="3784">
+      <c r="SL7" t="s" s="3842">
+        <v>73</v>
+      </c>
+      <c r="SM7" t="s" s="3843">
         <v>62</v>
       </c>
-      <c r="SO7" t="s" s="3785">
+      <c r="SN7" t="s" s="3844">
         <v>63</v>
       </c>
-      <c r="SP7" t="s" s="3786">
+      <c r="SO7" t="s" s="3845">
         <v>64</v>
       </c>
-      <c r="SQ7" t="s" s="3787">
+      <c r="SP7" t="s" s="3846">
         <v>65</v>
       </c>
-      <c r="SR7" t="s" s="3788">
+      <c r="SQ7" t="s" s="3847">
         <v>66</v>
       </c>
-      <c r="SS7" t="s" s="3789">
+      <c r="SR7" t="s" s="3848">
         <v>67</v>
       </c>
-      <c r="ST7" t="s" s="3790">
+      <c r="SS7" t="s" s="3849">
         <v>68</v>
       </c>
-      <c r="SU7" t="s" s="3791">
+      <c r="ST7" t="s" s="3850">
         <v>69</v>
       </c>
-      <c r="SV7" t="s" s="3792">
+      <c r="SU7" t="s" s="3851">
         <v>70</v>
       </c>
-      <c r="SW7" t="s" s="3793">
+      <c r="SV7" t="s" s="3852">
         <v>71</v>
       </c>
-      <c r="SX7" t="s" s="3794">
+      <c r="SW7" t="s" s="3853">
         <v>72</v>
       </c>
-      <c r="SY7" t="s" s="3795">
-        <v>61</v>
-      </c>
-      <c r="SZ7" t="s" s="3796">
+      <c r="SX7" t="s" s="3854">
+        <v>73</v>
+      </c>
+      <c r="SY7" t="s" s="3855">
         <v>62</v>
       </c>
-      <c r="TA7" t="s" s="3797">
+      <c r="SZ7" t="s" s="3856">
         <v>63</v>
       </c>
-      <c r="TB7" t="s" s="3798">
+      <c r="TA7" t="s" s="3857">
         <v>64</v>
       </c>
-      <c r="TC7" t="s" s="3799">
+      <c r="TB7" t="s" s="3858">
         <v>65</v>
       </c>
-      <c r="TD7" t="s" s="3800">
+      <c r="TC7" t="s" s="3859">
         <v>66</v>
       </c>
-      <c r="TE7" t="s" s="3801">
+      <c r="TD7" t="s" s="3860">
         <v>67</v>
       </c>
-      <c r="TF7" t="s" s="3802">
+      <c r="TE7" t="s" s="3861">
         <v>68</v>
       </c>
-      <c r="TG7" t="s" s="3803">
+      <c r="TF7" t="s" s="3862">
         <v>69</v>
       </c>
-      <c r="TH7" t="s" s="3804">
+      <c r="TG7" t="s" s="3863">
         <v>70</v>
       </c>
-      <c r="TI7" t="s" s="3805">
+      <c r="TH7" t="s" s="3864">
         <v>71</v>
       </c>
-      <c r="TJ7" t="s" s="3806">
+      <c r="TI7" t="s" s="3865">
         <v>72</v>
       </c>
-      <c r="TK7" t="s" s="3807">
-        <v>61</v>
-      </c>
-      <c r="TL7" t="s" s="3808">
+      <c r="TJ7" t="s" s="3866">
+        <v>73</v>
+      </c>
+      <c r="TK7" t="s" s="3867">
         <v>62</v>
       </c>
-      <c r="TM7" t="s" s="3809">
+      <c r="TL7" t="s" s="3868">
         <v>63</v>
       </c>
-      <c r="TN7" t="s" s="3810">
+      <c r="TM7" t="s" s="3869">
         <v>64</v>
       </c>
-      <c r="TO7" t="s" s="3811">
+      <c r="TN7" t="s" s="3870">
         <v>65</v>
       </c>
-      <c r="TP7" t="s" s="3812">
+      <c r="TO7" t="s" s="3871">
         <v>66</v>
       </c>
-      <c r="TQ7" t="s" s="3813">
+      <c r="TP7" t="s" s="3872">
         <v>67</v>
       </c>
-      <c r="TR7" t="s" s="3814">
+      <c r="TQ7" t="s" s="3873">
         <v>68</v>
       </c>
-      <c r="TS7" t="s" s="3815">
+      <c r="TR7" t="s" s="3874">
         <v>69</v>
       </c>
-      <c r="TT7" t="s" s="3816">
+      <c r="TS7" t="s" s="3875">
         <v>70</v>
       </c>
-      <c r="TU7" t="s" s="3817">
+      <c r="TT7" t="s" s="3876">
         <v>71</v>
       </c>
-      <c r="TV7" t="s" s="3818">
+      <c r="TU7" t="s" s="3877">
         <v>72</v>
       </c>
-      <c r="TW7" t="s" s="3819">
-        <v>61</v>
-      </c>
-      <c r="TX7" t="s" s="3820">
+      <c r="TV7" t="s" s="3878">
+        <v>73</v>
+      </c>
+      <c r="TW7" t="s" s="3879">
         <v>62</v>
       </c>
-      <c r="TY7" t="s" s="3821">
+      <c r="TX7" t="s" s="3880">
         <v>63</v>
       </c>
-      <c r="TZ7" t="s" s="3822">
+      <c r="TY7" t="s" s="3881">
         <v>64</v>
       </c>
-      <c r="UA7" t="s" s="3823">
+      <c r="TZ7" t="s" s="3882">
         <v>65</v>
       </c>
-      <c r="UB7" t="s" s="3824">
+      <c r="UA7" t="s" s="3883">
         <v>66</v>
       </c>
-      <c r="UC7" t="s" s="3825">
+      <c r="UB7" t="s" s="3884">
         <v>67</v>
       </c>
-      <c r="UD7" t="s" s="3826">
+      <c r="UC7" t="s" s="3885">
         <v>68</v>
       </c>
-      <c r="UE7" t="s" s="3827">
+      <c r="UD7" t="s" s="3886">
         <v>69</v>
       </c>
-      <c r="UF7" t="s" s="3828">
+      <c r="UE7" t="s" s="3887">
         <v>70</v>
       </c>
-      <c r="UG7" t="s" s="3829">
+      <c r="UF7" t="s" s="3888">
         <v>71</v>
       </c>
-      <c r="UH7" t="s" s="3830">
+      <c r="UG7" t="s" s="3889">
         <v>72</v>
       </c>
-      <c r="UI7" t="s" s="3831">
-        <v>61</v>
-      </c>
-      <c r="UJ7" t="s" s="3832">
+      <c r="UH7" t="s" s="3890">
+        <v>73</v>
+      </c>
+      <c r="UI7" t="s" s="3891">
         <v>62</v>
       </c>
-      <c r="UK7" t="s" s="3833">
+      <c r="UJ7" t="s" s="3892">
         <v>63</v>
       </c>
-      <c r="UL7" t="s" s="3834">
+      <c r="UK7" t="s" s="3893">
         <v>64</v>
       </c>
-      <c r="UM7" t="s" s="3835">
+      <c r="UL7" t="s" s="3894">
         <v>65</v>
       </c>
-      <c r="UN7" t="s" s="3836">
+      <c r="UM7" t="s" s="3895">
         <v>66</v>
       </c>
-      <c r="UO7" t="s" s="3837">
+      <c r="UN7" t="s" s="3896">
         <v>67</v>
       </c>
-      <c r="UP7" t="s" s="3838">
+      <c r="UO7" t="s" s="3897">
         <v>68</v>
       </c>
-      <c r="UQ7" t="s" s="3839">
+      <c r="UP7" t="s" s="3898">
         <v>69</v>
       </c>
-      <c r="UR7" t="s" s="3840">
+      <c r="UQ7" t="s" s="3899">
         <v>70</v>
       </c>
-      <c r="US7" t="s" s="3841">
+      <c r="UR7" t="s" s="3900">
         <v>71</v>
       </c>
-      <c r="UT7" t="s" s="3842">
+      <c r="US7" t="s" s="3901">
         <v>72</v>
       </c>
-      <c r="UU7" t="s" s="3843">
-        <v>61</v>
-      </c>
-      <c r="UV7" t="s" s="3844">
+      <c r="UT7" t="s" s="3902">
+        <v>73</v>
+      </c>
+      <c r="UU7" t="s" s="3903">
         <v>62</v>
       </c>
-      <c r="UW7" t="s" s="3845">
+      <c r="UV7" t="s" s="3904">
         <v>63</v>
       </c>
-      <c r="UX7" t="s" s="3846">
+      <c r="UW7" t="s" s="3905">
         <v>64</v>
       </c>
-      <c r="UY7" t="s" s="3847">
+      <c r="UX7" t="s" s="3906">
         <v>65</v>
       </c>
-      <c r="UZ7" t="s" s="3848">
+      <c r="UY7" t="s" s="3907">
         <v>66</v>
       </c>
-      <c r="VA7" t="s" s="3849">
+      <c r="UZ7" t="s" s="3908">
         <v>67</v>
       </c>
-      <c r="VB7" t="s" s="3850">
+      <c r="VA7" t="s" s="3909">
         <v>68</v>
       </c>
-      <c r="VC7" t="s" s="3851">
+      <c r="VB7" t="s" s="3910">
         <v>69</v>
       </c>
-      <c r="VD7" t="s" s="3852">
+      <c r="VC7" t="s" s="3911">
         <v>70</v>
       </c>
-      <c r="VE7" t="s" s="3853">
+      <c r="VD7" t="s" s="3912">
         <v>71</v>
       </c>
-      <c r="VF7" t="s" s="3854">
+      <c r="VE7" t="s" s="3913">
         <v>72</v>
       </c>
-      <c r="VG7" t="s" s="3855">
-        <v>61</v>
-      </c>
-      <c r="VH7" t="s" s="3856">
+      <c r="VF7" t="s" s="3914">
+        <v>73</v>
+      </c>
+      <c r="VG7" t="s" s="3915">
         <v>62</v>
       </c>
-      <c r="VI7" t="s" s="3857">
+      <c r="VH7" t="s" s="3916">
         <v>63</v>
       </c>
-      <c r="VJ7" t="s" s="3858">
+      <c r="VI7" t="s" s="3917">
         <v>64</v>
       </c>
-      <c r="VK7" t="s" s="3859">
+      <c r="VJ7" t="s" s="3918">
         <v>65</v>
       </c>
-      <c r="VL7" t="s" s="3860">
+      <c r="VK7" t="s" s="3919">
         <v>66</v>
       </c>
-      <c r="VM7" t="s" s="3861">
+      <c r="VL7" t="s" s="3920">
         <v>67</v>
       </c>
-      <c r="VN7" t="s" s="3862">
+      <c r="VM7" t="s" s="3921">
         <v>68</v>
       </c>
-      <c r="VO7" t="s" s="3863">
+      <c r="VN7" t="s" s="3922">
         <v>69</v>
       </c>
-      <c r="VP7" t="s" s="3864">
+      <c r="VO7" t="s" s="3923">
         <v>70</v>
       </c>
-      <c r="VQ7" t="s" s="3865">
+      <c r="VP7" t="s" s="3924">
         <v>71</v>
       </c>
-      <c r="VR7" t="s" s="3866">
+      <c r="VQ7" t="s" s="3925">
         <v>72</v>
       </c>
-      <c r="VS7" t="s" s="3867">
-        <v>61</v>
-      </c>
-      <c r="VT7" t="s" s="3868">
+      <c r="VR7" t="s" s="3926">
+        <v>73</v>
+      </c>
+      <c r="VS7" t="s" s="3927">
         <v>62</v>
       </c>
-      <c r="VU7" t="s" s="3869">
+      <c r="VT7" t="s" s="3928">
         <v>63</v>
       </c>
-      <c r="VV7" t="s" s="3870">
+      <c r="VU7" t="s" s="3929">
         <v>64</v>
       </c>
-      <c r="VW7" t="s" s="3871">
+      <c r="VV7" t="s" s="3930">
         <v>65</v>
       </c>
-      <c r="VX7" t="s" s="3872">
+      <c r="VW7" t="s" s="3931">
         <v>66</v>
       </c>
-      <c r="VY7" t="s" s="3873">
+      <c r="VX7" t="s" s="3932">
         <v>67</v>
       </c>
-      <c r="VZ7" t="s" s="3874">
+      <c r="VY7" t="s" s="3933">
         <v>68</v>
       </c>
-      <c r="WA7" t="s" s="3875">
+      <c r="VZ7" t="s" s="3934">
         <v>69</v>
       </c>
-      <c r="WB7" t="s" s="3876">
+      <c r="WA7" t="s" s="3935">
         <v>70</v>
       </c>
-      <c r="WC7" t="s" s="3877">
+      <c r="WB7" t="s" s="3936">
         <v>71</v>
       </c>
-      <c r="WD7" t="s" s="3878">
+      <c r="WC7" t="s" s="3937">
         <v>72</v>
       </c>
-      <c r="WE7" t="s" s="3879">
-        <v>61</v>
-      </c>
-      <c r="WF7" t="s" s="3880">
+      <c r="WD7" t="s" s="3938">
+        <v>73</v>
+      </c>
+      <c r="WE7" t="s" s="3939">
         <v>62</v>
       </c>
-      <c r="WG7" t="s" s="3881">
+      <c r="WF7" t="s" s="3940">
         <v>63</v>
       </c>
-      <c r="WH7" t="s" s="3882">
+      <c r="WG7" t="s" s="3941">
         <v>64</v>
       </c>
-      <c r="WI7" t="s" s="3883">
+      <c r="WH7" t="s" s="3942">
         <v>65</v>
       </c>
-      <c r="WJ7" t="s" s="3884">
+      <c r="WI7" t="s" s="3943">
         <v>66</v>
       </c>
-      <c r="WK7" t="s" s="3885">
+      <c r="WJ7" t="s" s="3944">
         <v>67</v>
       </c>
-      <c r="WL7" t="s" s="3886">
+      <c r="WK7" t="s" s="3945">
         <v>68</v>
       </c>
-      <c r="WM7" t="s" s="3887">
+      <c r="WL7" t="s" s="3946">
         <v>69</v>
       </c>
-      <c r="WN7" t="s" s="3888">
+      <c r="WM7" t="s" s="3947">
         <v>70</v>
       </c>
-      <c r="WO7" t="s" s="3889">
+      <c r="WN7" t="s" s="3948">
         <v>71</v>
       </c>
-      <c r="WP7" t="s" s="3890">
+      <c r="WO7" t="s" s="3949">
         <v>72</v>
       </c>
-      <c r="WQ7" t="s" s="3891">
-        <v>61</v>
-      </c>
-      <c r="WR7" t="s" s="3892">
+      <c r="WP7" t="s" s="3950">
+        <v>73</v>
+      </c>
+      <c r="WQ7" t="s" s="3951">
         <v>62</v>
       </c>
-      <c r="WS7" t="s" s="3893">
+      <c r="WR7" t="s" s="3952">
         <v>63</v>
       </c>
-      <c r="WT7" t="s" s="3894">
+      <c r="WS7" t="s" s="3953">
         <v>64</v>
       </c>
-      <c r="WU7" t="s" s="3895">
+      <c r="WT7" t="s" s="3954">
         <v>65</v>
       </c>
-      <c r="WV7" t="s" s="3896">
+      <c r="WU7" t="s" s="3955">
         <v>66</v>
       </c>
-      <c r="WW7" t="s" s="3897">
+      <c r="WV7" t="s" s="3956">
         <v>67</v>
       </c>
-      <c r="WX7" t="s" s="3898">
+      <c r="WW7" t="s" s="3957">
         <v>68</v>
       </c>
-      <c r="WY7" t="s" s="3899">
+      <c r="WX7" t="s" s="3958">
         <v>69</v>
       </c>
-      <c r="WZ7" t="s" s="3900">
+      <c r="WY7" t="s" s="3959">
         <v>70</v>
       </c>
-      <c r="XA7" t="s" s="3901">
+      <c r="WZ7" t="s" s="3960">
         <v>71</v>
       </c>
-      <c r="XB7" t="s" s="3902">
+      <c r="XA7" t="s" s="3961">
         <v>72</v>
       </c>
-      <c r="XC7" t="s" s="3903">
-        <v>61</v>
-      </c>
-      <c r="XD7" t="s" s="3904">
+      <c r="XB7" t="s" s="3962">
+        <v>73</v>
+      </c>
+      <c r="XC7" t="s" s="3963">
         <v>62</v>
       </c>
-      <c r="XE7" t="s" s="3905">
+      <c r="XD7" t="s" s="3964">
         <v>63</v>
       </c>
-      <c r="XF7" t="s" s="3906">
+      <c r="XE7" t="s" s="3965">
         <v>64</v>
       </c>
-      <c r="XG7" t="s" s="3907">
+      <c r="XF7" t="s" s="3966">
         <v>65</v>
       </c>
-      <c r="XH7" t="s" s="3908">
+      <c r="XG7" t="s" s="3967">
         <v>66</v>
       </c>
-      <c r="XI7" t="s" s="3909">
+      <c r="XH7" t="s" s="3968">
         <v>67</v>
       </c>
-      <c r="XJ7" t="s" s="3910">
+      <c r="XI7" t="s" s="3969">
         <v>68</v>
       </c>
-      <c r="XK7" t="s" s="3911">
+      <c r="XJ7" t="s" s="3970">
         <v>69</v>
       </c>
-      <c r="XL7" t="s" s="3912">
+      <c r="XK7" t="s" s="3971">
         <v>70</v>
       </c>
-      <c r="XM7" t="s" s="3913">
+      <c r="XL7" t="s" s="3972">
         <v>71</v>
       </c>
-      <c r="XN7" t="s" s="3914">
+      <c r="XM7" t="s" s="3973">
         <v>72</v>
       </c>
-      <c r="XO7" t="s" s="3915">
-        <v>61</v>
-      </c>
-      <c r="XP7" t="s" s="3916">
+      <c r="XN7" t="s" s="3974">
+        <v>73</v>
+      </c>
+      <c r="XO7" t="s" s="3975">
         <v>62</v>
       </c>
-      <c r="XQ7" t="s" s="3917">
+      <c r="XP7" t="s" s="3976">
         <v>63</v>
       </c>
-      <c r="XR7" t="s" s="3918">
+      <c r="XQ7" t="s" s="3977">
         <v>64</v>
       </c>
-      <c r="XS7" t="s" s="3919">
+      <c r="XR7" t="s" s="3978">
         <v>65</v>
       </c>
-      <c r="XT7" t="s" s="3920">
+      <c r="XS7" t="s" s="3979">
         <v>66</v>
       </c>
-      <c r="XU7" t="s" s="3921">
+      <c r="XT7" t="s" s="3980">
         <v>67</v>
       </c>
-      <c r="XV7" t="s" s="3922">
+      <c r="XU7" t="s" s="3981">
         <v>68</v>
       </c>
-      <c r="XW7" t="s" s="3923">
+      <c r="XV7" t="s" s="3982">
         <v>69</v>
       </c>
-      <c r="XX7" t="s" s="3924">
+      <c r="XW7" t="s" s="3983">
         <v>70</v>
       </c>
-      <c r="XY7" t="s" s="3925">
+      <c r="XX7" t="s" s="3984">
         <v>71</v>
       </c>
-      <c r="XZ7" t="s" s="3926">
+      <c r="XY7" t="s" s="3985">
         <v>72</v>
+      </c>
+      <c r="XZ7" t="s" s="3986">
+        <v>73</v>
+      </c>
+      <c r="YA7" t="s" s="3987">
+        <v>62</v>
+      </c>
+      <c r="YB7" t="s" s="3988">
+        <v>63</v>
+      </c>
+      <c r="YC7" t="s" s="3989">
+        <v>64</v>
+      </c>
+      <c r="YD7" t="s" s="3990">
+        <v>65</v>
+      </c>
+      <c r="YE7" t="s" s="3991">
+        <v>66</v>
+      </c>
+      <c r="YF7" t="s" s="3992">
+        <v>67</v>
+      </c>
+      <c r="YG7" t="s" s="3993">
+        <v>68</v>
+      </c>
+      <c r="YH7" t="s" s="3994">
+        <v>69</v>
+      </c>
+      <c r="YI7" t="s" s="3995">
+        <v>70</v>
+      </c>
+      <c r="YJ7" t="s" s="3996">
+        <v>71</v>
+      </c>
+      <c r="YK7" t="s" s="3997">
+        <v>72</v>
+      </c>
+      <c r="YL7" t="s" s="3998">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>37.7</v>
@@ -22739,25 +23106,61 @@
       <c r="XY8" t="n" s="10">
         <v>118.9</v>
       </c>
-      <c r="XZ8" t="s" s="10">
-        <v>75</v>
+      <c r="XZ8" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="YA8" t="n" s="10">
+        <v>121.8</v>
+      </c>
+      <c r="YB8" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="YC8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YD8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YE8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YF8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YG8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YH8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YI8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YJ8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YK8" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YL8" t="s" s="10">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n" s="10">
         <v>-0.3</v>
@@ -22766,7 +23169,7 @@
         <v>-0.8</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="n" s="10">
         <v>-1.1</v>
@@ -22793,7 +23196,7 @@
         <v>0.3</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="n" s="10">
         <v>0.8</v>
@@ -22805,16 +23208,16 @@
         <v>0.5</v>
       </c>
       <c r="U9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="n" s="10">
         <v>0.3</v>
@@ -22826,13 +23229,13 @@
         <v>1.3</v>
       </c>
       <c r="AB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="n" s="10">
         <v>0.3</v>
@@ -22841,19 +23244,19 @@
         <v>-0.3</v>
       </c>
       <c r="AG9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="n" s="10">
         <v>0.5</v>
@@ -22889,10 +23292,10 @@
         <v>-0.5</v>
       </c>
       <c r="AW9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AX9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AY9" t="n" s="10">
         <v>1.0</v>
@@ -22913,7 +23316,7 @@
         <v>0.5</v>
       </c>
       <c r="BE9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BF9" t="n" s="10">
         <v>0.2</v>
@@ -22925,7 +23328,7 @@
         <v>1.2</v>
       </c>
       <c r="BI9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BJ9" t="n" s="10">
         <v>1.2</v>
@@ -22943,7 +23346,7 @@
         <v>1.1</v>
       </c>
       <c r="BO9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BP9" t="n" s="10">
         <v>1.3</v>
@@ -22979,10 +23382,10 @@
         <v>0.2</v>
       </c>
       <c r="CA9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CC9" t="n" s="10">
         <v>-1.0</v>
@@ -23000,7 +23403,7 @@
         <v>0.2</v>
       </c>
       <c r="CH9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CI9" t="n" s="10">
         <v>1.0</v>
@@ -23051,13 +23454,13 @@
         <v>1.4</v>
       </c>
       <c r="CY9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CZ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DA9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DB9" t="n" s="10">
         <v>0.9</v>
@@ -23087,7 +23490,7 @@
         <v>0.7</v>
       </c>
       <c r="DK9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DL9" t="n" s="10">
         <v>-0.3</v>
@@ -23114,22 +23517,22 @@
         <v>0.4</v>
       </c>
       <c r="DT9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DU9" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DV9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DW9" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DX9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DY9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DZ9" t="n" s="10">
         <v>-0.7</v>
@@ -23138,7 +23541,7 @@
         <v>-0.5</v>
       </c>
       <c r="EB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EC9" t="n" s="10">
         <v>0.7</v>
@@ -23168,13 +23571,13 @@
         <v>0.7</v>
       </c>
       <c r="EL9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EM9" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="EN9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EO9" t="n" s="10">
         <v>0.6</v>
@@ -23198,10 +23601,10 @@
         <v>0.6</v>
       </c>
       <c r="EV9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EW9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EX9" t="n" s="10">
         <v>-0.9</v>
@@ -23252,13 +23655,13 @@
         <v>0.4</v>
       </c>
       <c r="FN9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="FO9" t="n" s="10">
         <v>1.6</v>
       </c>
       <c r="FP9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="FQ9" t="n" s="10">
         <v>-0.4</v>
@@ -23318,7 +23721,7 @@
         <v>0.8</v>
       </c>
       <c r="GJ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="GK9" t="n" s="10">
         <v>0.3</v>
@@ -23393,7 +23796,7 @@
         <v>-0.9</v>
       </c>
       <c r="HI9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="HJ9" t="n" s="10">
         <v>-0.3</v>
@@ -23441,16 +23844,16 @@
         <v>-0.1</v>
       </c>
       <c r="HY9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="HZ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IA9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IC9" t="n" s="10">
         <v>-0.1</v>
@@ -23471,7 +23874,7 @@
         <v>0.1</v>
       </c>
       <c r="II9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IJ9" t="n" s="10">
         <v>-0.1</v>
@@ -23483,7 +23886,7 @@
         <v>0.7</v>
       </c>
       <c r="IM9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IN9" t="n" s="10">
         <v>0.9</v>
@@ -23492,10 +23895,10 @@
         <v>-0.4</v>
       </c>
       <c r="IP9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IQ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="IR9" t="n" s="10">
         <v>0.4</v>
@@ -23627,7 +24030,7 @@
         <v>0.4</v>
       </c>
       <c r="KI9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="KJ9" t="n" s="10">
         <v>-0.1</v>
@@ -23642,7 +24045,7 @@
         <v>-0.4</v>
       </c>
       <c r="KN9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="KO9" t="n" s="10">
         <v>0.1</v>
@@ -23684,7 +24087,7 @@
         <v>0.5</v>
       </c>
       <c r="LB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LC9" t="n" s="10">
         <v>0.3</v>
@@ -23729,7 +24132,7 @@
         <v>0.6</v>
       </c>
       <c r="LQ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LR9" t="n" s="10">
         <v>-0.1</v>
@@ -23738,7 +24141,7 @@
         <v>0.1</v>
       </c>
       <c r="LT9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LU9" t="n" s="10">
         <v>-0.9</v>
@@ -23747,13 +24150,13 @@
         <v>-0.3</v>
       </c>
       <c r="LW9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LX9" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="LY9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LZ9" t="n" s="10">
         <v>0.3</v>
@@ -23768,7 +24171,7 @@
         <v>0.4</v>
       </c>
       <c r="MD9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="ME9" t="n" s="10">
         <v>0.3</v>
@@ -23831,7 +24234,7 @@
         <v>0.4</v>
       </c>
       <c r="MY9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="MZ9" t="n" s="10">
         <v>-0.1</v>
@@ -23879,13 +24282,13 @@
         <v>0.5</v>
       </c>
       <c r="NO9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="NP9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="NQ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="NR9" t="n" s="10">
         <v>0.1</v>
@@ -23894,7 +24297,7 @@
         <v>0.3</v>
       </c>
       <c r="NT9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="NU9" t="n" s="10">
         <v>0.9</v>
@@ -23921,7 +24324,7 @@
         <v>0.3</v>
       </c>
       <c r="OC9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OD9" t="n" s="10">
         <v>0.1</v>
@@ -23933,7 +24336,7 @@
         <v>0.1</v>
       </c>
       <c r="OG9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OH9" t="n" s="10">
         <v>-0.2</v>
@@ -23984,7 +24387,7 @@
         <v>0.6</v>
       </c>
       <c r="OX9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OY9" t="n" s="10">
         <v>-0.5</v>
@@ -24002,7 +24405,7 @@
         <v>0.9</v>
       </c>
       <c r="PD9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PE9" t="n" s="10">
         <v>-0.9</v>
@@ -24038,13 +24441,13 @@
         <v>0.7</v>
       </c>
       <c r="PP9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PQ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PR9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PS9" t="n" s="10">
         <v>0.5</v>
@@ -24071,7 +24474,7 @@
         <v>0.5</v>
       </c>
       <c r="QA9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="QB9" t="n" s="10">
         <v>0.8</v>
@@ -24104,7 +24507,7 @@
         <v>0.6</v>
       </c>
       <c r="QL9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="QM9" t="n" s="10">
         <v>1.7</v>
@@ -24152,10 +24555,10 @@
         <v>0.1</v>
       </c>
       <c r="RB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="RC9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="RD9" t="n" s="10">
         <v>0.4</v>
@@ -24332,7 +24735,7 @@
         <v>0.5</v>
       </c>
       <c r="TJ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="TK9" t="n" s="10">
         <v>1.1</v>
@@ -24368,7 +24771,7 @@
         <v>-0.5</v>
       </c>
       <c r="TV9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="TW9" t="n" s="10">
         <v>0.3</v>
@@ -24413,7 +24816,7 @@
         <v>-0.1</v>
       </c>
       <c r="UK9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="UL9" t="n" s="10">
         <v>0.2</v>
@@ -24461,7 +24864,7 @@
         <v>-0.1</v>
       </c>
       <c r="VA9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="VB9" t="n" s="10">
         <v>-0.9</v>
@@ -24509,7 +24912,7 @@
         <v>0.3</v>
       </c>
       <c r="VQ9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="VR9" t="n" s="10">
         <v>1.4</v>
@@ -24620,7 +25023,7 @@
         <v>-0.1</v>
       </c>
       <c r="XB9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="XC9" t="n" s="10">
         <v>1.0</v>
@@ -24647,7 +25050,7 @@
         <v>-0.4</v>
       </c>
       <c r="XK9" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="XL9" t="n" s="10">
         <v>-0.2</v>
@@ -24691,61 +25094,97 @@
       <c r="XY9" t="n" s="10">
         <v>1.3</v>
       </c>
-      <c r="XZ9" t="s" s="10">
-        <v>75</v>
+      <c r="XZ9" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="YA9" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="YB9" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="YC9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YD9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YE9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YF9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YG9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YH9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YI9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YJ9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YK9" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YL9" t="s" s="10">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="P10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="n" s="10">
         <v>1.1</v>
@@ -25048,7 +25487,7 @@
         <v>1.4</v>
       </c>
       <c r="DN10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DO10" t="n" s="10">
         <v>-0.3</v>
@@ -25339,7 +25778,7 @@
         <v>-0.1</v>
       </c>
       <c r="HG10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="HH10" t="n" s="10">
         <v>-1.6</v>
@@ -25636,7 +26075,7 @@
         <v>-0.1</v>
       </c>
       <c r="LB10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LC10" t="n" s="10">
         <v>-0.1</v>
@@ -25699,7 +26138,7 @@
         <v>0.1</v>
       </c>
       <c r="LW10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="LX10" t="n" s="10">
         <v>-0.4</v>
@@ -25840,7 +26279,7 @@
         <v>-1.2</v>
       </c>
       <c r="NR10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="NS10" t="n" s="10">
         <v>0.7</v>
@@ -25915,7 +26354,7 @@
         <v>1.5</v>
       </c>
       <c r="OQ10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OR10" t="n" s="10">
         <v>-0.7</v>
@@ -25930,13 +26369,13 @@
         <v>0.6</v>
       </c>
       <c r="OV10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OW10" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="OX10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="OY10" t="n" s="10">
         <v>-1.0</v>
@@ -25978,10 +26417,10 @@
         <v>-0.2</v>
       </c>
       <c r="PL10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PM10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PN10" t="n" s="10">
         <v>0.6</v>
@@ -26002,7 +26441,7 @@
         <v>0.4</v>
       </c>
       <c r="PT10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="PU10" t="n" s="10">
         <v>1.1</v>
@@ -26611,7 +27050,7 @@
         <v>-1.2</v>
       </c>
       <c r="XO10" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="XP10" t="n" s="10">
         <v>2.3</v>
@@ -26643,27 +27082,63 @@
       <c r="XY10" t="n" s="10">
         <v>16.6</v>
       </c>
-      <c r="XZ10" t="s" s="10">
-        <v>75</v>
+      <c r="XZ10" t="n" s="10">
+        <v>16.1</v>
+      </c>
+      <c r="YA10" t="n" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="YB10" t="n" s="10">
+        <v>16.6</v>
+      </c>
+      <c r="YC10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YD10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YE10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YF10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YG10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YH10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YI10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YJ10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YK10" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="YL10" t="s" s="10">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="12">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:XZ2"/>
-    <mergeCell ref="A3:XZ3"/>
+    <mergeCell ref="A2:YL2"/>
+    <mergeCell ref="A3:YL3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:XZ4"/>
+    <mergeCell ref="C4:YL4"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
     <mergeCell ref="AA5:AL5"/>
@@ -26718,6 +27193,7 @@
     <mergeCell ref="WQ5:XB5"/>
     <mergeCell ref="XC5:XN5"/>
     <mergeCell ref="XO5:XZ5"/>
+    <mergeCell ref="YA5:YL5"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="AA6:AL6"/>
@@ -26772,11 +27248,12 @@
     <mergeCell ref="WQ6:XB6"/>
     <mergeCell ref="XC6:XN6"/>
     <mergeCell ref="XO6:XZ6"/>
-    <mergeCell ref="A1:XZ1"/>
+    <mergeCell ref="YA6:YL6"/>
+    <mergeCell ref="A1:YL1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:31:53&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:07:43&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>